--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Success\SVN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\SVN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>STT</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>Photo đề kiểm tra part 5 Toeic 300-500 K4</t>
+  </si>
+  <si>
+    <t>17/6</t>
+  </si>
+  <si>
+    <t>Chuyển phát nhanh hồ sơ của A Đót</t>
   </si>
 </sst>
 </file>
@@ -615,7 +621,7 @@
   <dimension ref="A2:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -705,7 +711,15 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2">
+        <v>11000</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -807,7 +821,7 @@
       </c>
       <c r="E23" s="2">
         <f>SUM(E3:E22)</f>
-        <v>159000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -816,7 +830,7 @@
       </c>
       <c r="D24" s="2">
         <f>D23-E23</f>
-        <v>1281000</v>
+        <v>1270000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -881,7 +895,7 @@
       </c>
       <c r="D3" s="2">
         <f>'Thang 6'!D24</f>
-        <v>1281000</v>
+        <v>1270000</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1004,7 +1018,7 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D3:D22)</f>
-        <v>1281000</v>
+        <v>1270000</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E3:E22)</f>
@@ -1017,7 +1031,7 @@
       </c>
       <c r="D24" s="2">
         <f>D23-E23</f>
-        <v>1281000</v>
+        <v>1270000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>STT</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>Chuyển phát nhanh hồ sơ của A Đót</t>
+  </si>
+  <si>
+    <t>20/6</t>
+  </si>
+  <si>
+    <t>Tiền điện thoại</t>
   </si>
 </sst>
 </file>
@@ -621,7 +627,7 @@
   <dimension ref="A2:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -725,7 +731,15 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2">
+        <v>24000</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -821,7 +835,7 @@
       </c>
       <c r="E23" s="2">
         <f>SUM(E3:E22)</f>
-        <v>170000</v>
+        <v>194000</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -830,7 +844,7 @@
       </c>
       <c r="D24" s="2">
         <f>D23-E23</f>
-        <v>1270000</v>
+        <v>1246000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -895,7 +909,7 @@
       </c>
       <c r="D3" s="2">
         <f>'Thang 6'!D24</f>
-        <v>1270000</v>
+        <v>1246000</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1018,7 +1032,7 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D3:D22)</f>
-        <v>1270000</v>
+        <v>1246000</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E3:E22)</f>
@@ -1031,7 +1045,7 @@
       </c>
       <c r="D24" s="2">
         <f>D23-E23</f>
-        <v>1270000</v>
+        <v>1246000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>STT</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>Tiền điện thoại</t>
+  </si>
+  <si>
+    <t>Tiền photo mẫu hồ sơ đề nghị cấp phép</t>
   </si>
 </sst>
 </file>
@@ -627,7 +630,7 @@
   <dimension ref="A2:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -745,7 +748,15 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6000</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -835,7 +846,7 @@
       </c>
       <c r="E23" s="2">
         <f>SUM(E3:E22)</f>
-        <v>194000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -844,7 +855,7 @@
       </c>
       <c r="D24" s="2">
         <f>D23-E23</f>
-        <v>1246000</v>
+        <v>1240000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -909,7 +920,7 @@
       </c>
       <c r="D3" s="2">
         <f>'Thang 6'!D24</f>
-        <v>1246000</v>
+        <v>1240000</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1032,7 +1043,7 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D3:D22)</f>
-        <v>1246000</v>
+        <v>1240000</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E3:E22)</f>
@@ -1045,7 +1056,7 @@
       </c>
       <c r="D24" s="2">
         <f>D23-E23</f>
-        <v>1246000</v>
+        <v>1240000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>STT</t>
   </si>
@@ -112,10 +112,19 @@
     <t>20/6</t>
   </si>
   <si>
-    <t>Tiền điện thoại</t>
-  </si>
-  <si>
     <t>Tiền photo mẫu hồ sơ đề nghị cấp phép</t>
+  </si>
+  <si>
+    <t>Tiền điện thoại cố định</t>
+  </si>
+  <si>
+    <t>Tiền điện thoại di động</t>
+  </si>
+  <si>
+    <t>19/6</t>
+  </si>
+  <si>
+    <t>Thu tiền học phí Toeic 500-700</t>
   </si>
 </sst>
 </file>
@@ -630,7 +639,7 @@
   <dimension ref="A2:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -738,7 +747,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2">
         <v>24000</v>
@@ -752,7 +761,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2">
         <v>6000</v>
@@ -762,13 +771,29 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2">
+        <v>215000</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1584000</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -842,11 +867,11 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D3:D22)</f>
-        <v>1440000</v>
+        <v>3024000</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E3:E22)</f>
-        <v>200000</v>
+        <v>415000</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -855,7 +880,7 @@
       </c>
       <c r="D24" s="2">
         <f>D23-E23</f>
-        <v>1240000</v>
+        <v>2609000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -920,7 +945,7 @@
       </c>
       <c r="D3" s="2">
         <f>'Thang 6'!D24</f>
-        <v>1240000</v>
+        <v>2609000</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1043,7 +1068,7 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D3:D22)</f>
-        <v>1240000</v>
+        <v>2609000</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E3:E22)</f>
@@ -1056,7 +1081,7 @@
       </c>
       <c r="D24" s="2">
         <f>D23-E23</f>
-        <v>1240000</v>
+        <v>2609000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>STT</t>
   </si>
@@ -125,6 +125,21 @@
   </si>
   <si>
     <t>Thu tiền học phí Toeic 500-700</t>
+  </si>
+  <si>
+    <t>24/6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In decal chữ để dán bảng Trung tâm </t>
+  </si>
+  <si>
+    <t>Mua cái ghim hóa đơn</t>
+  </si>
+  <si>
+    <t>28/6</t>
+  </si>
+  <si>
+    <t>Photo đề kiểm tra part 3 Toeic 500-700 K2</t>
   </si>
 </sst>
 </file>
@@ -639,7 +654,7 @@
   <dimension ref="A2:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -799,19 +814,43 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="2">
+        <v>30000</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="B13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="2">
+        <v>13000</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="10"/>
+      <c r="B14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="2">
+        <v>6000</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -871,7 +910,7 @@
       </c>
       <c r="E23" s="2">
         <f>SUM(E3:E22)</f>
-        <v>415000</v>
+        <v>464000</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -880,7 +919,7 @@
       </c>
       <c r="D24" s="2">
         <f>D23-E23</f>
-        <v>2609000</v>
+        <v>2560000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -945,7 +984,7 @@
       </c>
       <c r="D3" s="2">
         <f>'Thang 6'!D24</f>
-        <v>2609000</v>
+        <v>2560000</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1068,7 +1107,7 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D3:D22)</f>
-        <v>2609000</v>
+        <v>2560000</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E3:E22)</f>
@@ -1081,7 +1120,7 @@
       </c>
       <c r="D24" s="2">
         <f>D23-E23</f>
-        <v>2609000</v>
+        <v>2560000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>STT</t>
   </si>
@@ -140,6 +140,15 @@
   </si>
   <si>
     <t>Photo đề kiểm tra part 3 Toeic 500-700 K2</t>
+  </si>
+  <si>
+    <t>29/6</t>
+  </si>
+  <si>
+    <t>5 chai nước</t>
+  </si>
+  <si>
+    <t>30/6</t>
   </si>
 </sst>
 </file>
@@ -653,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -856,25 +865,57 @@
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="2">
+        <v>50000</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="10"/>
+      <c r="B16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1584000</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1584000</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1440000</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -906,11 +947,11 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D3:D22)</f>
-        <v>3024000</v>
+        <v>7632000</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E3:E22)</f>
-        <v>464000</v>
+        <v>514000</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -919,7 +960,7 @@
       </c>
       <c r="D24" s="2">
         <f>D23-E23</f>
-        <v>2560000</v>
+        <v>7118000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -984,7 +1025,7 @@
       </c>
       <c r="D3" s="2">
         <f>'Thang 6'!D24</f>
-        <v>2560000</v>
+        <v>7118000</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1107,7 +1148,7 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D3:D22)</f>
-        <v>2560000</v>
+        <v>7118000</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E3:E22)</f>
@@ -1120,7 +1161,7 @@
       </c>
       <c r="D24" s="2">
         <f>D23-E23</f>
-        <v>2560000</v>
+        <v>7118000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>STT</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>30/6</t>
+  </si>
+  <si>
+    <t>Thu tiền học phí Toeci 300-500 K5</t>
+  </si>
+  <si>
+    <t>Photo đề kiểm tra part 7 (500-700) và thông tin học viên</t>
   </si>
 </sst>
 </file>
@@ -662,15 +668,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
@@ -907,7 +913,7 @@
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -921,19 +927,43 @@
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="8">
+        <v>42801</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1584000</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="8"/>
+      <c r="B20" s="10">
+        <v>42801</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1440000</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="8">
+        <v>42801</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="2">
+        <v>24000</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -947,11 +977,11 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D3:D22)</f>
-        <v>7632000</v>
+        <v>10656000</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E3:E22)</f>
-        <v>514000</v>
+        <v>538000</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -960,7 +990,7 @@
       </c>
       <c r="D24" s="2">
         <f>D23-E23</f>
-        <v>7118000</v>
+        <v>10118000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1025,7 +1055,7 @@
       </c>
       <c r="D3" s="2">
         <f>'Thang 6'!D24</f>
-        <v>7118000</v>
+        <v>10118000</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1148,7 +1178,7 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D3:D22)</f>
-        <v>7118000</v>
+        <v>10118000</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E3:E22)</f>
@@ -1161,7 +1191,7 @@
       </c>
       <c r="D24" s="2">
         <f>D23-E23</f>
-        <v>7118000</v>
+        <v>10118000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>STT</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Photo đề kiểm tra part 7 (500-700) và thông tin học viên</t>
+  </si>
+  <si>
+    <t>Chi phí quảng cáo FB</t>
   </si>
 </sst>
 </file>
@@ -669,7 +672,7 @@
   <dimension ref="A2:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -969,7 +972,15 @@
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="8">
+        <v>42832</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1951000</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
@@ -979,10 +990,6 @@
         <f>SUM(D3:D22)</f>
         <v>10656000</v>
       </c>
-      <c r="E23" s="2">
-        <f>SUM(E3:E22)</f>
-        <v>538000</v>
-      </c>
     </row>
     <row r="24" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
@@ -990,7 +997,7 @@
       </c>
       <c r="D24" s="2">
         <f>D23-E23</f>
-        <v>10118000</v>
+        <v>10656000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1055,7 +1062,7 @@
       </c>
       <c r="D3" s="2">
         <f>'Thang 6'!D24</f>
-        <v>10118000</v>
+        <v>10656000</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1178,7 +1185,7 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D3:D22)</f>
-        <v>10118000</v>
+        <v>10656000</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E3:E22)</f>
@@ -1191,7 +1198,7 @@
       </c>
       <c r="D24" s="2">
         <f>D23-E23</f>
-        <v>10118000</v>
+        <v>10656000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
   <si>
     <t>STT</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>Chi phí quảng cáo FB</t>
+  </si>
+  <si>
+    <t>21/6</t>
+  </si>
+  <si>
+    <t>Tiền học phí Toeic 500-700</t>
   </si>
 </sst>
 </file>
@@ -669,10 +675,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E35"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -685,152 +692,166 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="2" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>15</v>
+      <c r="B2" s="10">
+        <v>43075</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1440000</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10">
-        <v>43075</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1440000</v>
+        <v>21</v>
+      </c>
+      <c r="E3" s="2">
+        <v>150000</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2">
-        <v>150000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2">
-        <v>6000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2">
-        <v>3000</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2">
-        <v>11000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2">
-        <v>24000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2">
-        <v>6000</v>
+        <v>215000</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="2">
-        <v>215000</v>
+        <v>32</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1584000</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2">
-        <v>1584000</v>
+        <v>1440000</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>33</v>
@@ -844,7 +865,7 @@
     </row>
     <row r="13" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>33</v>
@@ -858,7 +879,7 @@
     </row>
     <row r="14" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>36</v>
@@ -872,7 +893,7 @@
     </row>
     <row r="15" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>38</v>
@@ -886,7 +907,7 @@
     </row>
     <row r="16" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>38</v>
@@ -900,7 +921,7 @@
     </row>
     <row r="17" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>38</v>
@@ -914,41 +935,41 @@
     </row>
     <row r="18" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2">
-        <v>1440000</v>
+        <v>1584000</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>17</v>
-      </c>
-      <c r="B19" s="8">
-        <v>42801</v>
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2">
-        <v>1584000</v>
+        <v>1440000</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" s="10">
-        <v>42801</v>
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D20" s="2">
         <v>1440000</v>
@@ -956,53 +977,96 @@
     </row>
     <row r="21" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="8">
         <v>42801</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="2">
-        <v>24000</v>
+        <v>32</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1584000</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>20</v>
-      </c>
-      <c r="B22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10">
+        <v>42801</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1440000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8">
+        <v>42801</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="2">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8">
         <v>42832</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1584000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="8">
+        <v>42832</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E25" s="2">
         <v>1951000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="1" t="s">
+    <row r="26" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="2">
-        <f>SUM(D3:D22)</f>
-        <v>10656000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="1" t="s">
+      <c r="D26" s="2">
+        <f>SUM(D2:D25)</f>
+        <v>16704000</v>
+      </c>
+      <c r="E26" s="2">
+        <f>SUM(E2:E25)</f>
+        <v>2489000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="2">
-        <f>D23-E23</f>
-        <v>10656000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D27" s="2">
+        <f>D26-E26</f>
+        <v>14215000</v>
+      </c>
+    </row>
     <row r="28" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1011,6 +1075,9 @@
     <row r="33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1061,8 +1128,8 @@
         <v>17</v>
       </c>
       <c r="D3" s="2">
-        <f>'Thang 6'!D24</f>
-        <v>10656000</v>
+        <f>'Thang 6'!D27</f>
+        <v>14215000</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1185,7 +1252,7 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D3:D22)</f>
-        <v>10656000</v>
+        <v>14215000</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E3:E22)</f>
@@ -1198,7 +1265,7 @@
       </c>
       <c r="D24" s="2">
         <f>D23-E23</f>
-        <v>10656000</v>
+        <v>14215000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>STT</t>
   </si>
@@ -675,11 +675,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="8">
         <v>42832</v>
@@ -1046,30 +1046,69 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8">
+        <v>42862</v>
+      </c>
       <c r="C26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1440000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8">
+        <v>42862</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1440000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8">
+        <v>42862</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1440000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="2">
-        <f>SUM(D2:D25)</f>
-        <v>16704000</v>
-      </c>
-      <c r="E26" s="2">
-        <f>SUM(E2:E25)</f>
+      <c r="D29" s="2">
+        <f>SUM(D2:D28)</f>
+        <v>21024000</v>
+      </c>
+      <c r="E29" s="2">
+        <f>SUM(E2:E26)</f>
         <v>2489000</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="1" t="s">
+    <row r="30" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="2">
-        <f>D26-E26</f>
-        <v>14215000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D30" s="2">
+        <f>D29-E29</f>
+        <v>18535000</v>
+      </c>
+    </row>
     <row r="31" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1078,6 +1117,9 @@
     <row r="36" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1128,8 +1170,8 @@
         <v>17</v>
       </c>
       <c r="D3" s="2">
-        <f>'Thang 6'!D27</f>
-        <v>14215000</v>
+        <f>'Thang 6'!D30</f>
+        <v>18535000</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1252,7 +1294,7 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D3:D22)</f>
-        <v>14215000</v>
+        <v>18535000</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E3:E22)</f>
@@ -1265,7 +1307,7 @@
       </c>
       <c r="D24" s="2">
         <f>D23-E23</f>
-        <v>14215000</v>
+        <v>18535000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -678,8 +678,8 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -944,7 +944,7 @@
         <v>32</v>
       </c>
       <c r="D18" s="2">
-        <v>1584000</v>
+        <v>1580000</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="D29" s="2">
         <f>SUM(D2:D28)</f>
-        <v>21024000</v>
+        <v>21020000</v>
       </c>
       <c r="E29" s="2">
         <f>SUM(E2:E26)</f>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="D30" s="2">
         <f>D29-E29</f>
-        <v>18535000</v>
+        <v>18531000</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="D3" s="2">
         <f>'Thang 6'!D30</f>
-        <v>18535000</v>
+        <v>18531000</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D3:D22)</f>
-        <v>18535000</v>
+        <v>18531000</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E3:E22)</f>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="D24" s="2">
         <f>D23-E23</f>
-        <v>18535000</v>
+        <v>18531000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>STT</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>Tiền học phí Toeic 500-700</t>
+  </si>
+  <si>
+    <t>Photo đề kiểm tra lớp 500-700 test 3 part 7</t>
   </si>
 </sst>
 </file>
@@ -675,11 +678,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1087,29 +1090,42 @@
         <v>1440000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8">
+        <v>42923</v>
+      </c>
       <c r="C29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="2">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D30" s="2">
         <f>SUM(D2:D28)</f>
         <v>21020000</v>
       </c>
-      <c r="E29" s="2">
-        <f>SUM(E2:E26)</f>
+      <c r="E30" s="2">
+        <f>SUM(E2:E28)</f>
         <v>2489000</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="1" t="s">
+    <row r="31" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="2">
-        <f>D29-E29</f>
+      <c r="D31" s="2">
+        <f>D30-E30</f>
         <v>18531000</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1120,6 +1136,7 @@
     <row r="39" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1170,7 +1187,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="2">
-        <f>'Thang 6'!D30</f>
+        <f>'Thang 6'!D31</f>
         <v>18531000</v>
       </c>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t>STT</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>Photo đề kiểm tra lớp 500-700 test 3 part 7</t>
+  </si>
+  <si>
+    <t>Tiền Wifi</t>
   </si>
 </sst>
 </file>
@@ -678,11 +681,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1104,39 +1107,67 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8">
+        <v>42954</v>
+      </c>
       <c r="C30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1584000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8">
+        <v>42954</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="2">
+        <v>248000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="2">
-        <f>SUM(D2:D28)</f>
-        <v>21020000</v>
-      </c>
-      <c r="E30" s="2">
-        <f>SUM(E2:E28)</f>
-        <v>2489000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="1" t="s">
+      <c r="D32" s="2">
+        <f>SUM(D2:D31)</f>
+        <v>22604000</v>
+      </c>
+      <c r="E32" s="2">
+        <f>SUM(E2:E31)</f>
+        <v>2773000</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="2">
-        <f>D30-E30</f>
-        <v>18531000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D33" s="2">
+        <f>D32-E32</f>
+        <v>19831000</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1187,8 +1218,8 @@
         <v>17</v>
       </c>
       <c r="D3" s="2">
-        <f>'Thang 6'!D31</f>
-        <v>18531000</v>
+        <f>'Thang 6'!D33</f>
+        <v>19831000</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1311,7 +1342,7 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D3:D22)</f>
-        <v>18531000</v>
+        <v>19831000</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E3:E22)</f>
@@ -1324,7 +1355,7 @@
       </c>
       <c r="D24" s="2">
         <f>D23-E23</f>
-        <v>18531000</v>
+        <v>19831000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
   <si>
     <t>STT</t>
   </si>
@@ -681,11 +681,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1135,39 +1135,53 @@
         <v>248000</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8">
+        <v>43015</v>
+      </c>
       <c r="C32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1580000</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="2">
-        <f>SUM(D2:D31)</f>
-        <v>22604000</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="D33" s="2">
+        <f>SUM(D2:D32)</f>
+        <v>24184000</v>
+      </c>
+      <c r="E33" s="2">
         <f>SUM(E2:E31)</f>
         <v>2773000</v>
       </c>
     </row>
-    <row r="33" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="1" t="s">
+    <row r="34" spans="3:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="2">
-        <f>D32-E32</f>
-        <v>19831000</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D34" s="2">
+        <f>D33-E33</f>
+        <v>21411000</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="3:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="3:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="3:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="3:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="3:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="3:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="3:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="3:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="3:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="3:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1218,8 +1232,8 @@
         <v>17</v>
       </c>
       <c r="D3" s="2">
-        <f>'Thang 6'!D33</f>
-        <v>19831000</v>
+        <f>'Thang 6'!D34</f>
+        <v>21411000</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1342,7 +1356,7 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D3:D22)</f>
-        <v>19831000</v>
+        <v>21411000</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E3:E22)</f>
@@ -1355,7 +1369,7 @@
       </c>
       <c r="D24" s="2">
         <f>D23-E23</f>
-        <v>19831000</v>
+        <v>21411000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
   <si>
     <t>STT</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>Tiền Wifi</t>
+  </si>
+  <si>
+    <t>14/7</t>
   </si>
 </sst>
 </file>
@@ -681,11 +684,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1149,39 +1152,53 @@
         <v>1580000</v>
       </c>
     </row>
-    <row r="33" spans="3:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="C33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1440000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="2">
-        <f>SUM(D2:D32)</f>
-        <v>24184000</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="D34" s="2">
+        <f>SUM(D2:D33)</f>
+        <v>25624000</v>
+      </c>
+      <c r="E34" s="2">
         <f>SUM(E2:E31)</f>
         <v>2773000</v>
       </c>
     </row>
-    <row r="34" spans="3:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="1" t="s">
+    <row r="35" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="2">
-        <f>D33-E33</f>
-        <v>21411000</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="3:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="3:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="3:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="3:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="3:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="3:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="3:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="3:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="3:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="3:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D35" s="2">
+        <f>D34-E34</f>
+        <v>22851000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1232,8 +1249,8 @@
         <v>17</v>
       </c>
       <c r="D3" s="2">
-        <f>'Thang 6'!D34</f>
-        <v>21411000</v>
+        <f>'Thang 6'!D35</f>
+        <v>22851000</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1356,7 +1373,7 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D3:D22)</f>
-        <v>21411000</v>
+        <v>22851000</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E3:E22)</f>
@@ -1369,7 +1386,7 @@
       </c>
       <c r="D24" s="2">
         <f>D23-E23</f>
-        <v>21411000</v>
+        <v>22851000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>STT</t>
   </si>
@@ -173,6 +173,21 @@
   </si>
   <si>
     <t>14/7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mua khung ảnh </t>
+  </si>
+  <si>
+    <t>16/7</t>
+  </si>
+  <si>
+    <t>19/7</t>
+  </si>
+  <si>
+    <t>In slogan</t>
+  </si>
+  <si>
+    <t>Đổi bình nước</t>
   </si>
 </sst>
 </file>
@@ -684,11 +699,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1166,32 +1181,84 @@
         <v>1440000</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="C34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="2">
+        <v>325000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="2">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="2">
-        <f>SUM(D2:D33)</f>
+      <c r="D38" s="2">
+        <f>SUM(D2:D37)</f>
         <v>25624000</v>
       </c>
-      <c r="E34" s="2">
-        <f>SUM(E2:E31)</f>
-        <v>2773000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="1" t="s">
+      <c r="E38" s="2">
+        <f>SUM(E2:E37)</f>
+        <v>3182000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="2">
-        <f>D34-E34</f>
-        <v>22851000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D39" s="2">
+        <f>D38-E38</f>
+        <v>22442000</v>
+      </c>
+    </row>
     <row r="40" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1199,6 +1266,10 @@
     <row r="44" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1249,8 +1320,8 @@
         <v>17</v>
       </c>
       <c r="D3" s="2">
-        <f>'Thang 6'!D35</f>
-        <v>22851000</v>
+        <f>'Thang 6'!D39</f>
+        <v>22442000</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1373,7 +1444,7 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D3:D22)</f>
-        <v>22851000</v>
+        <v>22442000</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E3:E22)</f>
@@ -1386,7 +1457,7 @@
       </c>
       <c r="D24" s="2">
         <f>D23-E23</f>
-        <v>22851000</v>
+        <v>22442000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
   <si>
     <t>STT</t>
   </si>
@@ -188,6 +188,21 @@
   </si>
   <si>
     <t>Đổi bình nước</t>
+  </si>
+  <si>
+    <t>20/7</t>
+  </si>
+  <si>
+    <t>21/7</t>
+  </si>
+  <si>
+    <t>In decal bảng thành tích</t>
+  </si>
+  <si>
+    <t>28/07</t>
+  </si>
+  <si>
+    <t>Học phí TOEIC khóa 300-500 K6</t>
   </si>
 </sst>
 </file>
@@ -699,11 +714,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1003,42 +1018,42 @@
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="8">
-        <v>42801</v>
+      <c r="B21" s="10">
+        <v>42742</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1584000</v>
+        <v>29</v>
+      </c>
+      <c r="E21" s="2">
+        <v>25000</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="8">
         <v>42801</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2">
-        <v>1440000</v>
+        <v>1584000</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="10">
         <v>42801</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="2">
-        <v>24000</v>
+        <v>41</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1440000</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1046,13 +1061,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="8">
-        <v>42832</v>
+        <v>42801</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1584000</v>
+        <v>42</v>
+      </c>
+      <c r="E24" s="2">
+        <v>24000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1063,10 +1078,10 @@
         <v>42832</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="2">
-        <v>1951000</v>
+        <v>45</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1584000</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1074,16 +1089,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="8">
-        <v>42862</v>
+        <v>42832</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1440000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1951000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1116,13 +1131,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="8">
-        <v>42923</v>
+        <v>42862</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="2">
-        <v>36000</v>
+        <v>19</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1440000</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1130,13 +1145,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="8">
-        <v>42954</v>
+        <v>42923</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1584000</v>
+        <v>46</v>
+      </c>
+      <c r="E30" s="2">
+        <v>36000</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,10 +1162,10 @@
         <v>42954</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="2">
-        <v>248000</v>
+        <v>32</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1584000</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1158,27 +1173,27 @@
         <v>31</v>
       </c>
       <c r="B32" s="8">
-        <v>43015</v>
+        <v>42954</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="2">
-        <v>1580000</v>
+        <v>47</v>
+      </c>
+      <c r="E32" s="2">
+        <v>248000</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>48</v>
+      <c r="B33" s="8">
+        <v>43015</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D33" s="2">
-        <v>1440000</v>
+        <v>1580000</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1186,13 +1201,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="2">
-        <v>325000</v>
+        <v>19</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1440000</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1200,13 +1215,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E35" s="2">
-        <v>12000</v>
+        <v>325000</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1217,7 +1232,7 @@
         <v>51</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E36" s="2">
         <v>12000</v>
@@ -1231,38 +1246,82 @@
         <v>51</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E38" s="2">
         <v>60000</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="1" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="2">
+        <v>271000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="10"/>
+    </row>
+    <row r="42" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="2">
-        <f>SUM(D2:D37)</f>
+      <c r="D42" s="2">
+        <f>SUM(D2:D38)</f>
         <v>25624000</v>
       </c>
-      <c r="E38" s="2">
-        <f>SUM(E2:E37)</f>
-        <v>3182000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="1" t="s">
+      <c r="E42" s="2">
+        <f>SUM(E2:E40)</f>
+        <v>3498000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="2">
-        <f>D38-E38</f>
-        <v>22442000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D43" s="2">
+        <f>D42-E42</f>
+        <v>22126000</v>
+      </c>
+    </row>
     <row r="44" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1270,6 +1329,10 @@
     <row r="48" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1280,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1320,15 +1383,23 @@
         <v>17</v>
       </c>
       <c r="D3" s="2">
-        <f>'Thang 6'!D39</f>
-        <v>22442000</v>
+        <f>'Thang 6'!D43</f>
+        <v>22126000</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1470000</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -1444,7 +1515,7 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D3:D22)</f>
-        <v>22442000</v>
+        <v>23596000</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E3:E22)</f>
@@ -1457,7 +1528,7 @@
       </c>
       <c r="D24" s="2">
         <f>D23-E23</f>
-        <v>22442000</v>
+        <v>23596000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Chi phi tong" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
   <si>
     <t>STT</t>
   </si>
@@ -203,6 +203,21 @@
   </si>
   <si>
     <t>Học phí TOEIC khóa 300-500 K6</t>
+  </si>
+  <si>
+    <t>23/7</t>
+  </si>
+  <si>
+    <t>Ép lụa bằng TOEIC</t>
+  </si>
+  <si>
+    <t>31/7</t>
+  </si>
+  <si>
+    <t>31/07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phí gửi tiền ngân hàng </t>
   </si>
 </sst>
 </file>
@@ -714,11 +729,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1298,31 +1313,46 @@
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="10"/>
-    </row>
-    <row r="42" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="1" t="s">
+      <c r="B41" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="2">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D43" s="2">
         <f>SUM(D2:D38)</f>
         <v>25624000</v>
       </c>
-      <c r="E42" s="2">
-        <f>SUM(E2:E40)</f>
-        <v>3498000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="1" t="s">
+      <c r="E43" s="2">
+        <f>SUM(E2:E41)</f>
+        <v>3528000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="2">
-        <f>D42-E42</f>
-        <v>22126000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D44" s="2">
+        <f>D43-E43</f>
+        <v>22096000</v>
+      </c>
+    </row>
     <row r="45" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1333,6 +1363,7 @@
     <row r="52" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="53" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="54" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1343,8 +1374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1383,8 +1414,8 @@
         <v>17</v>
       </c>
       <c r="D3" s="2">
-        <f>'Thang 6'!D43</f>
-        <v>22126000</v>
+        <f>'Thang 6'!D44</f>
+        <v>22096000</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1405,7 +1436,15 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="2">
+        <v>11000</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1515,11 +1554,11 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D3:D22)</f>
-        <v>23596000</v>
+        <v>23566000</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E3:E22)</f>
-        <v>0</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1528,7 +1567,7 @@
       </c>
       <c r="D24" s="2">
         <f>D23-E23</f>
-        <v>23596000</v>
+        <v>23555000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Chi phi tong" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
   <si>
     <t>STT</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t xml:space="preserve">Phí gửi tiền ngân hàng </t>
+  </si>
+  <si>
+    <t>In đề kiểm tra part 1 cho lớp 500-700 K3</t>
   </si>
 </sst>
 </file>
@@ -732,7 +735,7 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
@@ -1374,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1450,7 +1453,15 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="10">
+        <v>42743</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="2">
+        <v>7000</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -1558,7 +1569,7 @@
       </c>
       <c r="E23" s="2">
         <f>SUM(E3:E22)</f>
-        <v>11000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1567,7 +1578,7 @@
       </c>
       <c r="D24" s="2">
         <f>D23-E23</f>
-        <v>23555000</v>
+        <v>23548000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Chi phi tong" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
   <si>
     <t>STT</t>
   </si>
@@ -221,6 +221,12 @@
   </si>
   <si>
     <t>In đề kiểm tra part 1 cho lớp 500-700 K3</t>
+  </si>
+  <si>
+    <t>In decal chương trình quảng cáo Sinh nhật</t>
+  </si>
+  <si>
+    <t>Quảng cáo tuyển dụng</t>
   </si>
 </sst>
 </file>
@@ -735,8 +741,8 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1378,7 +1384,7 @@
   <dimension ref="A2:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1467,13 +1473,29 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="10">
+        <v>42774</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="2">
+        <v>145000</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="10">
+        <v>42802</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="2">
+        <v>103000</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1569,7 +1591,7 @@
       </c>
       <c r="E23" s="2">
         <f>SUM(E3:E22)</f>
-        <v>18000</v>
+        <v>266000</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1578,7 +1600,7 @@
       </c>
       <c r="D24" s="2">
         <f>D23-E23</f>
-        <v>23548000</v>
+        <v>23300000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="69">
   <si>
     <t>STT</t>
   </si>
@@ -227,6 +227,12 @@
   </si>
   <si>
     <t>Quảng cáo tuyển dụng</t>
+  </si>
+  <si>
+    <t>Tiền lương của Khanh</t>
+  </si>
+  <si>
+    <t>Tiền lương của Thảo</t>
   </si>
 </sst>
 </file>
@@ -1384,7 +1390,7 @@
   <dimension ref="A2:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1501,19 +1507,43 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="10">
+        <v>42833</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1470000</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="10">
+        <v>42833</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2439000</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="10">
+        <v>42833</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="2">
+        <v>500000</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -1587,11 +1617,11 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D3:D22)</f>
-        <v>23566000</v>
+        <v>25036000</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E3:E22)</f>
-        <v>266000</v>
+        <v>3205000</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1600,7 +1630,7 @@
       </c>
       <c r="D24" s="2">
         <f>D23-E23</f>
-        <v>23300000</v>
+        <v>21831000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="70">
   <si>
     <t>STT</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>Tiền lương của Thảo</t>
+  </si>
+  <si>
+    <t>Tiền nước suối</t>
   </si>
 </sst>
 </file>
@@ -1390,7 +1393,7 @@
   <dimension ref="A2:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1549,7 +1552,15 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="10">
+        <v>42955</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2">
+        <v>60000</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -1621,7 +1632,7 @@
       </c>
       <c r="E23" s="2">
         <f>SUM(E3:E22)</f>
-        <v>3205000</v>
+        <v>3265000</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1630,7 +1641,7 @@
       </c>
       <c r="D24" s="2">
         <f>D23-E23</f>
-        <v>21831000</v>
+        <v>21771000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
   <si>
     <t>STT</t>
   </si>
@@ -1393,7 +1393,7 @@
   <dimension ref="A2:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1566,7 +1566,15 @@
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="B13" s="10">
+        <v>42955</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1470000</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -1628,7 +1636,7 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D3:D22)</f>
-        <v>25036000</v>
+        <v>26506000</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E3:E22)</f>
@@ -1641,7 +1649,7 @@
       </c>
       <c r="D24" s="2">
         <f>D23-E23</f>
-        <v>21771000</v>
+        <v>23241000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="71">
   <si>
     <t>STT</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>Tiền nước suối</t>
+  </si>
+  <si>
+    <t>Đổi thùng nước</t>
   </si>
 </sst>
 </file>
@@ -1393,7 +1396,7 @@
   <dimension ref="A2:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1580,13 +1583,29 @@
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="10"/>
+      <c r="B14" s="10">
+        <v>42986</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1470000</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="10">
+        <v>42986</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="2">
+        <v>10000</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1636,11 +1655,11 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D3:D22)</f>
-        <v>26506000</v>
+        <v>27976000</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E3:E22)</f>
-        <v>3265000</v>
+        <v>3275000</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1649,7 +1668,7 @@
       </c>
       <c r="D24" s="2">
         <f>D23-E23</f>
-        <v>23241000</v>
+        <v>24701000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
   <si>
     <t>STT</t>
   </si>
@@ -1395,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1611,7 +1611,15 @@
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="10"/>
+      <c r="B16" s="10">
+        <v>43016</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1365000</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -1655,7 +1663,7 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D3:D22)</f>
-        <v>27976000</v>
+        <v>29341000</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E3:E22)</f>
@@ -1668,7 +1676,7 @@
       </c>
       <c r="D24" s="2">
         <f>D23-E23</f>
-        <v>24701000</v>
+        <v>26066000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
   <si>
     <t>STT</t>
   </si>
@@ -239,6 +239,12 @@
   </si>
   <si>
     <t>Đổi thùng nước</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiền điện thoại cố định </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pin chuột máy tính </t>
   </si>
 </sst>
 </file>
@@ -1396,7 +1402,7 @@
   <dimension ref="A2:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1625,13 +1631,29 @@
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="10">
+        <v>43047</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="2">
+        <v>42000</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="10">
+        <v>43047</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="2">
+        <v>10000</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -1667,7 +1689,7 @@
       </c>
       <c r="E23" s="2">
         <f>SUM(E3:E22)</f>
-        <v>3275000</v>
+        <v>3327000</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1676,7 +1698,7 @@
       </c>
       <c r="D24" s="2">
         <f>D23-E23</f>
-        <v>26066000</v>
+        <v>26014000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="75">
   <si>
     <t>STT</t>
   </si>
@@ -245,6 +245,12 @@
   </si>
   <si>
     <t xml:space="preserve">Pin chuột máy tính </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Học phí TOEIC khóa 500-700 </t>
+  </si>
+  <si>
+    <t>11/8/2017</t>
   </si>
 </sst>
 </file>
@@ -315,7 +321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -333,6 +339,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1401,14 +1410,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="47.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" style="2" customWidth="1"/>
@@ -1659,25 +1668,57 @@
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="10">
+        <v>43047</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1680000</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="10">
+        <v>43047</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1680000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="2">
+        <v>247500</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="10">
+        <v>43077</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1680000</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
@@ -1685,11 +1726,11 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D3:D22)</f>
-        <v>29341000</v>
+        <v>34381000</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E3:E22)</f>
-        <v>3327000</v>
+        <v>3574500</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1698,7 +1739,7 @@
       </c>
       <c r="D24" s="2">
         <f>D23-E23</f>
-        <v>26014000</v>
+        <v>30806500</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="76">
   <si>
     <t>STT</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>11/8/2017</t>
+  </si>
+  <si>
+    <t>14/8/2017</t>
   </si>
 </sst>
 </file>
@@ -1408,10 +1411,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E35"/>
+  <dimension ref="A2:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1721,30 +1724,69 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="10">
+        <v>43077</v>
+      </c>
       <c r="C23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1470000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1470000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1680000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="2">
-        <f>SUM(D3:D22)</f>
-        <v>34381000</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="D26" s="2">
+        <f>SUM(D3:D25)</f>
+        <v>39001000</v>
+      </c>
+      <c r="E26" s="2">
         <f>SUM(E3:E22)</f>
         <v>3574500</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="1" t="s">
+    <row r="27" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="2">
-        <f>D23-E23</f>
-        <v>30806500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D27" s="2">
+        <f>D26-E26</f>
+        <v>35426500</v>
+      </c>
+    </row>
     <row r="28" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1753,6 +1795,9 @@
     <row r="33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="77">
   <si>
     <t>STT</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>14/8/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mua USB mới </t>
   </si>
 </sst>
 </file>
@@ -1411,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E38"/>
+  <dimension ref="A2:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1766,30 +1769,69 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>75</v>
+      </c>
       <c r="C26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="2">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1470000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1470000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D29" s="2">
         <f>SUM(D3:D25)</f>
         <v>39001000</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E29" s="2">
         <f>SUM(E3:E22)</f>
         <v>3574500</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="1" t="s">
+    <row r="30" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="2">
-        <f>D26-E26</f>
+      <c r="D30" s="2">
+        <f>D29-E29</f>
         <v>35426500</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1798,6 +1840,9 @@
     <row r="36" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="78">
   <si>
     <t>STT</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t xml:space="preserve">Mua USB mới </t>
+  </si>
+  <si>
+    <t>15/8/2017</t>
   </si>
 </sst>
 </file>
@@ -1414,10 +1417,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E41"/>
+  <dimension ref="A2:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1811,28 +1814,41 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="C29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1470000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D30" s="2">
         <f>SUM(D3:D25)</f>
         <v>39001000</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E30" s="2">
         <f>SUM(E3:E22)</f>
         <v>3574500</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="1" t="s">
+    <row r="31" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="2">
-        <f>D29-E29</f>
+      <c r="D31" s="2">
+        <f>D30-E30</f>
         <v>35426500</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1843,6 +1859,7 @@
     <row r="39" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
   <si>
     <t>STT</t>
   </si>
@@ -260,6 +260,15 @@
   </si>
   <si>
     <t>15/8/2017</t>
+  </si>
+  <si>
+    <t>16/8/2017</t>
+  </si>
+  <si>
+    <t>In voucher 5%</t>
+  </si>
+  <si>
+    <t>In bài kiểm tra cho lớp 300-500 K6</t>
   </si>
 </sst>
 </file>
@@ -1417,10 +1426,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E42"/>
+  <dimension ref="A2:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1828,38 +1837,66 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="C30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="2">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D32" s="2">
         <f>SUM(D3:D25)</f>
         <v>39001000</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E32" s="2">
         <f>SUM(E3:E22)</f>
         <v>3574500</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="1" t="s">
+    <row r="33" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="2">
-        <f>D30-E30</f>
+      <c r="D33" s="2">
+        <f>D32-E32</f>
         <v>35426500</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="82">
   <si>
     <t>STT</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>In bài kiểm tra cho lớp 300-500 K6</t>
+  </si>
+  <si>
+    <t>17/8/2017</t>
   </si>
 </sst>
 </file>
@@ -1426,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E44"/>
+  <dimension ref="A2:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1774,10 +1777,10 @@
         <v>75</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D25" s="2">
-        <v>1680000</v>
+        <v>1470000</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1788,10 +1791,10 @@
         <v>75</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="2">
-        <v>190000</v>
+        <v>73</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1680000</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1802,10 +1805,10 @@
         <v>75</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1470000</v>
+        <v>76</v>
+      </c>
+      <c r="E27" s="2">
+        <v>190000</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1827,7 +1830,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>58</v>
@@ -1841,13 +1844,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="2">
-        <v>14000</v>
+        <v>58</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1470000</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1858,45 +1861,87 @@
         <v>78</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="2">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E32" s="2">
         <v>5000</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="1" t="s">
+    <row r="33" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1470000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1470000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="2">
-        <f>SUM(D3:D25)</f>
-        <v>39001000</v>
-      </c>
-      <c r="E32" s="2">
-        <f>SUM(E3:E22)</f>
-        <v>3574500</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="1" t="s">
+      <c r="D35" s="2">
+        <f>SUM(D3:D34)</f>
+        <v>47821000</v>
+      </c>
+      <c r="E35" s="2">
+        <f>SUM(E3:E34)</f>
+        <v>3783500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="2">
-        <f>D32-E32</f>
-        <v>35426500</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D36" s="2">
+        <f>D35-E35</f>
+        <v>44037500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Chi phi tong" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="84">
   <si>
     <t>STT</t>
   </si>
@@ -272,6 +272,12 @@
   </si>
   <si>
     <t>17/8/2017</t>
+  </si>
+  <si>
+    <t>18/8/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiền điện thoại di động </t>
   </si>
 </sst>
 </file>
@@ -1429,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E47"/>
+  <dimension ref="A2:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1910,28 +1916,41 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>82</v>
+      </c>
       <c r="C35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="2">
+        <v>261000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D36" s="2">
         <f>SUM(D3:D34)</f>
         <v>47821000</v>
       </c>
-      <c r="E35" s="2">
-        <f>SUM(E3:E34)</f>
-        <v>3783500</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="1" t="s">
+      <c r="E36" s="2">
+        <f>SUM(E3:E35)</f>
+        <v>4044500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="2">
-        <f>D35-E35</f>
-        <v>44037500</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D37" s="2">
+        <f>D36-E36</f>
+        <v>43776500</v>
+      </c>
+    </row>
     <row r="38" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1942,6 +1961,7 @@
     <row r="45" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="85">
   <si>
     <t>STT</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tiền điện thoại di động </t>
+  </si>
+  <si>
+    <t>19/8/2017</t>
   </si>
 </sst>
 </file>
@@ -1435,10 +1438,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E48"/>
+  <dimension ref="A2:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1930,28 +1933,41 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="C36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1470000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="2">
-        <f>SUM(D3:D34)</f>
-        <v>47821000</v>
-      </c>
-      <c r="E36" s="2">
+      <c r="D37" s="2">
+        <f>SUM(D3:D36)</f>
+        <v>49291000</v>
+      </c>
+      <c r="E37" s="2">
         <f>SUM(E3:E35)</f>
         <v>4044500</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="1" t="s">
+    <row r="38" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="2">
-        <f>D36-E36</f>
-        <v>43776500</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D38" s="2">
+        <f>D37-E37</f>
+        <v>45246500</v>
+      </c>
+    </row>
     <row r="39" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1962,6 +1978,7 @@
     <row r="46" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="87">
   <si>
     <t>STT</t>
   </si>
@@ -281,6 +281,12 @@
   </si>
   <si>
     <t>19/8/2017</t>
+  </si>
+  <si>
+    <t>21/8/2017</t>
+  </si>
+  <si>
+    <t>Chi phí bàn ghế</t>
   </si>
 </sst>
 </file>
@@ -1438,10 +1444,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E49"/>
+  <dimension ref="A2:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1947,29 +1953,55 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="C37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1680000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1820000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="2">
-        <f>SUM(D3:D36)</f>
-        <v>49291000</v>
-      </c>
-      <c r="E37" s="2">
+      <c r="D39" s="2">
+        <f>SUM(D3:D37)</f>
+        <v>50971000</v>
+      </c>
+      <c r="E39" s="2">
         <f>SUM(E3:E35)</f>
         <v>4044500</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="1" t="s">
+    <row r="40" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="2">
-        <f>D37-E37</f>
-        <v>45246500</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D40" s="2">
+        <f>D39-E39</f>
+        <v>46926500</v>
+      </c>
+    </row>
     <row r="41" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1979,6 +2011,8 @@
     <row r="47" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="88">
   <si>
     <t>STT</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>Chi phí bàn ghế</t>
+  </si>
+  <si>
+    <t>21/8/2018</t>
   </si>
 </sst>
 </file>
@@ -1444,10 +1447,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E51"/>
+  <dimension ref="A2:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1981,30 +1984,69 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="C39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1680000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1680000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1680000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="2">
-        <f>SUM(D3:D37)</f>
-        <v>50971000</v>
-      </c>
-      <c r="E39" s="2">
+      <c r="D42" s="2">
+        <f>SUM(D3:D41)</f>
+        <v>56011000</v>
+      </c>
+      <c r="E42" s="2">
         <f>SUM(E3:E35)</f>
         <v>4044500</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="1" t="s">
+    <row r="43" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="2">
-        <f>D39-E39</f>
-        <v>46926500</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D43" s="2">
+        <f>D42-E42</f>
+        <v>51966500</v>
+      </c>
+    </row>
     <row r="44" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2013,6 +2055,9 @@
     <row r="49" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="89">
   <si>
     <t>STT</t>
   </si>
@@ -289,7 +289,10 @@
     <t>Chi phí bàn ghế</t>
   </si>
   <si>
-    <t>21/8/2018</t>
+    <t>Cây nước nóng lạnh</t>
+  </si>
+  <si>
+    <t>22/8/2017</t>
   </si>
 </sst>
 </file>
@@ -1447,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E54"/>
+  <dimension ref="A2:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2002,7 +2005,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>73</v>
@@ -2016,7 +2019,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>73</v>
@@ -2026,29 +2029,56 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="C42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="2">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1365000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="2">
-        <f>SUM(D3:D41)</f>
-        <v>56011000</v>
-      </c>
-      <c r="E42" s="2">
-        <f>SUM(E3:E35)</f>
-        <v>4044500</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="1" t="s">
+      <c r="D44" s="2">
+        <f>SUM(D3:D43)</f>
+        <v>57376000</v>
+      </c>
+      <c r="E44" s="2">
+        <f>SUM(E3:E42)</f>
+        <v>7464500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="2">
-        <f>D42-E42</f>
-        <v>51966500</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D45" s="2">
+        <f>D44-E44</f>
+        <v>49911500</v>
+      </c>
+    </row>
     <row r="46" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2058,6 +2088,8 @@
     <row r="52" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="53" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="54" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -14,7 +14,8 @@
   <sheets>
     <sheet name="Chi phi tong" sheetId="1" r:id="rId1"/>
     <sheet name="Thang 6" sheetId="3" r:id="rId2"/>
-    <sheet name="Thang 7" sheetId="9" r:id="rId3"/>
+    <sheet name="Thang 8" sheetId="9" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="90">
   <si>
     <t>STT</t>
   </si>
@@ -293,6 +294,9 @@
   </si>
   <si>
     <t>22/8/2017</t>
+  </si>
+  <si>
+    <t>Bình nước Bạch Mã</t>
   </si>
 </sst>
 </file>
@@ -1450,10 +1454,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E56"/>
+  <dimension ref="A2:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2058,28 +2062,41 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="C44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" s="2">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D45" s="2">
         <f>SUM(D3:D43)</f>
         <v>57376000</v>
       </c>
-      <c r="E44" s="2">
-        <f>SUM(E3:E42)</f>
-        <v>7464500</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="1" t="s">
+      <c r="E45" s="2">
+        <f>SUM(E3:E44)</f>
+        <v>7524500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="2">
-        <f>D44-E44</f>
-        <v>49911500</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D46" s="2">
+        <f>D45-E45</f>
+        <v>49851500</v>
+      </c>
+    </row>
     <row r="47" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2090,8 +2107,21 @@
     <row r="54" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="55" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\SVN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SVN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,6 +17,9 @@
     <sheet name="Thang 8" sheetId="9" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="10" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Thang 8'!$A$2:$E$46</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1457,7 +1460,7 @@
   <dimension ref="A2:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Sheet1" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Thang 8'!$A$2:$E$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Thang 8'!$A$1:$F$45</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="91">
   <si>
     <t>STT</t>
   </si>
@@ -251,9 +251,6 @@
     <t xml:space="preserve">Pin chuột máy tính </t>
   </si>
   <si>
-    <t xml:space="preserve">Học phí TOEIC khóa 500-700 </t>
-  </si>
-  <si>
     <t>11/8/2017</t>
   </si>
   <si>
@@ -300,6 +297,12 @@
   </si>
   <si>
     <t>Bình nước Bạch Mã</t>
+  </si>
+  <si>
+    <t>Ghi Chú</t>
+  </si>
+  <si>
+    <t>Học phí TOEIC khóa 500-700 K4</t>
   </si>
 </sst>
 </file>
@@ -310,7 +313,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,13 +351,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -366,11 +389,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -393,8 +417,15 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Accent5" xfId="2" builtinId="45"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -817,7 +848,7 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1457,10 +1488,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E57"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1470,171 +1501,189 @@
     <col min="3" max="3" width="47.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="33.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E1" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="F1" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="1" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D2" s="2">
         <f>'Thang 6'!D44</f>
         <v>22096000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1470000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>42743</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="2">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>42774</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="2">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>42802</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="2">
+        <v>103000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>42833</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D8" s="2">
         <v>1470000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="2">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10">
-        <v>42743</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="2">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="10">
-        <v>42774</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="2">
-        <v>145000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="10">
-        <v>42802</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="2">
-        <v>103000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="10">
         <v>42833</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1470000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2439000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="10">
         <v>42833</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E10" s="2">
-        <v>2439000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="10">
-        <v>42833</v>
+        <v>42955</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E11" s="2">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="10">
         <v>42955</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="2">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1470000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="10">
-        <v>42955</v>
+        <v>42986</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>58</v>
@@ -1643,138 +1692,138 @@
         <v>1470000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="10">
         <v>42986</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>43016</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="2">
-        <v>1470000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="10">
-        <v>42986</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="2">
+        <v>1365000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="10">
-        <v>43016</v>
+        <v>43047</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1365000</v>
+        <v>71</v>
+      </c>
+      <c r="E16" s="2">
+        <v>42000</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="10">
         <v>43047</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E17" s="2">
-        <v>42000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="10">
         <v>43047</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="2">
-        <v>10000</v>
+        <v>90</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1680000</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="10">
         <v>43047</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D19" s="2">
         <v>1680000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" s="10">
-        <v>43047</v>
+        <v>19</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="2">
+        <v>47</v>
+      </c>
+      <c r="E20" s="2">
+        <v>247500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>43077</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="2">
         <v>1680000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="2">
-        <v>247500</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="10">
         <v>43077</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D22" s="2">
-        <v>1680000</v>
+        <v>1470000</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>21</v>
-      </c>
-      <c r="B23" s="10">
-        <v>43077</v>
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>58</v>
@@ -1785,10 +1834,10 @@
     </row>
     <row r="24" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>58</v>
@@ -1799,52 +1848,52 @@
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="D25" s="2">
-        <v>1470000</v>
+        <v>1680000</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1680000</v>
+      <c r="E26" s="2">
+        <v>190000</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="2">
-        <v>190000</v>
+        <v>58</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1470000</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>58</v>
@@ -1855,10 +1904,10 @@
     </row>
     <row r="29" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>58</v>
@@ -1869,52 +1918,52 @@
     </row>
     <row r="30" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>77</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1470000</v>
+        <v>78</v>
+      </c>
+      <c r="E30" s="2">
+        <v>14000</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E31" s="2">
-        <v>14000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="2">
-        <v>5000</v>
+        <v>58</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1470000</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>58</v>
@@ -1925,83 +1974,83 @@
     </row>
     <row r="34" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>81</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="2">
-        <v>1470000</v>
+        <v>82</v>
+      </c>
+      <c r="E34" s="2">
+        <v>261000</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" s="2">
-        <v>261000</v>
+        <v>58</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1470000</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="D36" s="2">
-        <v>1470000</v>
+        <v>1680000</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="2">
-        <v>1680000</v>
+      <c r="E37" s="2">
+        <v>1820000</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E38" s="2">
-        <v>1820000</v>
+        <v>90</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1680000</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D39" s="2">
         <v>1680000</v>
@@ -2009,13 +2058,13 @@
     </row>
     <row r="40" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D40" s="2">
         <v>1680000</v>
@@ -2023,83 +2072,70 @@
     </row>
     <row r="41" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1680000</v>
+        <v>86</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="2">
+        <v>1600000</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="2">
-        <v>1600000</v>
+        <v>58</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1365000</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="2">
-        <v>1365000</v>
+      <c r="E43" s="2">
+        <v>60000</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>42</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>88</v>
-      </c>
       <c r="C44" s="1" t="s">
-        <v>89</v>
+        <v>12</v>
+      </c>
+      <c r="D44" s="2">
+        <f>SUM(D2:D42)</f>
+        <v>57376000</v>
       </c>
       <c r="E44" s="2">
-        <v>60000</v>
+        <f>SUM(E2:E43)</f>
+        <v>7524500</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D45" s="2">
-        <f>SUM(D3:D43)</f>
-        <v>57376000</v>
-      </c>
-      <c r="E45" s="2">
-        <f>SUM(E3:E44)</f>
-        <v>7524500</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="2">
-        <f>D45-E45</f>
+        <f>D44-E44</f>
         <v>49851500</v>
       </c>
     </row>
+    <row r="46" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2110,10 +2146,10 @@
     <row r="54" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="55" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <autoFilter ref="A1:F45"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SVN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\SVN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Chi phi tong" sheetId="1" r:id="rId1"/>
     <sheet name="Thang 6" sheetId="3" r:id="rId2"/>
     <sheet name="Thang 8" sheetId="9" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId4"/>
+    <sheet name="Tháng 9" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Thang 8'!$A$1:$F$45</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="91">
   <si>
     <t>STT</t>
   </si>
@@ -1490,8 +1490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2155,12 +2155,35 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\SVN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Chi phi tong" sheetId="1" r:id="rId1"/>
     <sheet name="Thang 6" sheetId="3" r:id="rId2"/>
     <sheet name="Thang 8" sheetId="9" r:id="rId3"/>
-    <sheet name="Tháng 9" sheetId="10" r:id="rId4"/>
+    <sheet name="Thang 9" sheetId="11" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Thang 8'!$A$1:$F$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Thang 8'!$A$1:$H$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Thang 9'!$A$1:$H$14</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="96">
   <si>
     <t>STT</t>
   </si>
@@ -303,12 +304,27 @@
   </si>
   <si>
     <t>Học phí TOEIC khóa 500-700 K4</t>
+  </si>
+  <si>
+    <t>Đầu kỳ</t>
+  </si>
+  <si>
+    <t>Cuối kỳ</t>
+  </si>
+  <si>
+    <t>Tiền in Voucher</t>
+  </si>
+  <si>
+    <t>Photo sách</t>
+  </si>
+  <si>
+    <t>Số dư đầu kỳ nhận bàn giao từ bạn Khanh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -367,7 +383,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,13 +395,112 @@
         <fgColor theme="8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -394,7 +509,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -414,15 +529,51 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent5" xfId="2" builtinId="45"/>
@@ -1488,10 +1639,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49:C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1499,645 +1650,957 @@
     <col min="1" max="1" width="7.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="47.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="33.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="17.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="2" customWidth="1"/>
+    <col min="6" max="7" width="15.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="33.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="19">
         <f>'Thang 6'!D44</f>
         <v>22096000</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19">
+        <f>D2+E2-F2</f>
+        <v>22096000</v>
+      </c>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="13"/>
+      <c r="E3" s="14">
         <v>1470000</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14">
+        <f>G2+D3+E3-F3</f>
+        <v>23566000</v>
+      </c>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="2">
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14">
         <v>11000</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="G4" s="14">
+        <f t="shared" ref="G4:G43" si="0">G3+D4+E4-F4</f>
+        <v>23555000</v>
+      </c>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="12">
         <v>42743</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="2">
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14">
         <v>7000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="G5" s="14">
+        <f t="shared" si="0"/>
+        <v>23548000</v>
+      </c>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="12">
         <v>42774</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="2">
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14">
         <v>145000</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="G6" s="14">
+        <f t="shared" si="0"/>
+        <v>23403000</v>
+      </c>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="12">
         <v>42802</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="2">
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14">
         <v>103000</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="G7" s="14">
+        <f t="shared" si="0"/>
+        <v>23300000</v>
+      </c>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="12">
         <v>42833</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="13"/>
+      <c r="E8" s="14">
         <v>1470000</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="F8" s="14"/>
+      <c r="G8" s="14">
+        <f t="shared" si="0"/>
+        <v>24770000</v>
+      </c>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="12">
         <v>42833</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="2">
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14">
         <v>2439000</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="G9" s="14">
+        <f t="shared" si="0"/>
+        <v>22331000</v>
+      </c>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="12">
         <v>42833</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="2">
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14">
         <v>500000</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="G10" s="14">
+        <f t="shared" si="0"/>
+        <v>21831000</v>
+      </c>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="12">
         <v>42955</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="2">
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14">
         <v>60000</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="G11" s="14">
+        <f t="shared" si="0"/>
+        <v>21771000</v>
+      </c>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="12">
         <v>42955</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="13"/>
+      <c r="E12" s="14">
         <v>1470000</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="F12" s="14"/>
+      <c r="G12" s="14">
+        <f t="shared" si="0"/>
+        <v>23241000</v>
+      </c>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="12">
         <v>42986</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="13"/>
+      <c r="E13" s="14">
         <v>1470000</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="F13" s="14"/>
+      <c r="G13" s="14">
+        <f t="shared" si="0"/>
+        <v>24711000</v>
+      </c>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="12">
         <v>42986</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="2">
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="G14" s="14">
+        <f t="shared" si="0"/>
+        <v>24701000</v>
+      </c>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="12">
         <v>43016</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="13"/>
+      <c r="E15" s="14">
         <v>1365000</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="F15" s="14"/>
+      <c r="G15" s="14">
+        <f t="shared" si="0"/>
+        <v>26066000</v>
+      </c>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="12">
         <v>43047</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="2">
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14">
         <v>42000</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="G16" s="14">
+        <f t="shared" si="0"/>
+        <v>26024000</v>
+      </c>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="12">
         <v>43047</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="2">
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="G17" s="14">
+        <f t="shared" si="0"/>
+        <v>26014000</v>
+      </c>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="12">
         <v>43047</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="13"/>
+      <c r="E18" s="14">
         <v>1680000</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="F18" s="14"/>
+      <c r="G18" s="14">
+        <f t="shared" si="0"/>
+        <v>27694000</v>
+      </c>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="12">
         <v>43047</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="13"/>
+      <c r="E19" s="14">
         <v>1680000</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="F19" s="14"/>
+      <c r="G19" s="14">
+        <f t="shared" si="0"/>
+        <v>29374000</v>
+      </c>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="2">
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14">
         <v>247500</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="G20" s="14">
+        <f t="shared" si="0"/>
+        <v>29126500</v>
+      </c>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="12">
         <v>43077</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="13"/>
+      <c r="E21" s="14">
         <v>1680000</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="F21" s="14"/>
+      <c r="G21" s="14">
+        <f t="shared" si="0"/>
+        <v>30806500</v>
+      </c>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="12">
         <v>43077</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="13"/>
+      <c r="E22" s="14">
         <v>1470000</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="F22" s="14"/>
+      <c r="G22" s="14">
+        <f t="shared" si="0"/>
+        <v>32276500</v>
+      </c>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="13"/>
+      <c r="E23" s="14">
         <v>1470000</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="F23" s="14"/>
+      <c r="G23" s="14">
+        <f t="shared" si="0"/>
+        <v>33746500</v>
+      </c>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="13"/>
+      <c r="E24" s="14">
         <v>1470000</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="F24" s="14"/>
+      <c r="G24" s="14">
+        <f t="shared" si="0"/>
+        <v>35216500</v>
+      </c>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="13"/>
+      <c r="E25" s="14">
         <v>1680000</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="F25" s="14"/>
+      <c r="G25" s="14">
+        <f t="shared" si="0"/>
+        <v>36896500</v>
+      </c>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="2">
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14">
         <v>190000</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="G26" s="14">
+        <f t="shared" si="0"/>
+        <v>36706500</v>
+      </c>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
         <v>26</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="13"/>
+      <c r="E27" s="14">
         <v>1470000</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="F27" s="14"/>
+      <c r="G27" s="14">
+        <f t="shared" si="0"/>
+        <v>38176500</v>
+      </c>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
         <v>27</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="13"/>
+      <c r="E28" s="14">
         <v>1470000</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="F28" s="14"/>
+      <c r="G28" s="14">
+        <f t="shared" si="0"/>
+        <v>39646500</v>
+      </c>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
         <v>28</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="13"/>
+      <c r="E29" s="14">
         <v>1470000</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="F29" s="14"/>
+      <c r="G29" s="14">
+        <f t="shared" si="0"/>
+        <v>41116500</v>
+      </c>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
         <v>29</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="2">
+      <c r="D30" s="13"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14">
         <v>14000</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="G30" s="14">
+        <f t="shared" si="0"/>
+        <v>41102500</v>
+      </c>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
         <v>30</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="2">
+      <c r="D31" s="13"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14">
         <v>5000</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="G31" s="14">
+        <f t="shared" si="0"/>
+        <v>41097500</v>
+      </c>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
         <v>31</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="13"/>
+      <c r="E32" s="14">
         <v>1470000</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="F32" s="14"/>
+      <c r="G32" s="14">
+        <f t="shared" si="0"/>
+        <v>42567500</v>
+      </c>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
         <v>32</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="13"/>
+      <c r="E33" s="14">
         <v>1470000</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="F33" s="14"/>
+      <c r="G33" s="14">
+        <f t="shared" si="0"/>
+        <v>44037500</v>
+      </c>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
         <v>33</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="2">
+      <c r="D34" s="13"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14">
         <v>261000</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="G34" s="14">
+        <f t="shared" si="0"/>
+        <v>43776500</v>
+      </c>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
         <v>34</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="13"/>
+      <c r="E35" s="14">
         <v>1470000</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="F35" s="14"/>
+      <c r="G35" s="14">
+        <f t="shared" si="0"/>
+        <v>45246500</v>
+      </c>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
         <v>35</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="13"/>
+      <c r="E36" s="14">
         <v>1680000</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="F36" s="14"/>
+      <c r="G36" s="14">
+        <f t="shared" si="0"/>
+        <v>46926500</v>
+      </c>
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
         <v>36</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="2">
+      <c r="D37" s="13"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14">
         <v>1820000</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="G37" s="14">
+        <f t="shared" si="0"/>
+        <v>45106500</v>
+      </c>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
         <v>37</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="13"/>
+      <c r="E38" s="14">
         <v>1680000</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="F38" s="14"/>
+      <c r="G38" s="14">
+        <f t="shared" si="0"/>
+        <v>46786500</v>
+      </c>
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
         <v>38</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="13"/>
+      <c r="E39" s="14">
         <v>1680000</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="F39" s="14"/>
+      <c r="G39" s="14">
+        <f t="shared" si="0"/>
+        <v>48466500</v>
+      </c>
+      <c r="H39" s="13"/>
+    </row>
+    <row r="40" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
         <v>39</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="13"/>
+      <c r="E40" s="14">
         <v>1680000</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="F40" s="14"/>
+      <c r="G40" s="14">
+        <f t="shared" si="0"/>
+        <v>50146500</v>
+      </c>
+      <c r="H40" s="13"/>
+    </row>
+    <row r="41" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
         <v>40</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="2">
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="14">
         <v>1600000</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="G41" s="14">
+        <f t="shared" si="0"/>
+        <v>48546500</v>
+      </c>
+      <c r="H41" s="13"/>
+    </row>
+    <row r="42" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
         <v>41</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="13"/>
+      <c r="E42" s="14">
         <v>1365000</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+      <c r="F42" s="14"/>
+      <c r="G42" s="14">
+        <f t="shared" si="0"/>
+        <v>49911500</v>
+      </c>
+      <c r="H42" s="13"/>
+    </row>
+    <row r="43" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
         <v>42</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E43" s="2">
+      <c r="D43" s="13"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14">
         <v>60000</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="1" t="s">
+      <c r="G43" s="14">
+        <f t="shared" si="0"/>
+        <v>49851500</v>
+      </c>
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="22"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="24"/>
+    </row>
+    <row r="45" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="2">
+      <c r="B45" s="29"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="27">
         <f>SUM(D2:D42)</f>
-        <v>57376000</v>
-      </c>
-      <c r="E44" s="2">
-        <f>SUM(E2:E43)</f>
+        <v>22096000</v>
+      </c>
+      <c r="E45" s="27">
+        <f>SUM(E2:E42)</f>
+        <v>35280000</v>
+      </c>
+      <c r="F45" s="27">
+        <f>SUM(F2:F43)</f>
         <v>7524500</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="2">
-        <f>D44-E44</f>
+      <c r="G45" s="31">
+        <f>D45+E45-F45</f>
         <v>49851500</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H45" s="26"/>
+    </row>
+    <row r="46" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2146,8 +2609,12 @@
     <row r="54" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="55" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:F45"/>
+  <autoFilter ref="A1:H46"/>
+  <mergeCells count="1">
+    <mergeCell ref="A45:C45"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2155,35 +2622,315 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F2"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="2" customWidth="1"/>
+    <col min="6" max="7" width="15.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="33.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="1" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D1" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G1" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>89</v>
       </c>
     </row>
+    <row r="2" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17">
+        <v>42975</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="19">
+        <f>'Thang 8'!G45</f>
+        <v>49851500</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19">
+        <f>D2+E2-F2</f>
+        <v>49851500</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12">
+        <v>42975</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14">
+        <v>280000</v>
+      </c>
+      <c r="G3" s="14">
+        <f>G2+D3+E3-F3</f>
+        <v>49571500</v>
+      </c>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12">
+        <v>42975</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="G4" s="14">
+        <f t="shared" ref="G4:G11" si="0">G3+D4+E4-F4</f>
+        <v>47971500</v>
+      </c>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="27">
+        <f>SUM(D2:D11)</f>
+        <v>49851500</v>
+      </c>
+      <c r="E13" s="27">
+        <f>SUM(E2:E11)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="27">
+        <f>SUM(F2:F11)</f>
+        <v>1880000</v>
+      </c>
+      <c r="G13" s="31">
+        <f>D13+E13-F13</f>
+        <v>47971500</v>
+      </c>
+      <c r="H13" s="26"/>
+    </row>
+    <row r="14" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="1"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:H14"/>
+  <mergeCells count="1">
+    <mergeCell ref="A13:C13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\SVN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,13 @@
     <sheet name="Thang 6" sheetId="3" r:id="rId2"/>
     <sheet name="Thang 8" sheetId="9" r:id="rId3"/>
     <sheet name="Thang 9" sheetId="11" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Thang 8'!$A$1:$H$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Thang 8'!$A$1:$H$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Thang 9'!$A$1:$H$14</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="97">
   <si>
     <t>STT</t>
   </si>
@@ -319,12 +320,15 @@
   </si>
   <si>
     <t>Số dư đầu kỳ nhận bàn giao từ bạn Khanh</t>
+  </si>
+  <si>
+    <t>Tiền internet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -564,6 +568,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -573,7 +578,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent5" xfId="2" builtinId="45"/>
@@ -1639,10 +1643,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49:C51"/>
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2564,42 +2568,82 @@
       </c>
       <c r="H43" s="13"/>
     </row>
-    <row r="44" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="22"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
+    <row r="44" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="22">
+        <v>43</v>
+      </c>
+      <c r="B44" s="12">
+        <v>42975</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="13"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14">
+        <v>280000</v>
+      </c>
+      <c r="G44" s="14">
+        <f>G43+D44+E44-F44</f>
+        <v>49571500</v>
+      </c>
       <c r="H44" s="24"/>
     </row>
-    <row r="45" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="28" t="s">
+    <row r="45" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="22">
+        <v>44</v>
+      </c>
+      <c r="B45" s="12">
+        <v>42975</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="G45" s="14">
+        <f t="shared" ref="G45" si="1">G44+D45+E45-F45</f>
+        <v>47971500</v>
+      </c>
+      <c r="H45" s="24"/>
+    </row>
+    <row r="46" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="22"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="24"/>
+    </row>
+    <row r="47" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="27">
-        <f>SUM(D2:D42)</f>
+      <c r="B47" s="30"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="27">
+        <f>SUM(D2:D45)</f>
         <v>22096000</v>
       </c>
-      <c r="E45" s="27">
-        <f>SUM(E2:E42)</f>
+      <c r="E47" s="27">
+        <f>SUM(E2:E45)</f>
         <v>35280000</v>
       </c>
-      <c r="F45" s="27">
-        <f>SUM(F2:F43)</f>
-        <v>7524500</v>
-      </c>
-      <c r="G45" s="31">
-        <f>D45+E45-F45</f>
-        <v>49851500</v>
-      </c>
-      <c r="H45" s="26"/>
-    </row>
-    <row r="46" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="F47" s="27">
+        <f>SUM(F2:F45)</f>
+        <v>9404500</v>
+      </c>
+      <c r="G47" s="28">
+        <f>D47+E47-F47</f>
+        <v>47971500</v>
+      </c>
+      <c r="H47" s="26"/>
+    </row>
     <row r="48" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2610,10 +2654,12 @@
     <row r="55" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="57" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:H46"/>
+  <autoFilter ref="A1:H48"/>
   <mergeCells count="1">
-    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A47:C47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2625,7 +2671,8 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2671,20 +2718,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="17">
-        <v>42975</v>
+        <v>42983</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="19">
-        <f>'Thang 8'!G45</f>
-        <v>49851500</v>
+        <f>'Thang 8'!G47</f>
+        <v>47971500</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19">
         <f>D2+E2-F2</f>
-        <v>49851500</v>
+        <v>47971500</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>95</v>
@@ -2695,20 +2742,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="12">
-        <v>42975</v>
+        <v>42983</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14">
-        <v>280000</v>
-      </c>
-      <c r="G3" s="14">
-        <f>G2+D3+E3-F3</f>
-        <v>49571500</v>
-      </c>
+        <v>248000</v>
+      </c>
+      <c r="G3" s="14"/>
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2716,20 +2760,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="12">
-        <v>42975</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>94</v>
-      </c>
+        <v>42983</v>
+      </c>
+      <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="14">
-        <v>1600000</v>
-      </c>
-      <c r="G4" s="14">
-        <f t="shared" ref="G4:G11" si="0">G3+D4+E4-F4</f>
-        <v>47971500</v>
-      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2827,14 +2864,14 @@
       <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="27">
         <f>SUM(D2:D11)</f>
-        <v>49851500</v>
+        <v>47971500</v>
       </c>
       <c r="E13" s="27">
         <f>SUM(E2:E11)</f>
@@ -2842,11 +2879,11 @@
       </c>
       <c r="F13" s="27">
         <f>SUM(F2:F11)</f>
-        <v>1880000</v>
-      </c>
-      <c r="G13" s="31">
+        <v>248000</v>
+      </c>
+      <c r="G13" s="28">
         <f>D13+E13-F13</f>
-        <v>47971500</v>
+        <v>47723500</v>
       </c>
       <c r="H13" s="26"/>
     </row>
@@ -2933,4 +2970,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="98">
   <si>
     <t>STT</t>
   </si>
@@ -323,6 +323,9 @@
   </si>
   <si>
     <t>Tiền internet</t>
+  </si>
+  <si>
+    <t>Photo test</t>
   </si>
 </sst>
 </file>
@@ -2672,7 +2675,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2760,12 +2763,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="12">
-        <v>42983</v>
-      </c>
-      <c r="C4" s="13"/>
+        <v>42985</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="F4" s="14">
+        <v>10000</v>
+      </c>
       <c r="G4" s="14"/>
       <c r="H4" s="13"/>
     </row>
@@ -2879,11 +2886,11 @@
       </c>
       <c r="F13" s="27">
         <f>SUM(F2:F11)</f>
-        <v>248000</v>
+        <v>258000</v>
       </c>
       <c r="G13" s="28">
         <f>D13+E13-F13</f>
-        <v>47723500</v>
+        <v>47713500</v>
       </c>
       <c r="H13" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="99">
   <si>
     <t>STT</t>
   </si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t>Photo test</t>
+  </si>
+  <si>
+    <t>Photo</t>
   </si>
 </sst>
 </file>
@@ -2675,7 +2678,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2780,11 +2783,17 @@
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
+      <c r="B5" s="12">
+        <v>42986</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="F5" s="14">
+        <v>5000</v>
+      </c>
       <c r="G5" s="14"/>
       <c r="H5" s="13"/>
     </row>
@@ -2886,11 +2895,11 @@
       </c>
       <c r="F13" s="27">
         <f>SUM(F2:F11)</f>
-        <v>258000</v>
+        <v>263000</v>
       </c>
       <c r="G13" s="28">
         <f>D13+E13-F13</f>
-        <v>47713500</v>
+        <v>47708500</v>
       </c>
       <c r="H13" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="100">
   <si>
     <t>STT</t>
   </si>
@@ -329,6 +329,9 @@
   </si>
   <si>
     <t>Photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đặt cọc đồng phục </t>
   </si>
 </sst>
 </file>
@@ -2678,7 +2681,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2801,11 +2804,17 @@
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
+      <c r="B6" s="12">
+        <v>42988</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>99</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="F6" s="14">
+        <v>300000</v>
+      </c>
       <c r="G6" s="14"/>
       <c r="H6" s="13"/>
     </row>
@@ -2895,11 +2904,11 @@
       </c>
       <c r="F13" s="27">
         <f>SUM(F2:F11)</f>
-        <v>263000</v>
+        <v>563000</v>
       </c>
       <c r="G13" s="28">
         <f>D13+E13-F13</f>
-        <v>47708500</v>
+        <v>47408500</v>
       </c>
       <c r="H13" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -2681,7 +2681,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2805,7 +2805,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="12">
-        <v>42988</v>
+        <v>42987</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>99</v>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="101">
   <si>
     <t>STT</t>
   </si>
@@ -328,10 +328,13 @@
     <t>Photo test</t>
   </si>
   <si>
-    <t>Photo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Đặt cọc đồng phục </t>
+  </si>
+  <si>
+    <t>Sửa điều hòa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiền Điện thoại cố định </t>
   </si>
 </sst>
 </file>
@@ -1654,7 +1657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A44" workbookViewId="0">
       <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
@@ -2681,7 +2684,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2692,7 +2695,7 @@
     <col min="4" max="4" width="17.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" style="2" customWidth="1"/>
     <col min="6" max="7" width="15.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="33.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39.85546875" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -2790,7 +2793,7 @@
         <v>42986</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -2808,7 +2811,7 @@
         <v>42987</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
@@ -2822,11 +2825,17 @@
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
+      <c r="B7" s="12">
+        <v>42989</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>99</v>
+      </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="F7" s="14">
+        <v>350000</v>
+      </c>
       <c r="G7" s="14"/>
       <c r="H7" s="13"/>
     </row>
@@ -2834,11 +2843,17 @@
       <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="12">
+        <v>42989</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>100</v>
+      </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="F8" s="14">
+        <v>33000</v>
+      </c>
       <c r="G8" s="14"/>
       <c r="H8" s="13"/>
     </row>
@@ -2904,11 +2919,11 @@
       </c>
       <c r="F13" s="27">
         <f>SUM(F2:F11)</f>
-        <v>563000</v>
+        <v>946000</v>
       </c>
       <c r="G13" s="28">
         <f>D13+E13-F13</f>
-        <v>47408500</v>
+        <v>47025500</v>
       </c>
       <c r="H13" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="101">
   <si>
     <t>STT</t>
   </si>
@@ -2684,7 +2684,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2861,11 +2861,17 @@
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="12">
+        <v>42989</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="D9" s="13"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="F9" s="14">
+        <v>10000</v>
+      </c>
       <c r="G9" s="14"/>
       <c r="H9" s="13"/>
     </row>
@@ -2919,11 +2925,11 @@
       </c>
       <c r="F13" s="27">
         <f>SUM(F2:F11)</f>
-        <v>946000</v>
+        <v>956000</v>
       </c>
       <c r="G13" s="28">
         <f>D13+E13-F13</f>
-        <v>47025500</v>
+        <v>47015500</v>
       </c>
       <c r="H13" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="101">
   <si>
     <t>STT</t>
   </si>
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1657,8 +1657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2684,7 +2684,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2879,10 +2879,16 @@
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
+      <c r="B10" s="12">
+        <v>42989</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
+      <c r="E10" s="14">
+        <v>1680000</v>
+      </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="13"/>
@@ -2891,11 +2897,17 @@
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="12">
+        <v>42990</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>94</v>
+      </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="F11" s="14">
+        <v>65000</v>
+      </c>
       <c r="G11" s="14"/>
       <c r="H11" s="13"/>
     </row>
@@ -2921,15 +2933,15 @@
       </c>
       <c r="E13" s="27">
         <f>SUM(E2:E11)</f>
-        <v>0</v>
+        <v>1680000</v>
       </c>
       <c r="F13" s="27">
         <f>SUM(F2:F11)</f>
-        <v>956000</v>
+        <v>1021000</v>
       </c>
       <c r="G13" s="28">
         <f>D13+E13-F13</f>
-        <v>47015500</v>
+        <v>48630500</v>
       </c>
       <c r="H13" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Thang 8'!$A$1:$H$48</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Thang 9'!$A$1:$H$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Thang 9'!$A$1:$H$15</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="101">
   <si>
     <t>STT</t>
   </si>
@@ -2680,11 +2680,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2901,61 +2901,71 @@
         <v>42990</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14">
-        <v>65000</v>
+        <v>7000</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="24"/>
+    <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12">
+        <v>42990</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14">
+        <v>65000</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="24"/>
+    </row>
+    <row r="14" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="27">
-        <f>SUM(D2:D11)</f>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="27">
+        <f>SUM(D2:D12)</f>
         <v>47971500</v>
       </c>
-      <c r="E13" s="27">
-        <f>SUM(E2:E11)</f>
+      <c r="E14" s="27">
+        <f>SUM(E2:E12)</f>
         <v>1680000</v>
       </c>
-      <c r="F13" s="27">
-        <f>SUM(F2:F11)</f>
-        <v>1021000</v>
-      </c>
-      <c r="G13" s="28">
-        <f>D13+E13-F13</f>
-        <v>48630500</v>
-      </c>
-      <c r="H13" s="26"/>
-    </row>
-    <row r="14" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="F14" s="27">
+        <f>SUM(F2:F12)</f>
+        <v>1028000</v>
+      </c>
+      <c r="G14" s="28">
+        <f>D14+E14-F14</f>
+        <v>48623500</v>
+      </c>
+      <c r="H14" s="26"/>
+    </row>
     <row r="15" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="1"/>
-    </row>
+    <row r="17" spans="3:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -3020,10 +3030,18 @@
       <c r="G25" s="2"/>
       <c r="H25" s="1"/>
     </row>
+    <row r="26" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H14"/>
+  <autoFilter ref="A1:H15"/>
   <mergeCells count="1">
-    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Thang 8'!$A$1:$H$48</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Thang 9'!$A$1:$H$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Thang 9'!$A$1:$H$22</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="103">
   <si>
     <t>STT</t>
   </si>
@@ -335,6 +335,12 @@
   </si>
   <si>
     <t xml:space="preserve">Tiền Điện thoại cố định </t>
+  </si>
+  <si>
+    <t>Học phí TOEIC khóa 300 - 500 K7</t>
+  </si>
+  <si>
+    <t>Photo sách (Intermediate)</t>
   </si>
 </sst>
 </file>
@@ -2680,11 +2686,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2919,7 +2925,7 @@
         <v>42990</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14"/>
@@ -2929,100 +2935,122 @@
       <c r="G12" s="14"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="24"/>
-    </row>
-    <row r="14" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+    <row r="13" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="27">
-        <f>SUM(D2:D12)</f>
+      <c r="B13" s="12">
+        <v>42991</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14">
+        <v>2100000</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="24"/>
+    </row>
+    <row r="21" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="27">
+        <f>SUM(D2:D19)</f>
         <v>47971500</v>
       </c>
-      <c r="E14" s="27">
-        <f>SUM(E2:E12)</f>
-        <v>1680000</v>
-      </c>
-      <c r="F14" s="27">
-        <f>SUM(F2:F12)</f>
+      <c r="E21" s="27">
+        <f>SUM(E2:E19)</f>
+        <v>3780000</v>
+      </c>
+      <c r="F21" s="27">
+        <f>SUM(F2:F19)</f>
         <v>1028000</v>
       </c>
-      <c r="G14" s="28">
-        <f>D14+E14-F14</f>
-        <v>48623500</v>
-      </c>
-      <c r="H14" s="26"/>
-    </row>
-    <row r="15" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="3:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="28">
+        <f>D21+E21-F21</f>
+        <v>50723500</v>
+      </c>
+      <c r="H21" s="26"/>
+    </row>
+    <row r="22" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
@@ -3030,7 +3058,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
@@ -3038,10 +3066,66 @@
       <c r="G26" s="2"/>
       <c r="H26" s="1"/>
     </row>
+    <row r="27" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H15"/>
+  <autoFilter ref="A1:H22"/>
   <mergeCells count="1">
-    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="104">
   <si>
     <t>STT</t>
   </si>
@@ -341,6 +341,9 @@
   </si>
   <si>
     <t>Photo sách (Intermediate)</t>
+  </si>
+  <si>
+    <t>Đinh Thị Dung</t>
   </si>
 </sst>
 </file>
@@ -2690,7 +2693,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2951,7 +2954,9 @@
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="13"/>
+      <c r="H13" s="13" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="105">
   <si>
     <t>STT</t>
   </si>
@@ -344,6 +344,9 @@
   </si>
   <si>
     <t>Đinh Thị Dung</t>
+  </si>
+  <si>
+    <t>Photo CMND, hợp đồng NĐ</t>
   </si>
 </sst>
 </file>
@@ -2692,8 +2695,8 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2959,12 +2962,20 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12">
+        <v>42992</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>104</v>
+      </c>
       <c r="D14" s="13"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="F14" s="14">
+        <v>11000</v>
+      </c>
       <c r="G14" s="14"/>
       <c r="H14" s="13"/>
     </row>
@@ -3044,11 +3055,11 @@
       </c>
       <c r="F21" s="27">
         <f>SUM(F2:F19)</f>
-        <v>1028000</v>
+        <v>1039000</v>
       </c>
       <c r="G21" s="28">
         <f>D21+E21-F21</f>
-        <v>50723500</v>
+        <v>50712500</v>
       </c>
       <c r="H21" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="106">
   <si>
     <t>STT</t>
   </si>
@@ -343,10 +343,13 @@
     <t>Photo sách (Intermediate)</t>
   </si>
   <si>
-    <t>Đinh Thị Dung</t>
-  </si>
-  <si>
     <t>Photo CMND, hợp đồng NĐ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đinh Thị Dung </t>
+  </si>
+  <si>
+    <t>Lê Thị Ngọc Trà</t>
   </si>
 </sst>
 </file>
@@ -2695,8 +2698,8 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2958,7 +2961,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2969,7 +2972,7 @@
         <v>42992</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="14"/>
@@ -2980,14 +2983,24 @@
       <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12">
+        <v>42994</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>101</v>
+      </c>
       <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
+      <c r="E15" s="14">
+        <v>1680000</v>
+      </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
-      <c r="H15" s="13"/>
+      <c r="H15" s="13" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
@@ -3051,7 +3064,7 @@
       </c>
       <c r="E21" s="27">
         <f>SUM(E2:E19)</f>
-        <v>3780000</v>
+        <v>5460000</v>
       </c>
       <c r="F21" s="27">
         <f>SUM(F2:F19)</f>
@@ -3059,7 +3072,7 @@
       </c>
       <c r="G21" s="28">
         <f>D21+E21-F21</f>
-        <v>50712500</v>
+        <v>52392500</v>
       </c>
       <c r="H21" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="107">
   <si>
     <t>STT</t>
   </si>
@@ -350,6 +350,9 @@
   </si>
   <si>
     <t>Lê Thị Ngọc Trà</t>
+  </si>
+  <si>
+    <t>Tiền Đồng phục</t>
   </si>
 </sst>
 </file>
@@ -2699,7 +2702,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3003,12 +3006,20 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12">
+        <v>42996</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>106</v>
+      </c>
       <c r="D16" s="13"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
+      <c r="F16" s="14">
+        <v>330000</v>
+      </c>
       <c r="G16" s="14"/>
       <c r="H16" s="13"/>
     </row>
@@ -3068,11 +3079,11 @@
       </c>
       <c r="F21" s="27">
         <f>SUM(F2:F19)</f>
-        <v>1039000</v>
+        <v>1369000</v>
       </c>
       <c r="G21" s="28">
         <f>D21+E21-F21</f>
-        <v>52392500</v>
+        <v>52062500</v>
       </c>
       <c r="H21" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="108">
   <si>
     <t>STT</t>
   </si>
@@ -353,6 +353,9 @@
   </si>
   <si>
     <t>Tiền Đồng phục</t>
+  </si>
+  <si>
+    <t>Nước suối</t>
   </si>
 </sst>
 </file>
@@ -2702,7 +2705,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3024,12 +3027,20 @@
       <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12">
+        <v>42997</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="D17" s="13"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+      <c r="F17" s="14">
+        <v>20000</v>
+      </c>
       <c r="G17" s="14"/>
       <c r="H17" s="13"/>
     </row>
@@ -3079,11 +3090,11 @@
       </c>
       <c r="F21" s="27">
         <f>SUM(F2:F19)</f>
-        <v>1369000</v>
+        <v>1389000</v>
       </c>
       <c r="G21" s="28">
         <f>D21+E21-F21</f>
-        <v>52062500</v>
+        <v>52042500</v>
       </c>
       <c r="H21" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="110">
   <si>
     <t>STT</t>
   </si>
@@ -356,6 +356,12 @@
   </si>
   <si>
     <t>Nước suối</t>
+  </si>
+  <si>
+    <t>Học phí TOEIC 500 - 700 K5</t>
+  </si>
+  <si>
+    <t>Lê Thị Lam Phương</t>
   </si>
 </sst>
 </file>
@@ -2704,8 +2710,8 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3045,22 +3051,40 @@
       <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12">
+        <v>42997</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>108</v>
+      </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
+      <c r="E18" s="14">
+        <v>1920000</v>
+      </c>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="13"/>
+      <c r="H18" s="13" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12">
+        <v>42997</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="D19" s="13"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="F19" s="14">
+        <v>5000</v>
+      </c>
       <c r="G19" s="14"/>
       <c r="H19" s="13"/>
     </row>
@@ -3086,15 +3110,15 @@
       </c>
       <c r="E21" s="27">
         <f>SUM(E2:E19)</f>
-        <v>5460000</v>
+        <v>7380000</v>
       </c>
       <c r="F21" s="27">
         <f>SUM(F2:F19)</f>
-        <v>1389000</v>
+        <v>1394000</v>
       </c>
       <c r="G21" s="28">
         <f>D21+E21-F21</f>
-        <v>52042500</v>
+        <v>53957500</v>
       </c>
       <c r="H21" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Thang 8'!$A$1:$H$48</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Thang 9'!$A$1:$H$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Thang 9'!$A$1:$H$26</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="110">
   <si>
     <t>STT</t>
   </si>
@@ -552,7 +552,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -608,6 +608,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2660,11 +2669,11 @@
       <c r="H46" s="24"/>
     </row>
     <row r="47" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="31"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="34"/>
       <c r="D47" s="27">
         <f>SUM(D2:D45)</f>
         <v>22096000</v>
@@ -2707,11 +2716,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3088,75 +3097,93 @@
       <c r="G19" s="14"/>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
+    <row r="20" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
+        <v>19</v>
+      </c>
+      <c r="B20" s="23">
+        <v>42998</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>97</v>
+      </c>
       <c r="D20" s="24"/>
       <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+      <c r="F20" s="25">
+        <v>8000</v>
+      </c>
       <c r="G20" s="25"/>
       <c r="H20" s="24"/>
     </row>
-    <row r="21" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="27">
+    <row r="21" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="24"/>
+    </row>
+    <row r="23" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="24"/>
+    </row>
+    <row r="24" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="22"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="27">
         <f>SUM(D2:D19)</f>
         <v>47971500</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E25" s="27">
         <f>SUM(E2:E19)</f>
         <v>7380000</v>
       </c>
-      <c r="F21" s="27">
-        <f>SUM(F2:F19)</f>
-        <v>1394000</v>
-      </c>
-      <c r="G21" s="28">
-        <f>D21+E21-F21</f>
-        <v>53957500</v>
-      </c>
-      <c r="H21" s="26"/>
-    </row>
-    <row r="22" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="1"/>
-    </row>
+      <c r="F25" s="27">
+        <f>SUM(F2:F20)</f>
+        <v>1402000</v>
+      </c>
+      <c r="G25" s="28">
+        <f>D25+E25-F25</f>
+        <v>53949500</v>
+      </c>
+      <c r="H25" s="26"/>
+    </row>
+    <row r="26" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3197,11 +3224,40 @@
       <c r="G33" s="2"/>
       <c r="H33" s="1"/>
     </row>
+    <row r="34" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H22"/>
-  <mergeCells count="1">
-    <mergeCell ref="A21:C21"/>
-  </mergeCells>
+  <autoFilter ref="A1:H26"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="110">
   <si>
     <t>STT</t>
   </si>
@@ -2720,7 +2720,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3116,12 +3116,20 @@
       <c r="H20" s="24"/>
     </row>
     <row r="21" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
+      <c r="A21" s="22">
+        <v>20</v>
+      </c>
+      <c r="B21" s="23">
+        <v>42999</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>97</v>
+      </c>
       <c r="D21" s="24"/>
       <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
+      <c r="F21" s="25">
+        <v>2000</v>
+      </c>
       <c r="G21" s="25"/>
       <c r="H21" s="24"/>
     </row>
@@ -3168,12 +3176,12 @@
         <v>7380000</v>
       </c>
       <c r="F25" s="27">
-        <f>SUM(F2:F20)</f>
-        <v>1402000</v>
+        <f>SUM(F2:F21)</f>
+        <v>1404000</v>
       </c>
       <c r="G25" s="28">
         <f>D25+E25-F25</f>
-        <v>53949500</v>
+        <v>53947500</v>
       </c>
       <c r="H25" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Thang 8'!$A$1:$H$48</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Thang 9'!$A$1:$H$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Thang 9'!$A$1:$H$29</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="115">
   <si>
     <t>STT</t>
   </si>
@@ -362,6 +362,21 @@
   </si>
   <si>
     <t>Lê Thị Lam Phương</t>
+  </si>
+  <si>
+    <t>Photo ETS 2016 - Test 1 - Part 5</t>
+  </si>
+  <si>
+    <t>TOEIC 500 - 700 K4</t>
+  </si>
+  <si>
+    <t>Photo test ETS LC 2016 - Test 10 - part 1</t>
+  </si>
+  <si>
+    <t>TOEIC 500 - 700 K3</t>
+  </si>
+  <si>
+    <t>Khóa học Copywriting &amp; Storytelling</t>
   </si>
 </sst>
 </file>
@@ -2716,11 +2731,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3123,7 +3138,7 @@
         <v>42999</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="25"/>
@@ -3131,29 +3146,49 @@
         <v>2000</v>
       </c>
       <c r="G21" s="25"/>
-      <c r="H21" s="24"/>
+      <c r="H21" s="24" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
+      <c r="A22" s="22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="23">
+        <v>43000</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>114</v>
+      </c>
       <c r="D22" s="24"/>
       <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
+      <c r="F22" s="25">
+        <v>399000</v>
+      </c>
       <c r="G22" s="25"/>
       <c r="H22" s="24"/>
     </row>
     <row r="23" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
+      <c r="A23" s="22">
+        <v>22</v>
+      </c>
+      <c r="B23" s="23">
+        <v>43000</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>110</v>
+      </c>
       <c r="D23" s="24"/>
       <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
+      <c r="F23" s="25">
+        <v>6000</v>
+      </c>
       <c r="G23" s="25"/>
-      <c r="H23" s="24"/>
-    </row>
-    <row r="24" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
       <c r="B24" s="23"/>
       <c r="C24" s="24"/>
@@ -3163,59 +3198,65 @@
       <c r="G24" s="25"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="27">
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="24"/>
+    </row>
+    <row r="27" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="24"/>
+    </row>
+    <row r="28" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="22"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="27">
         <f>SUM(D2:D19)</f>
         <v>47971500</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E28" s="27">
         <f>SUM(E2:E19)</f>
         <v>7380000</v>
       </c>
-      <c r="F25" s="27">
-        <f>SUM(F2:F21)</f>
-        <v>1404000</v>
-      </c>
-      <c r="G25" s="28">
-        <f>D25+E25-F25</f>
-        <v>53947500</v>
-      </c>
-      <c r="H25" s="26"/>
-    </row>
-    <row r="26" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
+      <c r="F28" s="27">
+        <f>SUM(F2:F23)</f>
+        <v>1809000</v>
+      </c>
+      <c r="G28" s="28">
+        <f>D28+E28-F28</f>
+        <v>53542500</v>
+      </c>
+      <c r="H28" s="26"/>
+    </row>
+    <row r="29" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="1"/>
-    </row>
+    <row r="30" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -3264,8 +3305,32 @@
       <c r="G37" s="2"/>
       <c r="H37" s="1"/>
     </row>
+    <row r="38" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H26"/>
+  <autoFilter ref="A1:H29"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Thang 8'!$A$1:$H$48</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Thang 9'!$A$1:$H$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Thang 9'!$A$1:$H$31</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="118">
   <si>
     <t>STT</t>
   </si>
@@ -377,6 +377,15 @@
   </si>
   <si>
     <t>Khóa học Copywriting &amp; Storytelling</t>
+  </si>
+  <si>
+    <t>Decal quảng cáo + bạt bán nhà</t>
+  </si>
+  <si>
+    <t>Photo ETS 2015 - Test 3 - Part 1</t>
+  </si>
+  <si>
+    <t>TOEIC 300 - 500 K6</t>
   </si>
 </sst>
 </file>
@@ -2731,11 +2740,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3189,24 +3198,42 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
+      <c r="A24" s="22">
+        <v>23</v>
+      </c>
+      <c r="B24" s="23">
+        <v>43001</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>115</v>
+      </c>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
+      <c r="F24" s="25">
+        <v>130000</v>
+      </c>
       <c r="G24" s="25"/>
       <c r="H24" s="24"/>
     </row>
     <row r="25" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
+      <c r="A25" s="22">
+        <v>24</v>
+      </c>
+      <c r="B25" s="23">
+        <v>43001</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>116</v>
+      </c>
       <c r="D25" s="24"/>
       <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
+      <c r="F25" s="25">
+        <v>13000</v>
+      </c>
       <c r="G25" s="25"/>
-      <c r="H25" s="24"/>
+      <c r="H25" s="24" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
@@ -3218,7 +3245,7 @@
       <c r="G26" s="25"/>
       <c r="H26" s="24"/>
     </row>
-    <row r="27" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="23"/>
       <c r="C27" s="24"/>
@@ -3228,51 +3255,55 @@
       <c r="G27" s="25"/>
       <c r="H27" s="24"/>
     </row>
-    <row r="28" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="27">
+      <c r="B28" s="23"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="24"/>
+    </row>
+    <row r="29" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="24"/>
+    </row>
+    <row r="30" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="22"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="27">
         <f>SUM(D2:D19)</f>
         <v>47971500</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E30" s="27">
         <f>SUM(E2:E19)</f>
         <v>7380000</v>
       </c>
-      <c r="F28" s="27">
-        <f>SUM(F2:F23)</f>
-        <v>1809000</v>
-      </c>
-      <c r="G28" s="28">
-        <f>D28+E28-F28</f>
-        <v>53542500</v>
-      </c>
-      <c r="H28" s="26"/>
-    </row>
-    <row r="29" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
+      <c r="F30" s="27">
+        <f>SUM(F2:F25)</f>
+        <v>1952000</v>
+      </c>
+      <c r="G30" s="28">
+        <f>D30+E30-F30</f>
+        <v>53399500</v>
+      </c>
+      <c r="H30" s="26"/>
+    </row>
+    <row r="31" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="1"/>
-    </row>
+    <row r="32" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="3:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -3329,8 +3360,24 @@
       <c r="G40" s="2"/>
       <c r="H40" s="1"/>
     </row>
+    <row r="41" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H29"/>
+  <autoFilter ref="A1:H31"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Thang 8'!$A$1:$H$48</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Thang 9'!$A$1:$H$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Thang 9'!$A$1:$H$33</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="123">
   <si>
     <t>STT</t>
   </si>
@@ -386,6 +386,21 @@
   </si>
   <si>
     <t>TOEIC 300 - 500 K6</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Vũ Thanh Hiền</t>
+  </si>
+  <si>
+    <t>Học phí TOEIC 300 - 500 K7</t>
+  </si>
+  <si>
+    <t>Ngô Thị Hồng</t>
+  </si>
+  <si>
+    <t>Tiền Cước di động</t>
   </si>
 </sst>
 </file>
@@ -2740,11 +2755,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3035,7 +3050,7 @@
         <v>42994</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="14">
@@ -3236,36 +3251,64 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
+      <c r="A26" s="22">
+        <v>25</v>
+      </c>
+      <c r="B26" s="23">
+        <v>43003</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>120</v>
+      </c>
       <c r="D26" s="24"/>
-      <c r="E26" s="25"/>
+      <c r="E26" s="25">
+        <v>1680000</v>
+      </c>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
-      <c r="H26" s="24"/>
+      <c r="H26" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
+      <c r="A27" s="22">
+        <v>26</v>
+      </c>
+      <c r="B27" s="23">
+        <v>43003</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>120</v>
+      </c>
       <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
+      <c r="E27" s="25">
+        <v>1680000</v>
+      </c>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
-      <c r="H27" s="24"/>
+      <c r="H27" s="24" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
+      <c r="A28" s="22">
+        <v>27</v>
+      </c>
+      <c r="B28" s="23">
+        <v>43003</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>122</v>
+      </c>
       <c r="D28" s="24"/>
       <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
+      <c r="F28" s="25">
+        <v>333000</v>
+      </c>
       <c r="G28" s="25"/>
       <c r="H28" s="24"/>
     </row>
-    <row r="29" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" s="23"/>
       <c r="C29" s="24"/>
@@ -3275,52 +3318,56 @@
       <c r="G29" s="25"/>
       <c r="H29" s="24"/>
     </row>
-    <row r="30" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="27">
+      <c r="B30" s="23"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="24"/>
+    </row>
+    <row r="31" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="24"/>
+    </row>
+    <row r="32" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="22"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="27">
         <f>SUM(D2:D19)</f>
         <v>47971500</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E32" s="27">
         <f>SUM(E2:E19)</f>
         <v>7380000</v>
       </c>
-      <c r="F30" s="27">
+      <c r="F32" s="27">
         <f>SUM(F2:F25)</f>
         <v>1952000</v>
       </c>
-      <c r="G30" s="28">
-        <f>D30+E30-F30</f>
+      <c r="G32" s="28">
+        <f>D32+E32-F32</f>
         <v>53399500</v>
       </c>
-      <c r="H30" s="26"/>
-    </row>
-    <row r="31" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29" t="s">
+      <c r="H32" s="26"/>
+    </row>
+    <row r="33" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="3:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="2"/>
@@ -3328,7 +3375,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="2"/>
@@ -3336,7 +3383,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="2"/>
@@ -3344,7 +3391,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="2"/>
@@ -3352,7 +3399,7 @@
       <c r="G39" s="2"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="2"/>
@@ -3360,7 +3407,7 @@
       <c r="G40" s="2"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
@@ -3368,7 +3415,7 @@
       <c r="G41" s="2"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="2"/>
@@ -3376,8 +3423,24 @@
       <c r="G42" s="2"/>
       <c r="H42" s="1"/>
     </row>
+    <row r="43" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H31"/>
+  <autoFilter ref="A1:H33"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="124">
   <si>
     <t>STT</t>
   </si>
@@ -388,9 +388,6 @@
     <t>TOEIC 300 - 500 K6</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>Vũ Thanh Hiền</t>
   </si>
   <si>
@@ -401,6 +398,12 @@
   </si>
   <si>
     <t>Tiền Cước di động</t>
+  </si>
+  <si>
+    <t>Photo ETS 2015 - Test 1 part 4</t>
+  </si>
+  <si>
+    <t>TOEIC 300 - 500 K5</t>
   </si>
 </sst>
 </file>
@@ -2758,8 +2761,8 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29:XFD29"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3050,7 +3053,7 @@
         <v>42994</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="14">
@@ -3258,7 +3261,7 @@
         <v>43003</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D26" s="24"/>
       <c r="E26" s="25">
@@ -3267,7 +3270,7 @@
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="H26" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3278,7 +3281,7 @@
         <v>43003</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D27" s="24"/>
       <c r="E27" s="25">
@@ -3287,7 +3290,7 @@
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3298,7 +3301,7 @@
         <v>43003</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="25"/>
@@ -3309,14 +3312,24 @@
       <c r="H28" s="24"/>
     </row>
     <row r="29" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="24"/>
+      <c r="A29" s="22">
+        <v>28</v>
+      </c>
+      <c r="B29" s="23">
+        <v>43005</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>122</v>
+      </c>
       <c r="D29" s="24"/>
       <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
+      <c r="F29" s="25">
+        <v>4000</v>
+      </c>
       <c r="G29" s="25"/>
-      <c r="H29" s="24"/>
+      <c r="H29" s="24" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="125">
   <si>
     <t>STT</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t>TOEIC 300 - 500 K5</t>
+  </si>
+  <si>
+    <t>Chạy Quảng cáo Facebook</t>
   </si>
 </sst>
 </file>
@@ -2762,7 +2765,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3332,12 +3335,20 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
+      <c r="A30" s="22">
+        <v>29</v>
+      </c>
+      <c r="B30" s="23">
+        <v>43006</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>124</v>
+      </c>
       <c r="D30" s="24"/>
       <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
+      <c r="F30" s="25">
+        <v>2000000</v>
+      </c>
       <c r="G30" s="25"/>
       <c r="H30" s="24"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Thang 8'!$A$1:$H$48</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Thang 9'!$A$1:$H$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Thang 9'!$A$1:$H$36</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="126">
   <si>
     <t>STT</t>
   </si>
@@ -407,6 +407,9 @@
   </si>
   <si>
     <t>Chạy Quảng cáo Facebook</t>
+  </si>
+  <si>
+    <t>Photo ETS 2016 - Test 1 - Part 7</t>
   </si>
 </sst>
 </file>
@@ -2761,11 +2764,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3352,69 +3355,85 @@
       <c r="G30" s="25"/>
       <c r="H30" s="24"/>
     </row>
-    <row r="31" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
+    <row r="31" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="22">
+        <v>30</v>
+      </c>
+      <c r="B31" s="23">
+        <v>43006</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>125</v>
+      </c>
       <c r="D31" s="24"/>
       <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
+      <c r="F31" s="25">
+        <v>4000</v>
+      </c>
       <c r="G31" s="25"/>
-      <c r="H31" s="24"/>
-    </row>
-    <row r="32" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H31" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="27">
+      <c r="B32" s="23"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="24"/>
+    </row>
+    <row r="33" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="24"/>
+    </row>
+    <row r="34" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="22"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="24"/>
+    </row>
+    <row r="35" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="22"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="27">
         <f>SUM(D2:D19)</f>
         <v>47971500</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E35" s="27">
         <f>SUM(E2:E19)</f>
         <v>7380000</v>
       </c>
-      <c r="F32" s="27">
+      <c r="F35" s="27">
         <f>SUM(F2:F25)</f>
         <v>1952000</v>
       </c>
-      <c r="G32" s="28">
-        <f>D32+E32-F32</f>
+      <c r="G35" s="28">
+        <f>D35+E35-F35</f>
         <v>53399500</v>
       </c>
-      <c r="H32" s="26"/>
-    </row>
-    <row r="33" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29" t="s">
+      <c r="H35" s="26"/>
+    </row>
+    <row r="36" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="1"/>
-    </row>
+    <row r="37" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -3463,8 +3482,32 @@
       <c r="G44" s="2"/>
       <c r="H44" s="1"/>
     </row>
+    <row r="45" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H33"/>
+  <autoFilter ref="A1:H36"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -1099,7 +1099,7 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2767,7 +2767,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Thang 8'!$A$1:$H$48</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Thang 9'!$A$1:$H$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Thang 9'!$A$1:$H$42</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="135">
   <si>
     <t>STT</t>
   </si>
@@ -346,9 +346,6 @@
     <t>Photo CMND, hợp đồng NĐ</t>
   </si>
   <si>
-    <t xml:space="preserve">Đinh Thị Dung </t>
-  </si>
-  <si>
     <t>Lê Thị Ngọc Trà</t>
   </si>
   <si>
@@ -410,6 +407,36 @@
   </si>
   <si>
     <t>Photo ETS 2016 - Test 1 - Part 7</t>
+  </si>
+  <si>
+    <t>Phạm Thị Thu Uyên</t>
+  </si>
+  <si>
+    <t>Trần Thị Thùy</t>
+  </si>
+  <si>
+    <t>Phạm Thị Tâm</t>
+  </si>
+  <si>
+    <t>Trần Thị Khánh Ly</t>
+  </si>
+  <si>
+    <t>Dương Phương Uyên</t>
+  </si>
+  <si>
+    <t>Lê Thị Thảo Nguyên</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thùy Linh</t>
+  </si>
+  <si>
+    <t>Học phí TOEIC khóa 500 - 700 K4</t>
+  </si>
+  <si>
+    <t>Trương Trọng Nghĩa</t>
+  </si>
+  <si>
+    <t>Đinh Thị Dung  (Chưa giảm 20%)</t>
   </si>
 </sst>
 </file>
@@ -2764,11 +2791,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2967,7 +2994,7 @@
         <v>42989</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14">
@@ -2975,7 +3002,9 @@
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="13"/>
+      <c r="H10" s="13" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
@@ -3030,7 +3059,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="13" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3068,7 +3097,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3079,7 +3108,7 @@
         <v>42996</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="14"/>
@@ -3097,7 +3126,7 @@
         <v>42997</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="14"/>
@@ -3115,7 +3144,7 @@
         <v>42997</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="14">
@@ -3124,7 +3153,7 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3171,7 +3200,7 @@
         <v>42999</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="25"/>
@@ -3180,7 +3209,7 @@
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3191,7 +3220,7 @@
         <v>43000</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="25"/>
@@ -3209,7 +3238,7 @@
         <v>43000</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="25"/>
@@ -3218,7 +3247,7 @@
       </c>
       <c r="G23" s="25"/>
       <c r="H23" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3229,7 +3258,7 @@
         <v>43001</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
@@ -3247,7 +3276,7 @@
         <v>43001</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="25"/>
@@ -3256,7 +3285,7 @@
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3267,7 +3296,7 @@
         <v>43003</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D26" s="24"/>
       <c r="E26" s="25">
@@ -3276,7 +3305,7 @@
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="H26" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3287,7 +3316,7 @@
         <v>43003</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D27" s="24"/>
       <c r="E27" s="25">
@@ -3296,7 +3325,7 @@
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3307,7 +3336,7 @@
         <v>43003</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="25"/>
@@ -3325,7 +3354,7 @@
         <v>43005</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="25"/>
@@ -3334,7 +3363,7 @@
       </c>
       <c r="G29" s="25"/>
       <c r="H29" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3345,7 +3374,7 @@
         <v>43006</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="25"/>
@@ -3363,7 +3392,7 @@
         <v>43006</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="25"/>
@@ -3372,116 +3401,198 @@
       </c>
       <c r="G31" s="25"/>
       <c r="H31" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="24"/>
+      <c r="A32" s="22">
+        <v>32</v>
+      </c>
+      <c r="B32" s="23">
+        <v>43008</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>107</v>
+      </c>
       <c r="D32" s="24"/>
-      <c r="E32" s="25"/>
+      <c r="E32" s="25">
+        <v>1920000</v>
+      </c>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
-      <c r="H32" s="24"/>
+      <c r="H32" s="24" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="24"/>
+      <c r="A33" s="22">
+        <v>33</v>
+      </c>
+      <c r="B33" s="23">
+        <v>43008</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>107</v>
+      </c>
       <c r="D33" s="24"/>
-      <c r="E33" s="25"/>
+      <c r="E33" s="25">
+        <v>1920000</v>
+      </c>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
-      <c r="H33" s="24"/>
-    </row>
-    <row r="34" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
+      <c r="H33" s="24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="22">
+        <v>34</v>
+      </c>
+      <c r="B34" s="23">
+        <v>43008</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>118</v>
+      </c>
       <c r="D34" s="24"/>
-      <c r="E34" s="25"/>
+      <c r="E34" s="25">
+        <v>1680000</v>
+      </c>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
-      <c r="H34" s="24"/>
-    </row>
-    <row r="35" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="27">
+      <c r="H34" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="22">
+        <v>35</v>
+      </c>
+      <c r="B35" s="23">
+        <v>43008</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25">
+        <v>1680000</v>
+      </c>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="22">
+        <v>36</v>
+      </c>
+      <c r="B36" s="23">
+        <v>43008</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="24"/>
+      <c r="E36" s="25">
+        <v>1920000</v>
+      </c>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="22">
+        <v>37</v>
+      </c>
+      <c r="B37" s="23">
+        <v>43008</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="24"/>
+      <c r="E37" s="25">
+        <v>1680000</v>
+      </c>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="22">
+        <v>38</v>
+      </c>
+      <c r="B38" s="23">
+        <v>43008</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="24"/>
+      <c r="E38" s="25">
+        <v>1680000</v>
+      </c>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="22"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="24"/>
+    </row>
+    <row r="40" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="22"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="24"/>
+    </row>
+    <row r="41" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="22"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="27">
         <f>SUM(D2:D19)</f>
         <v>47971500</v>
       </c>
-      <c r="E35" s="27">
-        <f>SUM(E2:E19)</f>
-        <v>7380000</v>
-      </c>
-      <c r="F35" s="27">
+      <c r="E41" s="27">
+        <f>SUM(E2:E39)</f>
+        <v>23220000</v>
+      </c>
+      <c r="F41" s="27">
         <f>SUM(F2:F25)</f>
         <v>1952000</v>
       </c>
-      <c r="G35" s="28">
-        <f>D35+E35-F35</f>
-        <v>53399500</v>
-      </c>
-      <c r="H35" s="26"/>
-    </row>
-    <row r="36" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
+      <c r="G41" s="28">
+        <f>D41+E41-F41</f>
+        <v>69239500</v>
+      </c>
+      <c r="H41" s="26"/>
+    </row>
+    <row r="42" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="1"/>
-    </row>
+    <row r="43" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -3506,8 +3617,56 @@
       <c r="G47" s="2"/>
       <c r="H47" s="1"/>
     </row>
+    <row r="48" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H36"/>
+  <autoFilter ref="A1:H42"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="137">
   <si>
     <t>STT</t>
   </si>
@@ -437,6 +437,12 @@
   </si>
   <si>
     <t>Đinh Thị Dung  (Chưa giảm 20%)</t>
+  </si>
+  <si>
+    <t>Photo Test 10 full</t>
+  </si>
+  <si>
+    <t>Test cuối khóa 300 - 500 K5</t>
   </si>
 </sst>
 </file>
@@ -520,7 +526,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -621,13 +627,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -701,6 +718,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent5" xfId="2" builtinId="45"/>
@@ -986,7 +1007,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,7 +1147,7 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1768,8 +1789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2794,8 +2815,8 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3674,12 +3695,238 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="46" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="45.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17">
+        <v>43010</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="19">
+        <f>'Thang 9'!G41</f>
+        <v>69239500</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19">
+        <f>D2+E2-F2</f>
+        <v>69239500</v>
+      </c>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12">
+        <v>43010</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14">
+        <v>40000</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="27">
+        <f>SUM(D2:D11)</f>
+        <v>69239500</v>
+      </c>
+      <c r="E13" s="27">
+        <f>SUM(E2:E11)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="27">
+        <f>SUM(F2:F11)</f>
+        <v>40000</v>
+      </c>
+      <c r="G13" s="28">
+        <f>D13+E13-F13</f>
+        <v>69199500</v>
+      </c>
+      <c r="H13" s="26"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="35"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A13:C13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Chi phi tong" sheetId="1" r:id="rId1"/>
     <sheet name="Thang 6" sheetId="3" r:id="rId2"/>
     <sheet name="Thang 8" sheetId="9" r:id="rId3"/>
     <sheet name="Thang 9" sheetId="11" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="12" r:id="rId5"/>
+    <sheet name="Thang 10" sheetId="12" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Thang 8'!$A$1:$H$48</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="139">
   <si>
     <t>STT</t>
   </si>
@@ -443,6 +443,12 @@
   </si>
   <si>
     <t>Test cuối khóa 300 - 500 K5</t>
+  </si>
+  <si>
+    <t>Phạm Thị Quỳnh Như</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photo ETS 2017  Test 1 - Part 7 </t>
   </si>
 </sst>
 </file>
@@ -709,6 +715,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -718,10 +728,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent5" xfId="2" builtinId="45"/>
@@ -2765,11 +2771,11 @@
       <c r="H46" s="24"/>
     </row>
     <row r="47" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="33"/>
-      <c r="C47" s="34"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="36"/>
       <c r="D47" s="27">
         <f>SUM(D2:D45)</f>
         <v>22096000</v>
@@ -2814,8 +2820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -3697,8 +3703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3784,25 +3790,39 @@
       <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="12">
+        <v>43011</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>118</v>
+      </c>
       <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
+      <c r="E4" s="14">
+        <v>1680000</v>
+      </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="13"/>
+      <c r="H4" s="13" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
+      <c r="B5" s="12">
+        <v>43011</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>138</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="13"/>
+      <c r="H5" s="13" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
@@ -3887,18 +3907,18 @@
       <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="36"/>
       <c r="D13" s="27">
         <f>SUM(D2:D11)</f>
         <v>69239500</v>
       </c>
       <c r="E13" s="27">
         <f>SUM(E2:E11)</f>
-        <v>0</v>
+        <v>1680000</v>
       </c>
       <c r="F13" s="27">
         <f>SUM(F2:F11)</f>
@@ -3906,12 +3926,12 @@
       </c>
       <c r="G13" s="28">
         <f>D13+E13-F13</f>
-        <v>69199500</v>
+        <v>70879500</v>
       </c>
       <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -3921,7 +3941,7 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
+      <c r="A15" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="140">
   <si>
     <t>STT</t>
   </si>
@@ -449,6 +449,9 @@
   </si>
   <si>
     <t xml:space="preserve">Photo ETS 2017  Test 1 - Part 7 </t>
+  </si>
+  <si>
+    <t>Nguyễn Bá Anh Vũ</t>
   </si>
 </sst>
 </file>
@@ -3704,7 +3707,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3818,7 +3821,9 @@
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="F5" s="14">
+        <v>3000</v>
+      </c>
       <c r="G5" s="14"/>
       <c r="H5" s="13" t="s">
         <v>112</v>
@@ -3828,13 +3833,21 @@
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
+      <c r="B6" s="12">
+        <v>43012</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>118</v>
+      </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
+      <c r="E6" s="14">
+        <v>1680000</v>
+      </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="13"/>
+      <c r="H6" s="13" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
@@ -3918,15 +3931,15 @@
       </c>
       <c r="E13" s="27">
         <f>SUM(E2:E11)</f>
-        <v>1680000</v>
+        <v>3360000</v>
       </c>
       <c r="F13" s="27">
         <f>SUM(F2:F11)</f>
-        <v>40000</v>
+        <v>43000</v>
       </c>
       <c r="G13" s="28">
         <f>D13+E13-F13</f>
-        <v>70879500</v>
+        <v>72556500</v>
       </c>
       <c r="H13" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="142">
   <si>
     <t>STT</t>
   </si>
@@ -452,6 +452,12 @@
   </si>
   <si>
     <t>Nguyễn Bá Anh Vũ</t>
+  </si>
+  <si>
+    <t>Tiền Giảm 20% học phí</t>
+  </si>
+  <si>
+    <t>Bạn Đinh Thị Dung</t>
   </si>
 </sst>
 </file>
@@ -2824,8 +2830,8 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3707,7 +3713,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3853,13 +3859,21 @@
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
+      <c r="B7" s="12">
+        <v>43012</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>140</v>
+      </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="F7" s="14">
+        <v>420000</v>
+      </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="13"/>
+      <c r="H7" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
@@ -3935,11 +3949,11 @@
       </c>
       <c r="F13" s="27">
         <f>SUM(F2:F11)</f>
-        <v>43000</v>
+        <v>463000</v>
       </c>
       <c r="G13" s="28">
         <f>D13+E13-F13</f>
-        <v>72556500</v>
+        <v>72136500</v>
       </c>
       <c r="H13" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="143">
   <si>
     <t>STT</t>
   </si>
@@ -458,6 +458,9 @@
   </si>
   <si>
     <t>Bạn Đinh Thị Dung</t>
+  </si>
+  <si>
+    <t>Tiền trả góp Laptop</t>
   </si>
 </sst>
 </file>
@@ -3713,7 +3716,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3879,11 +3882,17 @@
       <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="12">
+        <v>43009</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>142</v>
+      </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="F8" s="14">
+        <v>1231000</v>
+      </c>
       <c r="G8" s="14"/>
       <c r="H8" s="13"/>
     </row>
@@ -3949,11 +3958,11 @@
       </c>
       <c r="F13" s="27">
         <f>SUM(F2:F11)</f>
-        <v>463000</v>
+        <v>1694000</v>
       </c>
       <c r="G13" s="28">
         <f>D13+E13-F13</f>
-        <v>72136500</v>
+        <v>70905500</v>
       </c>
       <c r="H13" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="150">
   <si>
     <t>STT</t>
   </si>
@@ -460,7 +460,28 @@
     <t>Bạn Đinh Thị Dung</t>
   </si>
   <si>
-    <t>Tiền trả góp Laptop</t>
+    <t>Tiền trả góp hàng tháng Laptop</t>
+  </si>
+  <si>
+    <t>1/6 tháng</t>
+  </si>
+  <si>
+    <t>Học phí TOEIC 500 - 700 K7</t>
+  </si>
+  <si>
+    <t>Photo Test  New Economy Toeic 1000 - Test 10</t>
+  </si>
+  <si>
+    <t>Lương của Hậu</t>
+  </si>
+  <si>
+    <t>Lương của Nhân</t>
+  </si>
+  <si>
+    <t>Test cuối khóa 500 - 700 K3</t>
+  </si>
+  <si>
+    <t>Trần Thị Ngọc Anh</t>
   </si>
 </sst>
 </file>
@@ -3713,10 +3734,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3761,7 +3782,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="17">
-        <v>43010</v>
+        <v>43009</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>17</v>
@@ -3779,23 +3800,23 @@
       <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="12">
-        <v>43010</v>
+        <v>43009</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
+        <v>142</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="14">
-        <v>40000</v>
-      </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="13" t="s">
-        <v>136</v>
+        <v>1231000</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="18" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3803,19 +3824,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="12">
-        <v>43011</v>
+        <v>43010</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="D4" s="13"/>
-      <c r="E4" s="14">
-        <v>1680000</v>
-      </c>
-      <c r="F4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14">
+        <v>40000</v>
+      </c>
       <c r="G4" s="14"/>
       <c r="H4" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3826,16 +3847,16 @@
         <v>43011</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14">
-        <v>3000</v>
-      </c>
+      <c r="E5" s="14">
+        <v>1680000</v>
+      </c>
+      <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="13" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3843,19 +3864,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="12">
-        <v>43012</v>
+        <v>43011</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="14">
-        <v>1680000</v>
-      </c>
-      <c r="F6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14">
+        <v>3000</v>
+      </c>
       <c r="G6" s="14"/>
       <c r="H6" s="13" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3866,16 +3887,16 @@
         <v>43012</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14">
-        <v>420000</v>
-      </c>
+      <c r="E7" s="14">
+        <v>1680000</v>
+      </c>
+      <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3883,105 +3904,228 @@
         <v>7</v>
       </c>
       <c r="B8" s="12">
-        <v>43009</v>
+        <v>43012</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14">
-        <v>1231000</v>
+        <v>420000</v>
       </c>
       <c r="G8" s="14"/>
-      <c r="H8" s="13"/>
+      <c r="H8" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="12">
+        <v>43013</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>144</v>
+      </c>
       <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="E9" s="14">
+        <v>1920000</v>
+      </c>
       <c r="G9" s="14"/>
-      <c r="H9" s="13"/>
+      <c r="H9" s="13" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
+      <c r="B10" s="12">
+        <v>43013</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>145</v>
+      </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="F10" s="14">
+        <v>35000</v>
+      </c>
       <c r="G10" s="14"/>
-      <c r="H10" s="13"/>
+      <c r="H10" s="13" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="12">
+        <v>43013</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>146</v>
+      </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="F11" s="14">
+        <v>2077000</v>
+      </c>
       <c r="G11" s="14"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="24"/>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="34" t="s">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12">
+        <v>43013</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14">
+        <v>500000</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
         <v>12</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="27">
-        <f>SUM(D2:D11)</f>
+      <c r="B13" s="23">
+        <v>43013</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25">
+        <v>248000</v>
+      </c>
+      <c r="G13" s="25"/>
+      <c r="H13" s="24"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
+        <v>13</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>14</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="24"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="24"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="24"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="24"/>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="27">
+        <f>SUM(D2:D12)</f>
         <v>69239500</v>
       </c>
-      <c r="E13" s="27">
-        <f>SUM(E2:E11)</f>
-        <v>3360000</v>
-      </c>
-      <c r="F13" s="27">
-        <f>SUM(F2:F11)</f>
-        <v>1694000</v>
-      </c>
-      <c r="G13" s="28">
-        <f>D13+E13-F13</f>
-        <v>70905500</v>
-      </c>
-      <c r="H13" s="26"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="E21" s="27">
+        <f>SUM(E2:E12)</f>
+        <v>5280000</v>
+      </c>
+      <c r="F21" s="27">
+        <f>SUM(F2:F13)</f>
+        <v>4554000</v>
+      </c>
+      <c r="G21" s="28">
+        <f>D21+E21-F21</f>
+        <v>69965500</v>
+      </c>
+      <c r="H21" s="26"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="32"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="152">
   <si>
     <t>STT</t>
   </si>
@@ -482,6 +482,12 @@
   </si>
   <si>
     <t>Trần Thị Ngọc Anh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Kiều Ngân</t>
+  </si>
+  <si>
+    <t>Trần Thị Thúy Nga</t>
   </si>
 </sst>
 </file>
@@ -3734,10 +3740,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4016,28 +4022,46 @@
       <c r="A14" s="22">
         <v>13</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
+      <c r="B14" s="23">
+        <v>43015</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>118</v>
+      </c>
       <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
+      <c r="E14" s="25">
+        <v>1680000</v>
+      </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="24"/>
+      <c r="H14" s="24" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>14</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
+      <c r="B15" s="23">
+        <v>43015</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>118</v>
+      </c>
       <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
+      <c r="E15" s="25">
+        <v>1680000</v>
+      </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="24" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
+      <c r="A16" s="22">
+        <v>15</v>
+      </c>
       <c r="B16" s="23"/>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
@@ -4047,7 +4071,9 @@
       <c r="H16" s="24"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="22">
+        <v>16</v>
+      </c>
       <c r="B17" s="23"/>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
@@ -4057,7 +4083,9 @@
       <c r="H17" s="24"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
+      <c r="A18" s="22">
+        <v>17</v>
+      </c>
       <c r="B18" s="23"/>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
@@ -4076,7 +4104,7 @@
       <c r="G19" s="25"/>
       <c r="H19" s="24"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="23"/>
       <c r="C20" s="24"/>
@@ -4086,46 +4114,96 @@
       <c r="G20" s="25"/>
       <c r="H20" s="24"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="34" t="s">
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="24"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="24"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="27">
+      <c r="B26" s="35"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="27">
         <f>SUM(D2:D12)</f>
         <v>69239500</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E26" s="27">
         <f>SUM(E2:E12)</f>
         <v>5280000</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F26" s="27">
         <f>SUM(F2:F13)</f>
         <v>4554000</v>
       </c>
-      <c r="G21" s="28">
-        <f>D21+E21-F21</f>
+      <c r="G26" s="28">
+        <f>D26+E26-F26</f>
         <v>69965500</v>
       </c>
-      <c r="H21" s="26"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
+      <c r="H26" s="26"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\share\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\New folder\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="153">
   <si>
     <t>STT</t>
   </si>
@@ -488,6 +488,9 @@
   </si>
   <si>
     <t>Trần Thị Thúy Nga</t>
+  </si>
+  <si>
+    <t>Lê Thị Nga</t>
   </si>
 </sst>
 </file>
@@ -3742,8 +3745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4062,13 +4065,21 @@
       <c r="A16" s="22">
         <v>15</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="23">
+        <v>43015</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>118</v>
+      </c>
       <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
+      <c r="E16" s="25">
+        <v>1680000</v>
+      </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="24"/>
+      <c r="H16" s="24" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="22">

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="156">
   <si>
     <t>STT</t>
   </si>
@@ -491,6 +491,16 @@
   </si>
   <si>
     <t>Lê Thị Nga</t>
+  </si>
+  <si>
+    <t>Trần Thị Phương Uyên</t>
+  </si>
+  <si>
+    <t>Tiền in + photo</t>
+  </si>
+  <si>
+    <t>Các chương trình ở trung tâm 
+Thông tin học viên</t>
   </si>
 </sst>
 </file>
@@ -574,7 +584,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -686,13 +696,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -769,6 +790,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3745,8 +3770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4085,38 +4110,63 @@
       <c r="A17" s="22">
         <v>16</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
+      <c r="B17" s="23">
+        <v>43017</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>118</v>
+      </c>
       <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
+      <c r="E17" s="25">
+        <v>1680000</v>
+      </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="24"/>
+      <c r="H17" s="24" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>17</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
+      <c r="B18" s="23">
+        <v>43017</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>29</v>
+      </c>
       <c r="D18" s="24"/>
       <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
+      <c r="F18" s="25">
+        <v>68000</v>
+      </c>
       <c r="G18" s="25"/>
       <c r="H18" s="24"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
+    <row r="19" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
+        <v>18</v>
+      </c>
+      <c r="B19" s="23">
+        <v>43017</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>154</v>
+      </c>
       <c r="D19" s="24"/>
       <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
+      <c r="F19" s="25">
+        <v>22000</v>
+      </c>
       <c r="G19" s="25"/>
-      <c r="H19" s="24"/>
+      <c r="H19" s="38" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
+      <c r="A20" s="22">
+        <v>19</v>
+      </c>
       <c r="B20" s="23"/>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
@@ -4126,7 +4176,9 @@
       <c r="H20" s="24"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
+      <c r="A21" s="22">
+        <v>20</v>
+      </c>
       <c r="B21" s="23"/>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="157">
   <si>
     <t>STT</t>
   </si>
@@ -501,6 +501,9 @@
   <si>
     <t>Các chương trình ở trung tâm 
 Thông tin học viên</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Hoàng</t>
   </si>
 </sst>
 </file>
@@ -782,6 +785,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -790,10 +797,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2838,11 +2841,11 @@
       <c r="H46" s="24"/>
     </row>
     <row r="47" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="35"/>
-      <c r="C47" s="36"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="38"/>
       <c r="D47" s="27">
         <f>SUM(D2:D45)</f>
         <v>22096000</v>
@@ -3770,8 +3773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4113,7 +4116,7 @@
       <c r="B17" s="23">
         <v>43017</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="34" t="s">
         <v>118</v>
       </c>
       <c r="D17" s="24"/>
@@ -4159,7 +4162,7 @@
         <v>22000</v>
       </c>
       <c r="G19" s="25"/>
-      <c r="H19" s="38" t="s">
+      <c r="H19" s="35" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4167,13 +4170,21 @@
       <c r="A20" s="22">
         <v>19</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
+      <c r="B20" s="23">
+        <v>43018</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>118</v>
+      </c>
       <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
+      <c r="E20" s="25">
+        <v>1680000</v>
+      </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="24"/>
+      <c r="H20" s="24" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
@@ -4228,11 +4239,11 @@
       <c r="H25" s="24"/>
     </row>
     <row r="26" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="36"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="27">
         <f>SUM(D2:D12)</f>
         <v>69239500</v>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="160">
   <si>
     <t>STT</t>
   </si>
@@ -504,6 +504,15 @@
   </si>
   <si>
     <t>Nguyễn Hữu Hoàng</t>
+  </si>
+  <si>
+    <t>In Bản đăng ký thi TOEIC</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Thu Hồng</t>
+  </si>
+  <si>
+    <t>Trần Ngọc Quỳnh Trân</t>
   </si>
 </sst>
 </file>
@@ -3773,8 +3782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4190,33 +4199,55 @@
       <c r="A21" s="22">
         <v>20</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
+      <c r="B21" s="23">
+        <v>43018</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>157</v>
+      </c>
       <c r="D21" s="24"/>
       <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
+      <c r="F21" s="25">
+        <v>2000</v>
+      </c>
       <c r="G21" s="25"/>
       <c r="H21" s="24"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
+      <c r="B22" s="23">
+        <v>43019</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>118</v>
+      </c>
       <c r="D22" s="24"/>
-      <c r="E22" s="25"/>
+      <c r="E22" s="25">
+        <v>1680000</v>
+      </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="24"/>
+      <c r="H22" s="24" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
+      <c r="B23" s="23">
+        <v>43019</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>118</v>
+      </c>
       <c r="D23" s="24"/>
-      <c r="E23" s="25"/>
+      <c r="E23" s="25">
+        <v>1680000</v>
+      </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="24"/>
+      <c r="H23" s="24" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="161">
   <si>
     <t>STT</t>
   </si>
@@ -513,6 +513,9 @@
   </si>
   <si>
     <t>Trần Ngọc Quỳnh Trân</t>
+  </si>
+  <si>
+    <t>Ông Văn Huy</t>
   </si>
 </sst>
 </file>
@@ -3780,10 +3783,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4214,7 +4217,9 @@
       <c r="H21" s="24"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
+      <c r="A22" s="22">
+        <v>21</v>
+      </c>
       <c r="B22" s="23">
         <v>43019</v>
       </c>
@@ -4232,7 +4237,9 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
+      <c r="A23" s="22">
+        <v>22</v>
+      </c>
       <c r="B23" s="23">
         <v>43019</v>
       </c>
@@ -4250,17 +4257,29 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
+      <c r="A24" s="22">
+        <v>23</v>
+      </c>
+      <c r="B24" s="23">
+        <v>43020</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>144</v>
+      </c>
       <c r="D24" s="24"/>
-      <c r="E24" s="25"/>
+      <c r="E24" s="14">
+        <v>1920000</v>
+      </c>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="24"/>
-    </row>
-    <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="H24" s="24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
+        <v>24</v>
+      </c>
       <c r="B25" s="23"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
@@ -4269,46 +4288,132 @@
       <c r="G25" s="25"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="36" t="s">
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
+        <v>25</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="24"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="22">
+        <v>26</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="24"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
+        <v>27</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="24"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="24"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="24"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="24"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="24"/>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="22"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="24"/>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="27">
+      <c r="B34" s="37"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="27">
         <f>SUM(D2:D12)</f>
         <v>69239500</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E34" s="27">
         <f>SUM(E2:E12)</f>
         <v>5280000</v>
       </c>
-      <c r="F26" s="27">
+      <c r="F34" s="27">
         <f>SUM(F2:F13)</f>
         <v>4554000</v>
       </c>
-      <c r="G26" s="28">
-        <f>D26+E26-F26</f>
+      <c r="G34" s="28">
+        <f>D34+E34-F34</f>
         <v>69965500</v>
       </c>
-      <c r="H26" s="26"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
+      <c r="H34" s="26"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="32"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A34:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="162">
   <si>
     <t>STT</t>
   </si>
@@ -516,6 +516,9 @@
   </si>
   <si>
     <t>Ông Văn Huy</t>
+  </si>
+  <si>
+    <t>Tôn Nữ Hà Vy (+Voucher 5%)</t>
   </si>
 </sst>
 </file>
@@ -3785,8 +3788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4280,13 +4283,21 @@
       <c r="A25" s="22">
         <v>24</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
+      <c r="B25" s="23">
+        <v>43020</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>144</v>
+      </c>
       <c r="D25" s="24"/>
-      <c r="E25" s="25"/>
+      <c r="E25" s="25">
+        <v>1800000</v>
+      </c>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
-      <c r="H25" s="24"/>
+      <c r="H25" s="24" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="22">

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="163">
   <si>
     <t>STT</t>
   </si>
@@ -519,6 +519,9 @@
   </si>
   <si>
     <t>Tôn Nữ Hà Vy (+Voucher 5%)</t>
+  </si>
+  <si>
+    <t>Đỗ Văn Quang</t>
   </si>
 </sst>
 </file>
@@ -3788,8 +3791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4267,7 +4270,7 @@
         <v>43020</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="14">
@@ -4287,7 +4290,7 @@
         <v>43020</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="25">
@@ -4303,13 +4306,21 @@
       <c r="A26" s="22">
         <v>25</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
+      <c r="B26" s="23">
+        <v>43022</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="D26" s="24"/>
-      <c r="E26" s="25"/>
+      <c r="E26" s="25">
+        <v>1920000</v>
+      </c>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
-      <c r="H26" s="24"/>
+      <c r="H26" s="24" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="22">

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="168">
   <si>
     <t>STT</t>
   </si>
@@ -522,6 +522,21 @@
   </si>
   <si>
     <t>Đỗ Văn Quang</t>
+  </si>
+  <si>
+    <t>Bút lông + Phiếu thu</t>
+  </si>
+  <si>
+    <t>28000 + 12000</t>
+  </si>
+  <si>
+    <t>Giấy vệ sinh</t>
+  </si>
+  <si>
+    <t>Tiền cước di động</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Hùng</t>
   </si>
 </sst>
 </file>
@@ -2909,8 +2924,8 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3688,16 +3703,16 @@
         <v>47971500</v>
       </c>
       <c r="E41" s="27">
-        <f>SUM(E2:E39)</f>
+        <f>SUM(E2:E40)</f>
         <v>23220000</v>
       </c>
       <c r="F41" s="27">
-        <f>SUM(F2:F25)</f>
-        <v>1952000</v>
+        <f>SUM(F2:F40)</f>
+        <v>4293000</v>
       </c>
       <c r="G41" s="28">
         <f>D41+E41-F41</f>
-        <v>69239500</v>
+        <v>66898500</v>
       </c>
       <c r="H41" s="26"/>
     </row>
@@ -3789,10 +3804,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3844,13 +3859,13 @@
       </c>
       <c r="D2" s="19">
         <f>'Thang 9'!G41</f>
-        <v>69239500</v>
+        <v>66898500</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19">
         <f>D2+E2-F2</f>
-        <v>69239500</v>
+        <v>66898500</v>
       </c>
       <c r="H2" s="18"/>
     </row>
@@ -4326,48 +4341,82 @@
       <c r="A27" s="22">
         <v>26</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
+      <c r="B27" s="23">
+        <v>43024</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>163</v>
+      </c>
       <c r="D27" s="24"/>
       <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="F27" s="25">
+        <v>40000</v>
+      </c>
       <c r="G27" s="25"/>
-      <c r="H27" s="24"/>
+      <c r="H27" s="24" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>27</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
+      <c r="B28" s="23">
+        <v>43024</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>165</v>
+      </c>
       <c r="D28" s="24"/>
       <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
+      <c r="F28" s="25">
+        <v>25000</v>
+      </c>
       <c r="G28" s="25"/>
       <c r="H28" s="24"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="24"/>
+      <c r="A29" s="22">
+        <v>28</v>
+      </c>
+      <c r="B29" s="23">
+        <v>43024</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>166</v>
+      </c>
       <c r="D29" s="24"/>
       <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
+      <c r="F29" s="25">
+        <v>299000</v>
+      </c>
       <c r="G29" s="25"/>
       <c r="H29" s="24"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
+      <c r="A30" s="22">
+        <v>29</v>
+      </c>
+      <c r="B30" s="23">
+        <v>43024</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>118</v>
+      </c>
       <c r="D30" s="24"/>
-      <c r="E30" s="25"/>
+      <c r="E30" s="25">
+        <v>1680000</v>
+      </c>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
-      <c r="H30" s="24"/>
+      <c r="H30" s="24" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
+      <c r="A31" s="22">
+        <v>30</v>
+      </c>
       <c r="B31" s="23"/>
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
@@ -4377,7 +4426,9 @@
       <c r="H31" s="24"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
+      <c r="A32" s="22">
+        <v>31</v>
+      </c>
       <c r="B32" s="23"/>
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
@@ -4386,8 +4437,10 @@
       <c r="G32" s="25"/>
       <c r="H32" s="24"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="22">
+        <v>32</v>
+      </c>
       <c r="B33" s="23"/>
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
@@ -4396,47 +4449,120 @@
       <c r="G33" s="25"/>
       <c r="H33" s="24"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="36" t="s">
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="22">
+        <v>33</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="24"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="24"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="24"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="22"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="24"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="22"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="24"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="22"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="24"/>
+    </row>
+    <row r="40" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="22"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="24"/>
+    </row>
+    <row r="41" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="27">
+      <c r="B41" s="37"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="27">
         <f>SUM(D2:D12)</f>
-        <v>69239500</v>
-      </c>
-      <c r="E34" s="27">
-        <f>SUM(E2:E12)</f>
-        <v>5280000</v>
-      </c>
-      <c r="F34" s="27">
-        <f>SUM(F2:F13)</f>
-        <v>4554000</v>
-      </c>
-      <c r="G34" s="28">
-        <f>D34+E34-F34</f>
-        <v>69965500</v>
-      </c>
-      <c r="H34" s="26"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
+        <v>66898500</v>
+      </c>
+      <c r="E41" s="27">
+        <f>SUM(E2:E40)</f>
+        <v>24360000</v>
+      </c>
+      <c r="F41" s="27">
+        <f>SUM(F2:F40)</f>
+        <v>5010000</v>
+      </c>
+      <c r="G41" s="28">
+        <f>D41+E41-F41</f>
+        <v>86248500</v>
+      </c>
+      <c r="H41" s="26"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="32"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A41:C41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="171">
   <si>
     <t>STT</t>
   </si>
@@ -537,6 +537,15 @@
   </si>
   <si>
     <t>Nguyễn Văn Hùng</t>
+  </si>
+  <si>
+    <t>Tiền vật tư sửa chữa trung tâm</t>
+  </si>
+  <si>
+    <t>Tiền photo sách (trả trước)</t>
+  </si>
+  <si>
+    <t>(1000000 trong 1746000)</t>
   </si>
 </sst>
 </file>
@@ -2924,7 +2933,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -3804,10 +3813,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4417,11 +4426,17 @@
       <c r="A31" s="22">
         <v>30</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
+      <c r="B31" s="23">
+        <v>43025</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>168</v>
+      </c>
       <c r="D31" s="24"/>
       <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
+      <c r="F31" s="25">
+        <v>6880000</v>
+      </c>
       <c r="G31" s="25"/>
       <c r="H31" s="24"/>
     </row>
@@ -4429,11 +4444,17 @@
       <c r="A32" s="22">
         <v>31</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="24"/>
+      <c r="B32" s="23">
+        <v>43025</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>106</v>
+      </c>
       <c r="D32" s="24"/>
       <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+      <c r="F32" s="25">
+        <v>20000</v>
+      </c>
       <c r="G32" s="25"/>
       <c r="H32" s="24"/>
     </row>
@@ -4441,13 +4462,21 @@
       <c r="A33" s="22">
         <v>32</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="24"/>
+      <c r="B33" s="23">
+        <v>43025</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>169</v>
+      </c>
       <c r="D33" s="24"/>
       <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
+      <c r="F33" s="25">
+        <v>1000000</v>
+      </c>
       <c r="G33" s="25"/>
-      <c r="H33" s="24"/>
+      <c r="H33" s="24" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
@@ -4462,7 +4491,9 @@
       <c r="H34" s="24"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
+      <c r="A35" s="22">
+        <v>34</v>
+      </c>
       <c r="B35" s="23"/>
       <c r="C35" s="24"/>
       <c r="D35" s="24"/>
@@ -4472,7 +4503,9 @@
       <c r="H35" s="24"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
+      <c r="A36" s="22">
+        <v>35</v>
+      </c>
       <c r="B36" s="23"/>
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
@@ -4482,7 +4515,9 @@
       <c r="H36" s="24"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
+      <c r="A37" s="22">
+        <v>36</v>
+      </c>
       <c r="B37" s="23"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
@@ -4492,7 +4527,9 @@
       <c r="H37" s="24"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
+      <c r="A38" s="22">
+        <v>37</v>
+      </c>
       <c r="B38" s="23"/>
       <c r="C38" s="24"/>
       <c r="D38" s="24"/>
@@ -4502,7 +4539,9 @@
       <c r="H38" s="24"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
+      <c r="A39" s="22">
+        <v>38</v>
+      </c>
       <c r="B39" s="23"/>
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
@@ -4511,8 +4550,10 @@
       <c r="G39" s="25"/>
       <c r="H39" s="24"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="22"/>
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="22">
+        <v>39</v>
+      </c>
       <c r="B40" s="23"/>
       <c r="C40" s="24"/>
       <c r="D40" s="24"/>
@@ -4521,46 +4562,118 @@
       <c r="G40" s="25"/>
       <c r="H40" s="24"/>
     </row>
-    <row r="41" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="36" t="s">
+    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="22">
+        <v>40</v>
+      </c>
+      <c r="B41" s="23"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="24"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="22"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="24"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="22"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="24"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="22"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="24"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="22"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="24"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="22"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="24"/>
+    </row>
+    <row r="47" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="22"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="24"/>
+    </row>
+    <row r="48" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="27">
+      <c r="B48" s="37"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="27">
         <f>SUM(D2:D12)</f>
         <v>66898500</v>
       </c>
-      <c r="E41" s="27">
-        <f>SUM(E2:E40)</f>
+      <c r="E48" s="27">
+        <f>SUM(E2:E47)</f>
         <v>24360000</v>
       </c>
-      <c r="F41" s="27">
-        <f>SUM(F2:F40)</f>
-        <v>5010000</v>
-      </c>
-      <c r="G41" s="28">
-        <f>D41+E41-F41</f>
-        <v>86248500</v>
-      </c>
-      <c r="H41" s="26"/>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="33"/>
+      <c r="F48" s="27">
+        <f>SUM(F2:F47)</f>
+        <v>12910000</v>
+      </c>
+      <c r="G48" s="28">
+        <f>D48+E48-F48</f>
+        <v>78348500</v>
+      </c>
+      <c r="H48" s="26"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="32"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A48:C48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="174">
   <si>
     <t>STT</t>
   </si>
@@ -546,6 +546,15 @@
   </si>
   <si>
     <t>(1000000 trong 1746000)</t>
+  </si>
+  <si>
+    <t>Photo Test 4 - part 5</t>
+  </si>
+  <si>
+    <t>TOEIC A K6</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Ân</t>
   </si>
 </sst>
 </file>
@@ -3815,8 +3824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4482,25 +4491,41 @@
       <c r="A34" s="22">
         <v>33</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
+      <c r="B34" s="23">
+        <v>43025</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>171</v>
+      </c>
       <c r="D34" s="24"/>
       <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
+      <c r="F34" s="25">
+        <v>8000</v>
+      </c>
       <c r="G34" s="25"/>
-      <c r="H34" s="24"/>
+      <c r="H34" s="24" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
         <v>34</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
+      <c r="B35" s="23">
+        <v>43025</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="D35" s="24"/>
-      <c r="E35" s="25"/>
+      <c r="E35" s="25">
+        <v>1920000</v>
+      </c>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
-      <c r="H35" s="24"/>
+      <c r="H35" s="24" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
@@ -4646,15 +4671,15 @@
       </c>
       <c r="E48" s="27">
         <f>SUM(E2:E47)</f>
-        <v>24360000</v>
+        <v>26280000</v>
       </c>
       <c r="F48" s="27">
         <f>SUM(F2:F47)</f>
-        <v>12910000</v>
+        <v>12918000</v>
       </c>
       <c r="G48" s="28">
         <f>D48+E48-F48</f>
-        <v>78348500</v>
+        <v>80260500</v>
       </c>
       <c r="H48" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="177">
   <si>
     <t>STT</t>
   </si>
@@ -542,12 +542,6 @@
     <t>Tiền vật tư sửa chữa trung tâm</t>
   </si>
   <si>
-    <t>Tiền photo sách (trả trước)</t>
-  </si>
-  <si>
-    <t>(1000000 trong 1746000)</t>
-  </si>
-  <si>
     <t>Photo Test 4 - part 5</t>
   </si>
   <si>
@@ -555,6 +549,21 @@
   </si>
   <si>
     <t>Nguyễn Văn Ân</t>
+  </si>
+  <si>
+    <t>(1000000 trong 1850000)</t>
+  </si>
+  <si>
+    <t>(850000 trong 1850000)</t>
+  </si>
+  <si>
+    <t>Phan Nguyễn Tường Vi</t>
+  </si>
+  <si>
+    <t>Tiền photo sách AK7 BK5 (trả trước)</t>
+  </si>
+  <si>
+    <t>Tiền photo sách AK7 BK5</t>
   </si>
 </sst>
 </file>
@@ -3824,8 +3833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4475,7 +4484,7 @@
         <v>43025</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D33" s="24"/>
       <c r="E33" s="25"/>
@@ -4484,7 +4493,7 @@
       </c>
       <c r="G33" s="25"/>
       <c r="H33" s="24" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4495,7 +4504,7 @@
         <v>43025</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D34" s="24"/>
       <c r="E34" s="25"/>
@@ -4504,7 +4513,7 @@
       </c>
       <c r="G34" s="25"/>
       <c r="H34" s="24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4524,32 +4533,48 @@
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
       <c r="H35" s="24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
         <v>35</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="24"/>
+      <c r="B36" s="23">
+        <v>43026</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>176</v>
+      </c>
       <c r="D36" s="24"/>
       <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
+      <c r="F36" s="25">
+        <v>850000</v>
+      </c>
       <c r="G36" s="25"/>
-      <c r="H36" s="24"/>
+      <c r="H36" s="24" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
         <v>36</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="24"/>
+      <c r="B37" s="23">
+        <v>43026</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>118</v>
+      </c>
       <c r="D37" s="24"/>
-      <c r="E37" s="25"/>
+      <c r="E37" s="25">
+        <v>1680000</v>
+      </c>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
-      <c r="H37" s="24"/>
+      <c r="H37" s="24" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="22">
@@ -4671,15 +4696,15 @@
       </c>
       <c r="E48" s="27">
         <f>SUM(E2:E47)</f>
-        <v>26280000</v>
+        <v>27960000</v>
       </c>
       <c r="F48" s="27">
         <f>SUM(F2:F47)</f>
-        <v>12918000</v>
+        <v>13768000</v>
       </c>
       <c r="G48" s="28">
         <f>D48+E48-F48</f>
-        <v>80260500</v>
+        <v>81090500</v>
       </c>
       <c r="H48" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="178">
   <si>
     <t>STT</t>
   </si>
@@ -564,6 +564,9 @@
   </si>
   <si>
     <t>Tiền photo sách AK7 BK5</t>
+  </si>
+  <si>
+    <t>Tiền quảng cáo fb</t>
   </si>
 </sst>
 </file>
@@ -1925,7 +1928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -2951,7 +2954,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -3833,8 +3836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4580,11 +4583,17 @@
       <c r="A38" s="22">
         <v>37</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="24"/>
+      <c r="B38" s="23">
+        <v>43027</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>177</v>
+      </c>
       <c r="D38" s="24"/>
       <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
+      <c r="F38" s="25">
+        <v>2352510</v>
+      </c>
       <c r="G38" s="25"/>
       <c r="H38" s="24"/>
     </row>
@@ -4592,7 +4601,9 @@
       <c r="A39" s="22">
         <v>38</v>
       </c>
-      <c r="B39" s="23"/>
+      <c r="B39" s="23">
+        <v>43027</v>
+      </c>
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
       <c r="E39" s="25"/>
@@ -4700,11 +4711,11 @@
       </c>
       <c r="F48" s="27">
         <f>SUM(F2:F47)</f>
-        <v>13768000</v>
+        <v>16120510</v>
       </c>
       <c r="G48" s="28">
         <f>D48+E48-F48</f>
-        <v>81090500</v>
+        <v>78737990</v>
       </c>
       <c r="H48" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="179">
   <si>
     <t>STT</t>
   </si>
@@ -567,6 +567,9 @@
   </si>
   <si>
     <t>Tiền quảng cáo fb</t>
+  </si>
+  <si>
+    <t>Tiền photo thêm sách</t>
   </si>
 </sst>
 </file>
@@ -3834,10 +3837,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4448,7 +4451,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="23">
-        <v>43025</v>
+        <v>43024</v>
       </c>
       <c r="C31" s="24" t="s">
         <v>168</v>
@@ -4456,7 +4459,7 @@
       <c r="D31" s="24"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25">
-        <v>6880000</v>
+        <v>1147000</v>
       </c>
       <c r="G31" s="25"/>
       <c r="H31" s="24"/>
@@ -4469,12 +4472,12 @@
         <v>43025</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="D32" s="24"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25">
-        <v>20000</v>
+        <v>6880000</v>
       </c>
       <c r="G32" s="25"/>
       <c r="H32" s="24"/>
@@ -4487,17 +4490,15 @@
         <v>43025</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>175</v>
+        <v>106</v>
       </c>
       <c r="D33" s="24"/>
       <c r="E33" s="25"/>
       <c r="F33" s="25">
-        <v>1000000</v>
+        <v>20000</v>
       </c>
       <c r="G33" s="25"/>
-      <c r="H33" s="24" t="s">
-        <v>172</v>
-      </c>
+      <c r="H33" s="24"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
@@ -4507,16 +4508,16 @@
         <v>43025</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D34" s="24"/>
       <c r="E34" s="25"/>
       <c r="F34" s="25">
-        <v>8000</v>
+        <v>1000000</v>
       </c>
       <c r="G34" s="25"/>
       <c r="H34" s="24" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4526,17 +4527,17 @@
       <c r="B35" s="23">
         <v>43025</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>107</v>
+      <c r="C35" s="24" t="s">
+        <v>169</v>
       </c>
       <c r="D35" s="24"/>
-      <c r="E35" s="25">
-        <v>1920000</v>
-      </c>
-      <c r="F35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25">
+        <v>8000</v>
+      </c>
       <c r="G35" s="25"/>
       <c r="H35" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4544,19 +4545,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="23">
-        <v>43026</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>176</v>
+        <v>43025</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>107</v>
       </c>
       <c r="D36" s="24"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25">
-        <v>850000</v>
-      </c>
+      <c r="E36" s="25">
+        <v>1920000</v>
+      </c>
+      <c r="F36" s="25"/>
       <c r="G36" s="25"/>
       <c r="H36" s="24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4567,16 +4568,16 @@
         <v>43026</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="D37" s="24"/>
-      <c r="E37" s="25">
-        <v>1680000</v>
-      </c>
-      <c r="F37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25">
+        <v>850000</v>
+      </c>
       <c r="G37" s="25"/>
       <c r="H37" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4584,18 +4585,20 @@
         <v>37</v>
       </c>
       <c r="B38" s="23">
-        <v>43027</v>
+        <v>43026</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="D38" s="24"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25">
-        <v>2352510</v>
-      </c>
+      <c r="E38" s="25">
+        <v>1680000</v>
+      </c>
+      <c r="F38" s="25"/>
       <c r="G38" s="25"/>
-      <c r="H38" s="24"/>
+      <c r="H38" s="24" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
@@ -4604,10 +4607,14 @@
       <c r="B39" s="23">
         <v>43027</v>
       </c>
-      <c r="C39" s="24"/>
+      <c r="C39" s="24" t="s">
+        <v>177</v>
+      </c>
       <c r="D39" s="24"/>
       <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
+      <c r="F39" s="25">
+        <v>2352510</v>
+      </c>
       <c r="G39" s="25"/>
       <c r="H39" s="24"/>
     </row>
@@ -4615,11 +4622,17 @@
       <c r="A40" s="22">
         <v>39</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="24"/>
+      <c r="B40" s="23">
+        <v>43027</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>178</v>
+      </c>
       <c r="D40" s="24"/>
       <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
+      <c r="F40" s="25">
+        <v>132000</v>
+      </c>
       <c r="G40" s="25"/>
       <c r="H40" s="24"/>
     </row>
@@ -4636,7 +4649,9 @@
       <c r="H41" s="24"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
+      <c r="A42" s="22">
+        <v>41</v>
+      </c>
       <c r="B42" s="23"/>
       <c r="C42" s="24"/>
       <c r="D42" s="24"/>
@@ -4646,7 +4661,9 @@
       <c r="H42" s="24"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
+      <c r="A43" s="22">
+        <v>42</v>
+      </c>
       <c r="B43" s="23"/>
       <c r="C43" s="24"/>
       <c r="D43" s="24"/>
@@ -4656,7 +4673,9 @@
       <c r="H43" s="24"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
+      <c r="A44" s="22">
+        <v>43</v>
+      </c>
       <c r="B44" s="23"/>
       <c r="C44" s="24"/>
       <c r="D44" s="24"/>
@@ -4685,7 +4704,7 @@
       <c r="G46" s="25"/>
       <c r="H46" s="24"/>
     </row>
-    <row r="47" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
       <c r="B47" s="23"/>
       <c r="C47" s="24"/>
@@ -4696,45 +4715,55 @@
       <c r="H47" s="24"/>
     </row>
     <row r="48" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="36" t="s">
+      <c r="A48" s="22"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="24"/>
+    </row>
+    <row r="49" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="37"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="27">
+      <c r="B49" s="37"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="27">
         <f>SUM(D2:D12)</f>
         <v>66898500</v>
       </c>
-      <c r="E48" s="27">
-        <f>SUM(E2:E47)</f>
+      <c r="E49" s="27">
+        <f>SUM(E2:E48)</f>
         <v>27960000</v>
       </c>
-      <c r="F48" s="27">
-        <f>SUM(F2:F47)</f>
-        <v>16120510</v>
-      </c>
-      <c r="G48" s="28">
-        <f>D48+E48-F48</f>
-        <v>78737990</v>
-      </c>
-      <c r="H48" s="26"/>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="32"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="33"/>
+      <c r="F49" s="27">
+        <f>SUM(F2:F48)</f>
+        <v>17399510</v>
+      </c>
+      <c r="G49" s="28">
+        <f>D49+E49-F49</f>
+        <v>77458990</v>
+      </c>
+      <c r="H49" s="26"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="32"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="180">
   <si>
     <t>STT</t>
   </si>
@@ -570,6 +570,9 @@
   </si>
   <si>
     <t>Tiền photo thêm sách</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Toàn</t>
   </si>
 </sst>
 </file>
@@ -3840,7 +3843,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4640,13 +4643,21 @@
       <c r="A41" s="22">
         <v>40</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="24"/>
+      <c r="B41" s="23">
+        <v>43027</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>118</v>
+      </c>
       <c r="D41" s="24"/>
-      <c r="E41" s="25"/>
+      <c r="E41" s="25">
+        <v>1680000</v>
+      </c>
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
-      <c r="H41" s="24"/>
+      <c r="H41" s="24" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="22">
@@ -4736,7 +4747,7 @@
       </c>
       <c r="E49" s="27">
         <f>SUM(E2:E48)</f>
-        <v>27960000</v>
+        <v>29640000</v>
       </c>
       <c r="F49" s="27">
         <f>SUM(F2:F48)</f>
@@ -4744,7 +4755,7 @@
       </c>
       <c r="G49" s="28">
         <f>D49+E49-F49</f>
-        <v>77458990</v>
+        <v>79138990</v>
       </c>
       <c r="H49" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="181">
   <si>
     <t>STT</t>
   </si>
@@ -573,6 +573,9 @@
   </si>
   <si>
     <t>Nguyễn Hữu Toàn</t>
+  </si>
+  <si>
+    <t>Sách 600…TOEIC</t>
   </si>
 </sst>
 </file>
@@ -3843,7 +3846,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4663,11 +4666,17 @@
       <c r="A42" s="22">
         <v>41</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="24"/>
+      <c r="B42" s="23">
+        <v>43028</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>180</v>
+      </c>
       <c r="D42" s="24"/>
       <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
+      <c r="F42" s="25">
+        <v>284000</v>
+      </c>
       <c r="G42" s="25"/>
       <c r="H42" s="24"/>
     </row>
@@ -4751,11 +4760,11 @@
       </c>
       <c r="F49" s="27">
         <f>SUM(F2:F48)</f>
-        <v>17399510</v>
+        <v>17683510</v>
       </c>
       <c r="G49" s="28">
         <f>D49+E49-F49</f>
-        <v>79138990</v>
+        <v>78854990</v>
       </c>
       <c r="H49" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="182">
   <si>
     <t>STT</t>
   </si>
@@ -576,6 +576,9 @@
   </si>
   <si>
     <t>Sách 600…TOEIC</t>
+  </si>
+  <si>
+    <t>Sách Longman 5th</t>
   </si>
 </sst>
 </file>
@@ -3845,8 +3848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4684,11 +4687,17 @@
       <c r="A43" s="22">
         <v>42</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="24"/>
+      <c r="B43" s="23">
+        <v>43032</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>181</v>
+      </c>
       <c r="D43" s="24"/>
       <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
+      <c r="F43" s="25">
+        <v>345000</v>
+      </c>
       <c r="G43" s="25"/>
       <c r="H43" s="24"/>
     </row>
@@ -4760,11 +4769,11 @@
       </c>
       <c r="F49" s="27">
         <f>SUM(F2:F48)</f>
-        <v>17683510</v>
+        <v>18028510</v>
       </c>
       <c r="G49" s="28">
         <f>D49+E49-F49</f>
-        <v>78854990</v>
+        <v>78509990</v>
       </c>
       <c r="H49" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="182">
   <si>
     <t>STT</t>
   </si>
@@ -3849,7 +3849,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4705,11 +4705,17 @@
       <c r="A44" s="22">
         <v>43</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="24"/>
+      <c r="B44" s="23">
+        <v>43033</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>178</v>
+      </c>
       <c r="D44" s="24"/>
       <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
+      <c r="F44" s="25">
+        <v>129000</v>
+      </c>
       <c r="G44" s="25"/>
       <c r="H44" s="24"/>
     </row>
@@ -4769,11 +4775,11 @@
       </c>
       <c r="F49" s="27">
         <f>SUM(F2:F48)</f>
-        <v>18028510</v>
+        <v>18157510</v>
       </c>
       <c r="G49" s="28">
         <f>D49+E49-F49</f>
-        <v>78509990</v>
+        <v>78380990</v>
       </c>
       <c r="H49" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="183">
   <si>
     <t>STT</t>
   </si>
@@ -579,6 +579,9 @@
   </si>
   <si>
     <t>Sách Longman 5th</t>
+  </si>
+  <si>
+    <t>Photo ETS 2015  Test 5 - Part 5,6</t>
   </si>
 </sst>
 </file>
@@ -3848,8 +3851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4720,14 +4723,24 @@
       <c r="H44" s="24"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
+      <c r="A45" s="22">
+        <v>44</v>
+      </c>
+      <c r="B45" s="23">
+        <v>43034</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>182</v>
+      </c>
       <c r="D45" s="24"/>
       <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
+      <c r="F45" s="25">
+        <v>15000</v>
+      </c>
       <c r="G45" s="25"/>
-      <c r="H45" s="24"/>
+      <c r="H45" s="24" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="22"/>
@@ -4775,11 +4788,11 @@
       </c>
       <c r="F49" s="27">
         <f>SUM(F2:F48)</f>
-        <v>18157510</v>
+        <v>18172510</v>
       </c>
       <c r="G49" s="28">
         <f>D49+E49-F49</f>
-        <v>78380990</v>
+        <v>78365990</v>
       </c>
       <c r="H49" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="186">
   <si>
     <t>STT</t>
   </si>
@@ -582,6 +582,15 @@
   </si>
   <si>
     <t>Photo ETS 2015  Test 5 - Part 5,6</t>
+  </si>
+  <si>
+    <t>Photo ETS 2016 Test 2 - Part 5,6</t>
+  </si>
+  <si>
+    <t>Trần Việt Bắc</t>
+  </si>
+  <si>
+    <t>TOEIC B K4</t>
   </si>
 </sst>
 </file>
@@ -1943,7 +1952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -2969,8 +2978,8 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3849,10 +3858,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4743,26 +4752,46 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="24"/>
+      <c r="A46" s="22">
+        <v>45</v>
+      </c>
+      <c r="B46" s="23">
+        <v>43035</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>183</v>
+      </c>
       <c r="D46" s="24"/>
       <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
+      <c r="F46" s="25">
+        <v>10000</v>
+      </c>
       <c r="G46" s="25"/>
-      <c r="H46" s="24"/>
+      <c r="H46" s="24" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="24"/>
+      <c r="A47" s="22">
+        <v>46</v>
+      </c>
+      <c r="B47" s="23">
+        <v>43035</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>118</v>
+      </c>
       <c r="D47" s="24"/>
-      <c r="E47" s="25"/>
+      <c r="E47" s="25">
+        <v>1680000</v>
+      </c>
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
-      <c r="H47" s="24"/>
-    </row>
-    <row r="48" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H47" s="24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
       <c r="B48" s="23"/>
       <c r="C48" s="24"/>
@@ -4772,46 +4801,66 @@
       <c r="G48" s="25"/>
       <c r="H48" s="24"/>
     </row>
-    <row r="49" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="36" t="s">
+    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="22"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="24"/>
+    </row>
+    <row r="50" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="22"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="24"/>
+    </row>
+    <row r="51" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="37"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="27">
+      <c r="B51" s="37"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="27">
         <f>SUM(D2:D12)</f>
         <v>66898500</v>
       </c>
-      <c r="E49" s="27">
-        <f>SUM(E2:E48)</f>
-        <v>29640000</v>
-      </c>
-      <c r="F49" s="27">
-        <f>SUM(F2:F48)</f>
-        <v>18172510</v>
-      </c>
-      <c r="G49" s="28">
-        <f>D49+E49-F49</f>
-        <v>78365990</v>
-      </c>
-      <c r="H49" s="26"/>
-    </row>
-    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="32"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="33"/>
+      <c r="E51" s="27">
+        <f>SUM(E2:E50)</f>
+        <v>31320000</v>
+      </c>
+      <c r="F51" s="27">
+        <f>SUM(F2:F50)</f>
+        <v>18182510</v>
+      </c>
+      <c r="G51" s="28">
+        <f>D51+E51-F51</f>
+        <v>80035990</v>
+      </c>
+      <c r="H51" s="26"/>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="32"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A51:C51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="187">
   <si>
     <t>STT</t>
   </si>
@@ -591,6 +591,9 @@
   </si>
   <si>
     <t>TOEIC B K4</t>
+  </si>
+  <si>
+    <t>Tiền scan sách</t>
   </si>
 </sst>
 </file>
@@ -1310,7 +1313,7 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1952,7 +1955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -2979,7 +2982,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3860,8 +3863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4792,12 +4795,20 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="24"/>
+      <c r="A48" s="22">
+        <v>47</v>
+      </c>
+      <c r="B48" s="23">
+        <v>43038</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>186</v>
+      </c>
       <c r="D48" s="24"/>
       <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
+      <c r="F48" s="25">
+        <v>150000</v>
+      </c>
       <c r="G48" s="25"/>
       <c r="H48" s="24"/>
     </row>
@@ -4837,11 +4848,11 @@
       </c>
       <c r="F51" s="27">
         <f>SUM(F2:F50)</f>
-        <v>18182510</v>
+        <v>18332510</v>
       </c>
       <c r="G51" s="28">
         <f>D51+E51-F51</f>
-        <v>80035990</v>
+        <v>79885990</v>
       </c>
       <c r="H51" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="188">
   <si>
     <t>STT</t>
   </si>
@@ -594,6 +594,9 @@
   </si>
   <si>
     <t>Tiền scan sách</t>
+  </si>
+  <si>
+    <t>Tiền nộp tài khoàn ngân hàng</t>
   </si>
 </sst>
 </file>
@@ -3861,10 +3864,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4813,16 +4816,24 @@
       <c r="H48" s="24"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="24"/>
+      <c r="A49" s="22">
+        <v>48</v>
+      </c>
+      <c r="B49" s="23">
+        <v>43038</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>187</v>
+      </c>
       <c r="D49" s="24"/>
       <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
+      <c r="F49" s="25">
+        <v>7000000</v>
+      </c>
       <c r="G49" s="25"/>
       <c r="H49" s="24"/>
     </row>
-    <row r="50" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="22"/>
       <c r="B50" s="23"/>
       <c r="C50" s="24"/>
@@ -4833,45 +4844,55 @@
       <c r="H50" s="24"/>
     </row>
     <row r="51" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="36" t="s">
+      <c r="A51" s="22"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="24"/>
+    </row>
+    <row r="52" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="37"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="27">
+      <c r="B52" s="37"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="27">
         <f>SUM(D2:D12)</f>
         <v>66898500</v>
       </c>
-      <c r="E51" s="27">
-        <f>SUM(E2:E50)</f>
+      <c r="E52" s="27">
+        <f>SUM(E2:E51)</f>
         <v>31320000</v>
       </c>
-      <c r="F51" s="27">
-        <f>SUM(F2:F50)</f>
-        <v>18332510</v>
-      </c>
-      <c r="G51" s="28">
-        <f>D51+E51-F51</f>
-        <v>79885990</v>
-      </c>
-      <c r="H51" s="26"/>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="32"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="33"/>
+      <c r="F52" s="27">
+        <f>SUM(F2:F51)</f>
+        <v>25332510</v>
+      </c>
+      <c r="G52" s="28">
+        <f>D52+E52-F52</f>
+        <v>72885990</v>
+      </c>
+      <c r="H52" s="26"/>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="32"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="189">
   <si>
     <t>STT</t>
   </si>
@@ -597,6 +597,9 @@
   </si>
   <si>
     <t>Tiền nộp tài khoàn ngân hàng</t>
+  </si>
+  <si>
+    <t>2/6 tháng</t>
   </si>
 </sst>
 </file>
@@ -3864,10 +3867,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4834,16 +4837,26 @@
       <c r="H49" s="24"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="24"/>
+      <c r="A50" s="22">
+        <v>49</v>
+      </c>
+      <c r="B50" s="23">
+        <v>43039</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>142</v>
+      </c>
       <c r="D50" s="24"/>
       <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
+      <c r="F50" s="25">
+        <v>1231000</v>
+      </c>
       <c r="G50" s="25"/>
-      <c r="H50" s="24"/>
-    </row>
-    <row r="51" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H50" s="24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="22"/>
       <c r="B51" s="23"/>
       <c r="C51" s="24"/>
@@ -4854,45 +4867,55 @@
       <c r="H51" s="24"/>
     </row>
     <row r="52" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="36" t="s">
+      <c r="A52" s="22"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="24"/>
+    </row>
+    <row r="53" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="37"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="27">
+      <c r="B53" s="37"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="27">
         <f>SUM(D2:D12)</f>
         <v>66898500</v>
       </c>
-      <c r="E52" s="27">
-        <f>SUM(E2:E51)</f>
+      <c r="E53" s="27">
+        <f>SUM(E2:E52)</f>
         <v>31320000</v>
       </c>
-      <c r="F52" s="27">
-        <f>SUM(F2:F51)</f>
-        <v>25332510</v>
-      </c>
-      <c r="G52" s="28">
-        <f>D52+E52-F52</f>
-        <v>72885990</v>
-      </c>
-      <c r="H52" s="26"/>
-    </row>
-    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="32"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="33"/>
+      <c r="F53" s="27">
+        <f>SUM(F2:F52)</f>
+        <v>26563510</v>
+      </c>
+      <c r="G53" s="28">
+        <f>D53+E53-F53</f>
+        <v>71654990</v>
+      </c>
+      <c r="H53" s="26"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="32"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -17,10 +17,11 @@
     <sheet name="Thang 8" sheetId="9" r:id="rId3"/>
     <sheet name="Thang 9" sheetId="11" r:id="rId4"/>
     <sheet name="Thang 10" sheetId="12" r:id="rId5"/>
+    <sheet name="Thang 11" sheetId="13" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Thang 8'!$A$1:$H$48</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Thang 9'!$A$1:$H$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Thang 9'!$A$1:$H$41</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="189">
   <si>
     <t>STT</t>
   </si>
@@ -1961,7 +1962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -2984,11 +2985,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3737,7 +3738,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="22"/>
       <c r="B39" s="23"/>
       <c r="C39" s="24"/>
@@ -3749,43 +3750,41 @@
     </row>
     <row r="40" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="22"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="24"/>
-    </row>
-    <row r="41" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="27">
+      <c r="B40" s="30"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="27">
         <f>SUM(D2:D19)</f>
         <v>47971500</v>
       </c>
-      <c r="E41" s="27">
-        <f>SUM(E2:E40)</f>
+      <c r="E40" s="27">
+        <f>SUM(E2:E39)</f>
         <v>23220000</v>
       </c>
-      <c r="F41" s="27">
-        <f>SUM(F2:F40)</f>
+      <c r="F40" s="27">
+        <f>SUM(F2:F39)</f>
         <v>4293000</v>
       </c>
-      <c r="G41" s="28">
-        <f>D41+E41-F41</f>
+      <c r="G40" s="28">
+        <f>D40+E40-F40</f>
         <v>66898500</v>
       </c>
-      <c r="H41" s="26"/>
-    </row>
-    <row r="42" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="29" t="s">
+      <c r="H40" s="26"/>
+    </row>
+    <row r="41" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="29" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="42" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="1"/>
+    </row>
     <row r="45" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -3850,16 +3849,8 @@
       <c r="G52" s="2"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="3:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H42"/>
+  <autoFilter ref="A1:H41"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3867,10 +3858,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3921,7 +3912,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="19">
-        <f>'Thang 9'!G41</f>
+        <f>'Thang 9'!G40</f>
         <v>66898500</v>
       </c>
       <c r="E2" s="19"/>
@@ -4856,7 +4847,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="22"/>
       <c r="B51" s="23"/>
       <c r="C51" s="24"/>
@@ -4867,57 +4858,298 @@
       <c r="H51" s="24"/>
     </row>
     <row r="52" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="22"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="24"/>
-    </row>
-    <row r="53" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="36" t="s">
+      <c r="A52" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="37"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="27">
+      <c r="B52" s="37"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="27">
         <f>SUM(D2:D12)</f>
         <v>66898500</v>
       </c>
-      <c r="E53" s="27">
-        <f>SUM(E2:E52)</f>
+      <c r="E52" s="27">
+        <f>SUM(E2:E51)</f>
         <v>31320000</v>
       </c>
-      <c r="F53" s="27">
-        <f>SUM(F2:F52)</f>
+      <c r="F52" s="27">
+        <f>SUM(F2:F51)</f>
         <v>26563510</v>
       </c>
-      <c r="G53" s="28">
-        <f>D53+E53-F53</f>
+      <c r="G52" s="28">
+        <f>D52+E52-F52</f>
         <v>71654990</v>
       </c>
-      <c r="H53" s="26"/>
-    </row>
-    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="32"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="33"/>
+      <c r="H52" s="26"/>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="32"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A52:C52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="37.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17">
+        <v>43040</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="19">
+        <f>'Thang 10'!G52</f>
+        <v>71654990</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19">
+        <f>D2+E2-F2</f>
+        <v>71654990</v>
+      </c>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>12</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="24"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="27">
+        <f>SUM(D2:D12)</f>
+        <v>71654990</v>
+      </c>
+      <c r="E16" s="27">
+        <f>SUM(E2:E15)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="27">
+        <f>SUM(F2:F15)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="28">
+        <f>D16+E16-F16</f>
+        <v>71654990</v>
+      </c>
+      <c r="H16" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A16:C16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="191">
   <si>
     <t>STT</t>
   </si>
@@ -552,12 +552,6 @@
     <t>Nguyễn Văn Ân</t>
   </si>
   <si>
-    <t>(1000000 trong 1850000)</t>
-  </si>
-  <si>
-    <t>(850000 trong 1850000)</t>
-  </si>
-  <si>
     <t>Phan Nguyễn Tường Vi</t>
   </si>
   <si>
@@ -601,6 +595,18 @@
   </si>
   <si>
     <t>2/6 tháng</t>
+  </si>
+  <si>
+    <t>Photo Test 3 Part 5-6</t>
+  </si>
+  <si>
+    <t>Quỹ còn: 1431000 VNĐ</t>
+  </si>
+  <si>
+    <t>(1,000,000 trong 1,850,000)</t>
+  </si>
+  <si>
+    <t>(850,000 trong 1,850,000)</t>
   </si>
 </sst>
 </file>
@@ -611,7 +617,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,6 +666,13 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -813,7 +826,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -895,6 +908,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent5" xfId="2" builtinId="45"/>
@@ -3860,8 +3874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4529,7 +4543,7 @@
         <v>43025</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D34" s="24"/>
       <c r="E34" s="25"/>
@@ -4538,7 +4552,7 @@
       </c>
       <c r="G34" s="25"/>
       <c r="H34" s="24" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4589,7 +4603,7 @@
         <v>43026</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="25"/>
@@ -4598,7 +4612,7 @@
       </c>
       <c r="G37" s="25"/>
       <c r="H37" s="24" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4618,7 +4632,7 @@
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
       <c r="H38" s="24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4629,7 +4643,7 @@
         <v>43027</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D39" s="24"/>
       <c r="E39" s="25"/>
@@ -4647,7 +4661,7 @@
         <v>43027</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D40" s="24"/>
       <c r="E40" s="25"/>
@@ -4674,7 +4688,7 @@
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
       <c r="H41" s="24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4685,7 +4699,7 @@
         <v>43028</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D42" s="24"/>
       <c r="E42" s="25"/>
@@ -4703,7 +4717,7 @@
         <v>43032</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D43" s="24"/>
       <c r="E43" s="25"/>
@@ -4711,7 +4725,7 @@
         <v>345000</v>
       </c>
       <c r="G43" s="25"/>
-      <c r="H43" s="24"/>
+      <c r="H43" s="39"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="22">
@@ -4721,7 +4735,7 @@
         <v>43033</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D44" s="24"/>
       <c r="E44" s="25"/>
@@ -4739,7 +4753,7 @@
         <v>43034</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D45" s="24"/>
       <c r="E45" s="25"/>
@@ -4759,7 +4773,7 @@
         <v>43035</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D46" s="24"/>
       <c r="E46" s="25"/>
@@ -4768,7 +4782,7 @@
       </c>
       <c r="G46" s="25"/>
       <c r="H46" s="24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4788,7 +4802,7 @@
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
       <c r="H47" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4799,7 +4813,7 @@
         <v>43038</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D48" s="24"/>
       <c r="E48" s="25"/>
@@ -4807,7 +4821,7 @@
         <v>150000</v>
       </c>
       <c r="G48" s="25"/>
-      <c r="H48" s="24"/>
+      <c r="H48" s="39"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
@@ -4817,7 +4831,7 @@
         <v>43038</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D49" s="24"/>
       <c r="E49" s="25"/>
@@ -4844,7 +4858,7 @@
       </c>
       <c r="G50" s="25"/>
       <c r="H50" s="24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4879,7 +4893,9 @@
         <f>D52+E52-F52</f>
         <v>71654990</v>
       </c>
-      <c r="H52" s="26"/>
+      <c r="H52" s="26" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="32"/>
@@ -4908,7 +4924,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4975,13 +4991,21 @@
       <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
+      <c r="B3" s="12">
+        <v>43040</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>187</v>
+      </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
-      <c r="F3" s="14"/>
+      <c r="F3" s="14">
+        <v>6000</v>
+      </c>
       <c r="G3" s="19"/>
-      <c r="H3" s="18"/>
+      <c r="H3" s="18" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
@@ -5138,11 +5162,11 @@
       </c>
       <c r="F16" s="27">
         <f>SUM(F2:F15)</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G16" s="28">
         <f>D16+E16-F16</f>
-        <v>71654990</v>
+        <v>71648990</v>
       </c>
       <c r="H16" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Chi phi tong" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="193">
   <si>
     <t>STT</t>
   </si>
@@ -607,6 +607,12 @@
   </si>
   <si>
     <t>(850,000 trong 1,850,000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiền wifi </t>
+  </si>
+  <si>
+    <t>Photo Test 5 Part 3</t>
   </si>
 </sst>
 </file>
@@ -899,6 +905,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -908,7 +915,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent5" xfId="2" builtinId="45"/>
@@ -2952,11 +2958,11 @@
       <c r="H46" s="24"/>
     </row>
     <row r="47" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="36" t="s">
+      <c r="A47" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="39"/>
       <c r="D47" s="27">
         <f>SUM(D2:D45)</f>
         <v>22096000</v>
@@ -3874,7 +3880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="B34" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
@@ -4725,7 +4731,7 @@
         <v>345000</v>
       </c>
       <c r="G43" s="25"/>
-      <c r="H43" s="39"/>
+      <c r="H43" s="36"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="22">
@@ -4821,7 +4827,7 @@
         <v>150000</v>
       </c>
       <c r="G48" s="25"/>
-      <c r="H48" s="39"/>
+      <c r="H48" s="36"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
@@ -4872,11 +4878,11 @@
       <c r="H51" s="24"/>
     </row>
     <row r="52" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="36" t="s">
+      <c r="A52" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="37"/>
-      <c r="C52" s="38"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="39"/>
       <c r="D52" s="27">
         <f>SUM(D2:D12)</f>
         <v>66898500</v>
@@ -4923,8 +4929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5011,11 +5017,17 @@
       <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="12">
+        <v>43041</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>191</v>
+      </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="F4" s="14">
+        <v>248000</v>
+      </c>
       <c r="G4" s="14"/>
       <c r="H4" s="13"/>
     </row>
@@ -5023,13 +5035,21 @@
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
+      <c r="B5" s="12">
+        <v>43041</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>192</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="F5" s="14">
+        <v>10000</v>
+      </c>
       <c r="G5" s="14"/>
-      <c r="H5" s="13"/>
+      <c r="H5" s="13" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
@@ -5147,11 +5167,11 @@
       <c r="H15" s="24"/>
     </row>
     <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="27">
         <f>SUM(D2:D12)</f>
         <v>71654990</v>
@@ -5162,11 +5182,11 @@
       </c>
       <c r="F16" s="27">
         <f>SUM(F2:F15)</f>
-        <v>6000</v>
+        <v>264000</v>
       </c>
       <c r="G16" s="28">
         <f>D16+E16-F16</f>
-        <v>71648990</v>
+        <v>71390990</v>
       </c>
       <c r="H16" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="194">
   <si>
     <t>STT</t>
   </si>
@@ -612,7 +612,10 @@
     <t xml:space="preserve">Tiền wifi </t>
   </si>
   <si>
-    <t>Photo Test 5 Part 3</t>
+    <t>Photo ETS 2015 Test 5 Part 3</t>
+  </si>
+  <si>
+    <t>Photo ETS 2016 Test 2 Part 3</t>
   </si>
 </sst>
 </file>
@@ -4930,7 +4933,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5055,13 +5058,21 @@
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
+      <c r="B6" s="12">
+        <v>43042</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>193</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="F6" s="14">
+        <v>5000</v>
+      </c>
       <c r="G6" s="14"/>
-      <c r="H6" s="13"/>
+      <c r="H6" s="13" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
@@ -5182,11 +5193,11 @@
       </c>
       <c r="F16" s="27">
         <f>SUM(F2:F15)</f>
-        <v>264000</v>
+        <v>269000</v>
       </c>
       <c r="G16" s="28">
         <f>D16+E16-F16</f>
-        <v>71390990</v>
+        <v>71385990</v>
       </c>
       <c r="H16" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="197">
   <si>
     <t>STT</t>
   </si>
@@ -616,6 +616,15 @@
   </si>
   <si>
     <t>Photo ETS 2016 Test 2 Part 3</t>
+  </si>
+  <si>
+    <t>Photo ETS 2015 Test 6 Part 5,6 + Anwsersheet</t>
+  </si>
+  <si>
+    <t>TOEIC B K5</t>
+  </si>
+  <si>
+    <t>Photo ETS 2016 Test 10 Part 1 + Test 8 Part 1</t>
   </si>
 </sst>
 </file>
@@ -3884,7 +3893,7 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView topLeftCell="B34" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4933,7 +4942,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5078,46 +5087,75 @@
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
+      <c r="B7" s="12">
+        <v>43048</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>194</v>
+      </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="F7" s="14">
+        <v>22000</v>
+      </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="13"/>
+      <c r="H7" s="13" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="12">
+        <v>43048</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>196</v>
+      </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="F8" s="14">
+        <v>15000</v>
+      </c>
       <c r="G8" s="14"/>
-      <c r="H8" s="13"/>
+      <c r="H8" s="18" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="12">
+        <v>43048</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>146</v>
+      </c>
       <c r="D9" s="13"/>
       <c r="E9" s="14"/>
+      <c r="F9" s="14">
+        <v>2500000</v>
+      </c>
       <c r="G9" s="14"/>
-      <c r="H9" s="13"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
+      <c r="B10" s="12">
+        <v>43048</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>147</v>
+      </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="F10" s="14">
+        <v>500000</v>
+      </c>
       <c r="G10" s="14"/>
       <c r="H10" s="13"/>
     </row>
@@ -5126,10 +5164,8 @@
         <v>10</v>
       </c>
       <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="13"/>
     </row>
@@ -5193,11 +5229,11 @@
       </c>
       <c r="F16" s="27">
         <f>SUM(F2:F15)</f>
-        <v>269000</v>
+        <v>3306000</v>
       </c>
       <c r="G16" s="28">
         <f>D16+E16-F16</f>
-        <v>71385990</v>
+        <v>68348990</v>
       </c>
       <c r="H16" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="198">
   <si>
     <t>STT</t>
   </si>
@@ -625,6 +625,9 @@
   </si>
   <si>
     <t>Photo ETS 2016 Test 10 Part 1 + Test 8 Part 1</t>
+  </si>
+  <si>
+    <t>Photo ETS 2016 test part</t>
   </si>
 </sst>
 </file>
@@ -844,7 +847,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -927,6 +930,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent5" xfId="2" builtinId="45"/>
@@ -4939,10 +4943,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5163,11 +5167,21 @@
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="12">
+        <v>43049</v>
+      </c>
+      <c r="C11" t="s">
+        <v>197</v>
+      </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14"/>
+      <c r="F11" s="40">
+        <v>7000</v>
+      </c>
       <c r="G11" s="14"/>
-      <c r="H11" s="13"/>
+      <c r="H11" s="13" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
@@ -5203,7 +5217,7 @@
       <c r="G14" s="25"/>
       <c r="H14" s="24"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
       <c r="B15" s="23"/>
       <c r="C15" s="24"/>
@@ -5213,33 +5227,83 @@
       <c r="G15" s="25"/>
       <c r="H15" s="24"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="24"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="24"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="24"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="24"/>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="27">
+      <c r="B21" s="38"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="27">
         <f>SUM(D2:D12)</f>
         <v>71654990</v>
       </c>
-      <c r="E16" s="27">
-        <f>SUM(E2:E15)</f>
+      <c r="E21" s="27">
+        <f>SUM(E2:E20)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="27">
-        <f>SUM(F2:F15)</f>
-        <v>3306000</v>
-      </c>
-      <c r="G16" s="28">
-        <f>D16+E16-F16</f>
-        <v>68348990</v>
-      </c>
-      <c r="H16" s="26"/>
+      <c r="F21" s="27">
+        <f>SUM(F2:F20)</f>
+        <v>3313000</v>
+      </c>
+      <c r="G21" s="28">
+        <f>D21+E21-F21</f>
+        <v>68341990</v>
+      </c>
+      <c r="H21" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="202">
   <si>
     <t>STT</t>
   </si>
@@ -628,6 +628,18 @@
   </si>
   <si>
     <t>Photo ETS 2016 test part</t>
+  </si>
+  <si>
+    <t>Photo ETS 2015 test 3 Part 1, ETS 2016 Test 3 part 3</t>
+  </si>
+  <si>
+    <t>TOEIC A K7, TOEIC B K4</t>
+  </si>
+  <si>
+    <t>Học phí TOEIC A K8</t>
+  </si>
+  <si>
+    <t>Phan Thị Quỳnh Liên</t>
   </si>
 </sst>
 </file>
@@ -921,6 +933,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -930,7 +943,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent5" xfId="2" builtinId="45"/>
@@ -2974,11 +2986,11 @@
       <c r="H46" s="24"/>
     </row>
     <row r="47" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="38"/>
-      <c r="C47" s="39"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="40"/>
       <c r="D47" s="27">
         <f>SUM(D2:D45)</f>
         <v>22096000</v>
@@ -4894,11 +4906,11 @@
       <c r="H51" s="24"/>
     </row>
     <row r="52" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="37" t="s">
+      <c r="A52" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="38"/>
-      <c r="C52" s="39"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="40"/>
       <c r="D52" s="27">
         <f>SUM(D2:D12)</f>
         <v>66898500</v>
@@ -4946,14 +4958,14 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
@@ -5175,7 +5187,7 @@
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="40">
+      <c r="F11" s="37">
         <v>7000</v>
       </c>
       <c r="G11" s="14"/>
@@ -5187,25 +5199,41 @@
       <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="12">
+        <v>43052</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>198</v>
+      </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="F12" s="14">
+        <v>20000</v>
+      </c>
       <c r="G12" s="14"/>
-      <c r="H12" s="13"/>
+      <c r="H12" s="13" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>12</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="13"/>
+      <c r="B13" s="23">
+        <v>43052</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>200</v>
+      </c>
       <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
+      <c r="E13" s="25">
+        <v>1470000</v>
+      </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="24"/>
+      <c r="H13" s="24" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
@@ -5278,26 +5306,26 @@
       <c r="H20" s="24"/>
     </row>
     <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="27">
         <f>SUM(D2:D12)</f>
         <v>71654990</v>
       </c>
       <c r="E21" s="27">
         <f>SUM(E2:E20)</f>
-        <v>0</v>
+        <v>1470000</v>
       </c>
       <c r="F21" s="27">
         <f>SUM(F2:F20)</f>
-        <v>3313000</v>
+        <v>3333000</v>
       </c>
       <c r="G21" s="28">
         <f>D21+E21-F21</f>
-        <v>68341990</v>
+        <v>69791990</v>
       </c>
       <c r="H21" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="204">
   <si>
     <t>STT</t>
   </si>
@@ -640,6 +640,12 @@
   </si>
   <si>
     <t>Phan Thị Quỳnh Liên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photo </t>
+  </si>
+  <si>
+    <t>TOEIC A K7</t>
   </si>
 </sst>
 </file>
@@ -4958,7 +4964,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5236,14 +5242,24 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
+      <c r="A14" s="22">
+        <v>13</v>
+      </c>
+      <c r="B14" s="23">
+        <v>43053</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>202</v>
+      </c>
       <c r="D14" s="24"/>
       <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
+      <c r="F14" s="25">
+        <v>5000</v>
+      </c>
       <c r="G14" s="25"/>
-      <c r="H14" s="24"/>
+      <c r="H14" s="24" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
@@ -5321,11 +5337,11 @@
       </c>
       <c r="F21" s="27">
         <f>SUM(F2:F20)</f>
-        <v>3333000</v>
+        <v>3338000</v>
       </c>
       <c r="G21" s="28">
         <f>D21+E21-F21</f>
-        <v>69791990</v>
+        <v>69786990</v>
       </c>
       <c r="H21" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="204">
   <si>
     <t>STT</t>
   </si>
@@ -4964,7 +4964,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5262,14 +5262,24 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
+      <c r="A15" s="22">
+        <v>14</v>
+      </c>
+      <c r="B15" s="23">
+        <v>43055</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>202</v>
+      </c>
       <c r="D15" s="24"/>
       <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
+      <c r="F15" s="25">
+        <v>4000</v>
+      </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="13" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
@@ -5337,11 +5347,11 @@
       </c>
       <c r="F21" s="27">
         <f>SUM(F2:F20)</f>
-        <v>3338000</v>
+        <v>3342000</v>
       </c>
       <c r="G21" s="28">
         <f>D21+E21-F21</f>
-        <v>69786990</v>
+        <v>69782990</v>
       </c>
       <c r="H21" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="204">
   <si>
     <t>STT</t>
   </si>
@@ -3914,8 +3914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="B34" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView topLeftCell="B22" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4961,10 +4961,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5269,27 +5269,35 @@
         <v>43055</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25">
-        <v>4000</v>
+        <v>246000</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="13" t="s">
-        <v>170</v>
-      </c>
+      <c r="H15" s="24"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
+      <c r="A16" s="22">
+        <v>15</v>
+      </c>
+      <c r="B16" s="23">
+        <v>43055</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>202</v>
+      </c>
       <c r="D16" s="24"/>
       <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="F16" s="25">
+        <v>4000</v>
+      </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="24"/>
+      <c r="H16" s="13" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
@@ -5321,7 +5329,7 @@
       <c r="G19" s="25"/>
       <c r="H19" s="24"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="23"/>
       <c r="C20" s="24"/>
@@ -5332,32 +5340,42 @@
       <c r="H20" s="24"/>
     </row>
     <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="27">
+      <c r="B22" s="39"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="27">
         <f>SUM(D2:D12)</f>
         <v>71654990</v>
       </c>
-      <c r="E21" s="27">
-        <f>SUM(E2:E20)</f>
+      <c r="E22" s="27">
+        <f>SUM(E2:E21)</f>
         <v>1470000</v>
       </c>
-      <c r="F21" s="27">
-        <f>SUM(F2:F20)</f>
-        <v>3342000</v>
-      </c>
-      <c r="G21" s="28">
-        <f>D21+E21-F21</f>
-        <v>69782990</v>
-      </c>
-      <c r="H21" s="26"/>
+      <c r="F22" s="27">
+        <f>SUM(F2:F21)</f>
+        <v>3588000</v>
+      </c>
+      <c r="G22" s="28">
+        <f>D22+E22-F22</f>
+        <v>69536990</v>
+      </c>
+      <c r="H22" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="204">
   <si>
     <t>STT</t>
   </si>
@@ -4964,7 +4964,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5300,12 +5300,20 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
+      <c r="A17" s="22">
+        <v>16</v>
+      </c>
+      <c r="B17" s="23">
+        <v>43056</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="D17" s="24"/>
       <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
+      <c r="F17" s="25">
+        <v>57000</v>
+      </c>
       <c r="G17" s="25"/>
       <c r="H17" s="24"/>
     </row>
@@ -5365,11 +5373,11 @@
       </c>
       <c r="F22" s="27">
         <f>SUM(F2:F21)</f>
-        <v>3588000</v>
+        <v>3645000</v>
       </c>
       <c r="G22" s="28">
         <f>D22+E22-F22</f>
-        <v>69536990</v>
+        <v>69479990</v>
       </c>
       <c r="H22" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="207">
   <si>
     <t>STT</t>
   </si>
@@ -646,6 +646,15 @@
   </si>
   <si>
     <t>TOEIC A K7</t>
+  </si>
+  <si>
+    <t>Vũ Ngọc My Ny</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Phúc</t>
+  </si>
+  <si>
+    <t>Võ Tuấn Linh</t>
   </si>
 </sst>
 </file>
@@ -4961,10 +4970,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5318,36 +5327,66 @@
       <c r="H17" s="24"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
+      <c r="A18" s="22">
+        <v>17</v>
+      </c>
+      <c r="B18" s="23">
+        <v>43060</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>200</v>
+      </c>
       <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
+      <c r="E18" s="25">
+        <v>1470000</v>
+      </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="24"/>
+      <c r="H18" s="24" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
+      <c r="A19" s="22">
+        <v>18</v>
+      </c>
+      <c r="B19" s="23">
+        <v>43060</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>200</v>
+      </c>
       <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
+      <c r="E19" s="25">
+        <v>1470000</v>
+      </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="24"/>
+      <c r="H19" s="24" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
+      <c r="A20" s="22">
+        <v>19</v>
+      </c>
+      <c r="B20" s="23">
+        <v>43060</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>200</v>
+      </c>
       <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
+      <c r="E20" s="25">
+        <v>1470000</v>
+      </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="24"/>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="23"/>
       <c r="C21" s="24"/>
@@ -5357,33 +5396,103 @@
       <c r="G21" s="25"/>
       <c r="H21" s="24"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="38" t="s">
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="24"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="24"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="24"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="24"/>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="24"/>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="27">
+      <c r="B29" s="39"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="27">
         <f>SUM(D2:D12)</f>
         <v>71654990</v>
       </c>
-      <c r="E22" s="27">
-        <f>SUM(E2:E21)</f>
-        <v>1470000</v>
-      </c>
-      <c r="F22" s="27">
-        <f>SUM(F2:F21)</f>
+      <c r="E29" s="27">
+        <f>SUM(E2:E28)</f>
+        <v>5880000</v>
+      </c>
+      <c r="F29" s="27">
+        <f>SUM(F2:F28)</f>
         <v>3645000</v>
       </c>
-      <c r="G22" s="28">
-        <f>D22+E22-F22</f>
-        <v>69479990</v>
-      </c>
-      <c r="H22" s="26"/>
+      <c r="G29" s="28">
+        <f>D29+E29-F29</f>
+        <v>73889990</v>
+      </c>
+      <c r="H29" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="211">
   <si>
     <t>STT</t>
   </si>
@@ -655,6 +655,18 @@
   </si>
   <si>
     <t>Võ Tuấn Linh</t>
+  </si>
+  <si>
+    <t>Phạm Thị Diệu Phương</t>
+  </si>
+  <si>
+    <t>Học phí TOEIC B K6</t>
+  </si>
+  <si>
+    <t>Cái Hoàng Mai (AK6)</t>
+  </si>
+  <si>
+    <t>In Phong bì</t>
   </si>
 </sst>
 </file>
@@ -4970,10 +4982,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5387,34 +5399,62 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
+      <c r="A21" s="22">
+        <v>20</v>
+      </c>
+      <c r="B21" s="23">
+        <v>43062</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>210</v>
+      </c>
       <c r="D21" s="24"/>
       <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
+      <c r="F21" s="25">
+        <v>5000</v>
+      </c>
       <c r="G21" s="25"/>
       <c r="H21" s="24"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
+      <c r="A22" s="22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="23">
+        <v>43063</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>200</v>
+      </c>
       <c r="D22" s="24"/>
-      <c r="E22" s="25"/>
+      <c r="E22" s="25">
+        <v>1470000</v>
+      </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="24"/>
+      <c r="H22" s="24" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
+      <c r="A23" s="22">
+        <v>22</v>
+      </c>
+      <c r="B23" s="23">
+        <v>43063</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>208</v>
+      </c>
       <c r="D23" s="24"/>
-      <c r="E23" s="25"/>
+      <c r="E23" s="25">
+        <v>1560000</v>
+      </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="24"/>
+      <c r="H23" s="24" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
@@ -5456,7 +5496,7 @@
       <c r="G27" s="25"/>
       <c r="H27" s="24"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
       <c r="B28" s="23"/>
       <c r="C28" s="24"/>
@@ -5467,32 +5507,42 @@
       <c r="H28" s="24"/>
     </row>
     <row r="29" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="24"/>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="27">
+      <c r="B30" s="39"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="27">
         <f>SUM(D2:D12)</f>
         <v>71654990</v>
       </c>
-      <c r="E29" s="27">
-        <f>SUM(E2:E28)</f>
-        <v>5880000</v>
-      </c>
-      <c r="F29" s="27">
-        <f>SUM(F2:F28)</f>
-        <v>3645000</v>
-      </c>
-      <c r="G29" s="28">
-        <f>D29+E29-F29</f>
-        <v>73889990</v>
-      </c>
-      <c r="H29" s="26"/>
+      <c r="E30" s="27">
+        <f>SUM(E2:E29)</f>
+        <v>8910000</v>
+      </c>
+      <c r="F30" s="27">
+        <f>SUM(F2:F29)</f>
+        <v>3650000</v>
+      </c>
+      <c r="G30" s="28">
+        <f>D30+E30-F30</f>
+        <v>76914990</v>
+      </c>
+      <c r="H30" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="212">
   <si>
     <t>STT</t>
   </si>
@@ -667,6 +667,9 @@
   </si>
   <si>
     <t>In Phong bì</t>
+  </si>
+  <si>
+    <t>Nguyễn Như Khánh Nhi (AK6)</t>
   </si>
 </sst>
 </file>
@@ -4984,8 +4987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5457,14 +5460,24 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
+      <c r="A24" s="22">
+        <v>23</v>
+      </c>
+      <c r="B24" s="23">
+        <v>43064</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>208</v>
+      </c>
       <c r="D24" s="24"/>
-      <c r="E24" s="25"/>
+      <c r="E24" s="25">
+        <v>1560000</v>
+      </c>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="24"/>
+      <c r="H24" s="24" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
@@ -5528,7 +5541,7 @@
       </c>
       <c r="E30" s="27">
         <f>SUM(E2:E29)</f>
-        <v>8910000</v>
+        <v>10470000</v>
       </c>
       <c r="F30" s="27">
         <f>SUM(F2:F29)</f>
@@ -5536,7 +5549,7 @@
       </c>
       <c r="G30" s="28">
         <f>D30+E30-F30</f>
-        <v>76914990</v>
+        <v>78474990</v>
       </c>
       <c r="H30" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="214">
   <si>
     <t>STT</t>
   </si>
@@ -670,6 +670,12 @@
   </si>
   <si>
     <t>Nguyễn Như Khánh Nhi (AK6)</t>
+  </si>
+  <si>
+    <t>Photo test 1 Part 4</t>
+  </si>
+  <si>
+    <t>Nước Suối</t>
   </si>
 </sst>
 </file>
@@ -3066,8 +3072,8 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3938,8 +3944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="B31" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4985,10 +4991,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5480,22 +5486,40 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
+      <c r="A25" s="22">
+        <v>24</v>
+      </c>
+      <c r="B25" s="23">
+        <v>43067</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>212</v>
+      </c>
       <c r="D25" s="24"/>
       <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
+      <c r="F25" s="25">
+        <v>11000</v>
+      </c>
       <c r="G25" s="25"/>
-      <c r="H25" s="24"/>
+      <c r="H25" s="24" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
+      <c r="A26" s="22">
+        <v>25</v>
+      </c>
+      <c r="B26" s="23">
+        <v>43067</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>213</v>
+      </c>
       <c r="D26" s="24"/>
       <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
+      <c r="F26" s="25">
+        <v>20000</v>
+      </c>
       <c r="G26" s="25"/>
       <c r="H26" s="24"/>
     </row>
@@ -5519,7 +5543,7 @@
       <c r="G28" s="25"/>
       <c r="H28" s="24"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" s="23"/>
       <c r="C29" s="24"/>
@@ -5530,33 +5554,44 @@
       <c r="H29" s="24"/>
     </row>
     <row r="30" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="24"/>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="27">
+      <c r="B31" s="39"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="27">
         <f>SUM(D2:D12)</f>
         <v>71654990</v>
       </c>
-      <c r="E30" s="27">
-        <f>SUM(E2:E29)</f>
+      <c r="E31" s="27">
+        <f>SUM(E2:E30)</f>
         <v>10470000</v>
       </c>
-      <c r="F30" s="27">
-        <f>SUM(F2:F29)</f>
-        <v>3650000</v>
-      </c>
-      <c r="G30" s="28">
-        <f>D30+E30-F30</f>
-        <v>78474990</v>
-      </c>
-      <c r="H30" s="26"/>
+      <c r="F31" s="27">
+        <f>SUM(F2:F30)</f>
+        <v>3681000</v>
+      </c>
+      <c r="G31" s="28">
+        <f>D31+E31-F31</f>
+        <v>78443990</v>
+      </c>
+      <c r="H31" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="215">
   <si>
     <t>STT</t>
   </si>
@@ -676,6 +676,9 @@
   </si>
   <si>
     <t>Nước Suối</t>
+  </si>
+  <si>
+    <t>Decal quảng cáo</t>
   </si>
 </sst>
 </file>
@@ -4993,8 +4996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5524,12 +5527,20 @@
       <c r="H26" s="24"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
+      <c r="A27" s="22">
+        <v>26</v>
+      </c>
+      <c r="B27" s="23">
+        <v>43068</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>214</v>
+      </c>
       <c r="D27" s="24"/>
       <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="F27" s="25">
+        <v>145000</v>
+      </c>
       <c r="G27" s="25"/>
       <c r="H27" s="24"/>
     </row>
@@ -5579,11 +5590,11 @@
       </c>
       <c r="F31" s="27">
         <f>SUM(F2:F30)</f>
-        <v>3681000</v>
+        <v>3826000</v>
       </c>
       <c r="G31" s="28">
         <f>D31+E31-F31</f>
-        <v>78443990</v>
+        <v>78298990</v>
       </c>
       <c r="H31" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="218">
   <si>
     <t>STT</t>
   </si>
@@ -679,6 +679,15 @@
   </si>
   <si>
     <t>Decal quảng cáo</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Quỳnh Nhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photo test 9 full Reading </t>
+  </si>
+  <si>
+    <t>TOEIC AK6</t>
   </si>
 </sst>
 </file>
@@ -4994,10 +5003,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5545,26 +5554,46 @@
       <c r="H27" s="24"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
+      <c r="A28" s="22">
+        <v>27</v>
+      </c>
+      <c r="B28" s="23">
+        <v>43069</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>200</v>
+      </c>
       <c r="D28" s="24"/>
-      <c r="E28" s="25"/>
+      <c r="E28" s="25">
+        <v>1470000</v>
+      </c>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
-      <c r="H28" s="24"/>
+      <c r="H28" s="24" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="24"/>
+      <c r="A29" s="22">
+        <v>28</v>
+      </c>
+      <c r="B29" s="23">
+        <v>43069</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>216</v>
+      </c>
       <c r="D29" s="24"/>
       <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
+      <c r="F29" s="25">
+        <v>44000</v>
+      </c>
       <c r="G29" s="25"/>
-      <c r="H29" s="24"/>
-    </row>
-    <row r="30" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="23"/>
       <c r="C30" s="24"/>
@@ -5575,32 +5604,42 @@
       <c r="H30" s="24"/>
     </row>
     <row r="31" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="24"/>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="27">
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="27">
         <f>SUM(D2:D12)</f>
         <v>71654990</v>
       </c>
-      <c r="E31" s="27">
-        <f>SUM(E2:E30)</f>
-        <v>10470000</v>
-      </c>
-      <c r="F31" s="27">
-        <f>SUM(F2:F30)</f>
-        <v>3826000</v>
-      </c>
-      <c r="G31" s="28">
-        <f>D31+E31-F31</f>
-        <v>78298990</v>
-      </c>
-      <c r="H31" s="26"/>
+      <c r="E32" s="27">
+        <f>SUM(E2:E31)</f>
+        <v>11940000</v>
+      </c>
+      <c r="F32" s="27">
+        <f>SUM(F2:F31)</f>
+        <v>3870000</v>
+      </c>
+      <c r="G32" s="28">
+        <f>D32+E32-F32</f>
+        <v>79724990</v>
+      </c>
+      <c r="H32" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Chi phi tong" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Thang 9" sheetId="11" r:id="rId4"/>
     <sheet name="Thang 10" sheetId="12" r:id="rId5"/>
     <sheet name="Thang 11" sheetId="13" r:id="rId6"/>
+    <sheet name="Tháng 12" sheetId="14" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Thang 8'!$A$1:$H$48</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="223">
   <si>
     <t>STT</t>
   </si>
@@ -688,6 +689,21 @@
   </si>
   <si>
     <t>TOEIC AK6</t>
+  </si>
+  <si>
+    <t>Photo test cuối khóa AK6</t>
+  </si>
+  <si>
+    <t>Nguyễn Trúc Quỳnh</t>
+  </si>
+  <si>
+    <t>Lê Châu Anh Phương</t>
+  </si>
+  <si>
+    <t>Photo test cuối khóa BK4 + Phiếu khảo sát</t>
+  </si>
+  <si>
+    <t>TOEIC BK4</t>
   </si>
 </sst>
 </file>
@@ -5005,8 +5021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5644,4 +5660,352 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17">
+        <v>43070</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="19">
+        <f>'Thang 11'!G32</f>
+        <v>79724990</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19">
+        <f>D2+E2-F2</f>
+        <v>79724990</v>
+      </c>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12">
+        <v>43070</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="14">
+        <v>63000</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12">
+        <v>43071</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14">
+        <v>248000</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12">
+        <v>43071</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14">
+        <v>1470000</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12">
+        <v>43071</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14">
+        <v>1470000</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12">
+        <v>43071</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14">
+        <v>65000</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>12</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="24"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
+        <v>13</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>14</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="22">
+        <v>15</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
+        <v>19</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="24"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
+        <v>26</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="24"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="24"/>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="27">
+        <f>SUM(D2:D12)</f>
+        <v>79724990</v>
+      </c>
+      <c r="E21" s="27">
+        <f>SUM(E2:E20)</f>
+        <v>2940000</v>
+      </c>
+      <c r="F21" s="27">
+        <f>SUM(F2:F20)</f>
+        <v>376000</v>
+      </c>
+      <c r="G21" s="28">
+        <f>D21+E21-F21</f>
+        <v>82288990</v>
+      </c>
+      <c r="H21" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A21:C21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="224">
   <si>
     <t>STT</t>
   </si>
@@ -704,6 +704,9 @@
   </si>
   <si>
     <t>TOEIC BK4</t>
+  </si>
+  <si>
+    <t>Châu Hồ Bích Ngân</t>
   </si>
 </sst>
 </file>
@@ -5667,7 +5670,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5831,13 +5834,21 @@
       <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="12">
+        <v>43073</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>208</v>
+      </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
+      <c r="E8" s="14">
+        <v>1680000</v>
+      </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="18"/>
+      <c r="H8" s="18" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
@@ -5990,7 +6001,7 @@
       </c>
       <c r="E21" s="27">
         <f>SUM(E2:E20)</f>
-        <v>2940000</v>
+        <v>4620000</v>
       </c>
       <c r="F21" s="27">
         <f>SUM(F2:F20)</f>
@@ -5998,7 +6009,7 @@
       </c>
       <c r="G21" s="28">
         <f>D21+E21-F21</f>
-        <v>82288990</v>
+        <v>83968990</v>
       </c>
       <c r="H21" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\New folder\trunk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SUCCESS - github\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Chi phi tong" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Tháng 12" sheetId="14" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Thang 11'!$A$1:$H$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Thang 8'!$A$1:$H$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Thang 9'!$A$1:$H$41</definedName>
   </definedNames>
@@ -5024,8 +5025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5657,6 +5658,7 @@
       <c r="H32" s="26"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H29"/>
   <mergeCells count="1">
     <mergeCell ref="A32:C32"/>
   </mergeCells>
@@ -5669,8 +5671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SUCCESS - github\trunk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\New folder\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Chi phi tong" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="226">
   <si>
     <t>STT</t>
   </si>
@@ -602,9 +602,6 @@
     <t>Photo Test 3 Part 5-6</t>
   </si>
   <si>
-    <t>Quỹ còn: 1431000 VNĐ</t>
-  </si>
-  <si>
     <t>(1,000,000 trong 1,850,000)</t>
   </si>
   <si>
@@ -708,6 +705,15 @@
   </si>
   <si>
     <t>Châu Hồ Bích Ngân</t>
+  </si>
+  <si>
+    <t>Quỹ còn: 1,431,000 VNĐ</t>
+  </si>
+  <si>
+    <t>Quỹ còn: 561,000 VNĐ</t>
+  </si>
+  <si>
+    <t>Phạm Hoàng Huy Hùng</t>
   </si>
 </sst>
 </file>
@@ -3976,8 +3982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="B31" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="B34" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4654,7 +4660,7 @@
       </c>
       <c r="G34" s="25"/>
       <c r="H34" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4714,7 +4720,7 @@
       </c>
       <c r="G37" s="25"/>
       <c r="H37" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4996,7 +5002,7 @@
         <v>71654990</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5025,8 +5031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5117,7 +5123,7 @@
         <v>43041</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14"/>
@@ -5135,7 +5141,7 @@
         <v>43041</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -5155,7 +5161,7 @@
         <v>43042</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
@@ -5175,7 +5181,7 @@
         <v>43048</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
@@ -5195,7 +5201,7 @@
         <v>43048</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14"/>
@@ -5204,7 +5210,7 @@
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5251,7 +5257,7 @@
         <v>43049</v>
       </c>
       <c r="C11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14"/>
@@ -5271,7 +5277,7 @@
         <v>43052</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14"/>
@@ -5280,7 +5286,7 @@
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5291,7 +5297,7 @@
         <v>43052</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="25">
@@ -5300,7 +5306,7 @@
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5311,7 +5317,7 @@
         <v>43053</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="25"/>
@@ -5320,7 +5326,7 @@
       </c>
       <c r="G14" s="25"/>
       <c r="H14" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5349,7 +5355,7 @@
         <v>43055</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="25"/>
@@ -5387,7 +5393,7 @@
         <v>43060</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="25">
@@ -5396,7 +5402,7 @@
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5407,7 +5413,7 @@
         <v>43060</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="25">
@@ -5416,7 +5422,7 @@
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
       <c r="H19" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5427,7 +5433,7 @@
         <v>43060</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="25">
@@ -5436,7 +5442,7 @@
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5447,7 +5453,7 @@
         <v>43062</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="25"/>
@@ -5465,7 +5471,7 @@
         <v>43063</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="25">
@@ -5474,7 +5480,7 @@
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="H22" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5485,7 +5491,7 @@
         <v>43063</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="25">
@@ -5494,7 +5500,7 @@
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5505,7 +5511,7 @@
         <v>43064</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="25">
@@ -5514,7 +5520,7 @@
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5525,7 +5531,7 @@
         <v>43067</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="25"/>
@@ -5545,7 +5551,7 @@
         <v>43067</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D26" s="24"/>
       <c r="E26" s="25"/>
@@ -5563,7 +5569,7 @@
         <v>43068</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D27" s="24"/>
       <c r="E27" s="25"/>
@@ -5581,7 +5587,7 @@
         <v>43069</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="25">
@@ -5590,7 +5596,7 @@
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
       <c r="H28" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5601,7 +5607,7 @@
         <v>43069</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="25"/>
@@ -5610,7 +5616,7 @@
       </c>
       <c r="G29" s="25"/>
       <c r="H29" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5655,7 +5661,9 @@
         <f>D32+E32-F32</f>
         <v>79724990</v>
       </c>
-      <c r="H32" s="26"/>
+      <c r="H32" s="26" t="s">
+        <v>224</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H29"/>
@@ -5671,8 +5679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5742,7 +5750,7 @@
         <v>43070</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
@@ -5751,7 +5759,7 @@
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5762,7 +5770,7 @@
         <v>43071</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14"/>
@@ -5780,7 +5788,7 @@
         <v>43071</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="14">
@@ -5789,7 +5797,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5800,7 +5808,7 @@
         <v>43071</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14">
@@ -5809,7 +5817,7 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5820,7 +5828,7 @@
         <v>43071</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
@@ -5829,7 +5837,7 @@
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5840,7 +5848,7 @@
         <v>43073</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14">
@@ -5849,18 +5857,24 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="12">
+        <v>43074</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>146</v>
+      </c>
       <c r="D9" s="13"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="F9" s="14">
+        <v>2870000</v>
+      </c>
       <c r="G9" s="14"/>
       <c r="H9" s="18"/>
     </row>
@@ -5868,11 +5882,17 @@
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
+      <c r="B10" s="12">
+        <v>43074</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>147</v>
+      </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="F10" s="14">
+        <v>500000</v>
+      </c>
       <c r="G10" s="14"/>
       <c r="H10" s="13"/>
     </row>
@@ -5880,12 +5900,21 @@
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="12">
+        <v>43075</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>207</v>
+      </c>
       <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
+      <c r="E11" s="14">
+        <v>1680000</v>
+      </c>
       <c r="F11" s="37"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="13"/>
+      <c r="H11" s="13" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
@@ -6003,15 +6032,15 @@
       </c>
       <c r="E21" s="27">
         <f>SUM(E2:E20)</f>
-        <v>4620000</v>
+        <v>6300000</v>
       </c>
       <c r="F21" s="27">
         <f>SUM(F2:F20)</f>
-        <v>376000</v>
+        <v>3746000</v>
       </c>
       <c r="G21" s="28">
         <f>D21+E21-F21</f>
-        <v>83968990</v>
+        <v>82278990</v>
       </c>
       <c r="H21" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="228">
   <si>
     <t>STT</t>
   </si>
@@ -714,6 +714,12 @@
   </si>
   <si>
     <t>Phạm Hoàng Huy Hùng</t>
+  </si>
+  <si>
+    <t>Photo Anwsersheet</t>
+  </si>
+  <si>
+    <t>50 tờ</t>
   </si>
 </sst>
 </file>
@@ -3982,7 +3988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="B34" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
@@ -5031,8 +5037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5680,7 +5686,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5920,13 +5926,21 @@
       <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="12">
+        <v>43077</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>226</v>
+      </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="F12" s="14">
+        <v>10000</v>
+      </c>
       <c r="G12" s="14"/>
-      <c r="H12" s="13"/>
+      <c r="H12" s="13" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
@@ -5977,9 +5991,7 @@
       <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
-        <v>19</v>
-      </c>
+      <c r="A17" s="22"/>
       <c r="B17" s="23"/>
       <c r="C17" s="13"/>
       <c r="D17" s="24"/>
@@ -5989,9 +6001,7 @@
       <c r="H17" s="24"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
-        <v>26</v>
-      </c>
+      <c r="A18" s="22"/>
       <c r="B18" s="23"/>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
@@ -6036,11 +6046,11 @@
       </c>
       <c r="F21" s="27">
         <f>SUM(F2:F20)</f>
-        <v>3746000</v>
+        <v>3756000</v>
       </c>
       <c r="G21" s="28">
         <f>D21+E21-F21</f>
-        <v>82278990</v>
+        <v>82268990</v>
       </c>
       <c r="H21" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="231">
   <si>
     <t>STT</t>
   </si>
@@ -662,15 +662,9 @@
     <t>Học phí TOEIC B K6</t>
   </si>
   <si>
-    <t>Cái Hoàng Mai (AK6)</t>
-  </si>
-  <si>
     <t>In Phong bì</t>
   </si>
   <si>
-    <t>Nguyễn Như Khánh Nhi (AK6)</t>
-  </si>
-  <si>
     <t>Photo test 1 Part 4</t>
   </si>
   <si>
@@ -720,6 +714,21 @@
   </si>
   <si>
     <t>50 tờ</t>
+  </si>
+  <si>
+    <t>Photo phiếu thông tin học viên, Các chuoeng trình ở trung tâm</t>
+  </si>
+  <si>
+    <t>Học phí TOEIC BK6</t>
+  </si>
+  <si>
+    <t>Cái Hoàng Mai (AK6) (35%)</t>
+  </si>
+  <si>
+    <t>Nguyễn Như Khánh Nhi (AK6) (35%)</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Bảo Châu AK6 (40%)</t>
   </si>
 </sst>
 </file>
@@ -939,7 +948,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1014,6 +1023,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3066,11 +3078,11 @@
       <c r="H46" s="24"/>
     </row>
     <row r="47" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="39"/>
-      <c r="C47" s="40"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="41"/>
       <c r="D47" s="27">
         <f>SUM(D2:D45)</f>
         <v>22096000</v>
@@ -4986,11 +4998,11 @@
       <c r="H51" s="24"/>
     </row>
     <row r="52" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="38" t="s">
+      <c r="A52" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="39"/>
-      <c r="C52" s="40"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="41"/>
       <c r="D52" s="27">
         <f>SUM(D2:D12)</f>
         <v>66898500</v>
@@ -5008,7 +5020,7 @@
         <v>71654990</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5037,8 +5049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5459,7 +5471,7 @@
         <v>43062</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="25"/>
@@ -5506,7 +5518,7 @@
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="24" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5526,7 +5538,7 @@
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="24" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5537,7 +5549,7 @@
         <v>43067</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="25"/>
@@ -5557,7 +5569,7 @@
         <v>43067</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D26" s="24"/>
       <c r="E26" s="25"/>
@@ -5575,7 +5587,7 @@
         <v>43068</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D27" s="24"/>
       <c r="E27" s="25"/>
@@ -5602,7 +5614,7 @@
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
       <c r="H28" s="24" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5613,7 +5625,7 @@
         <v>43069</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="25"/>
@@ -5622,7 +5634,7 @@
       </c>
       <c r="G29" s="25"/>
       <c r="H29" s="24" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5646,11 +5658,11 @@
       <c r="H31" s="24"/>
     </row>
     <row r="32" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="41"/>
       <c r="D32" s="27">
         <f>SUM(D2:D12)</f>
         <v>71654990</v>
@@ -5668,7 +5680,7 @@
         <v>79724990</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -5686,7 +5698,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5756,7 +5768,7 @@
         <v>43070</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
@@ -5765,7 +5777,7 @@
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5803,7 +5815,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5823,7 +5835,7 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5834,7 +5846,7 @@
         <v>43071</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
@@ -5843,7 +5855,7 @@
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5863,7 +5875,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5919,7 +5931,7 @@
       <c r="F11" s="37"/>
       <c r="G11" s="14"/>
       <c r="H11" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5930,7 +5942,7 @@
         <v>43077</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14"/>
@@ -5939,18 +5951,24 @@
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="13" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>12</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="13"/>
+      <c r="B13" s="23">
+        <v>43080</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>226</v>
+      </c>
       <c r="D13" s="24"/>
       <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
+      <c r="F13" s="25">
+        <v>11000</v>
+      </c>
       <c r="G13" s="25"/>
       <c r="H13" s="24"/>
     </row>
@@ -5958,13 +5976,21 @@
       <c r="A14" s="22">
         <v>13</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
+      <c r="B14" s="23">
+        <v>43080</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>227</v>
+      </c>
       <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
+      <c r="E14" s="25">
+        <v>1440000</v>
+      </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="24"/>
+      <c r="H14" s="24" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
@@ -6031,26 +6057,26 @@
       <c r="H20" s="24"/>
     </row>
     <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="27">
         <f>SUM(D2:D12)</f>
         <v>79724990</v>
       </c>
       <c r="E21" s="27">
         <f>SUM(E2:E20)</f>
-        <v>6300000</v>
+        <v>7740000</v>
       </c>
       <c r="F21" s="27">
         <f>SUM(F2:F20)</f>
-        <v>3756000</v>
+        <v>3767000</v>
       </c>
       <c r="G21" s="28">
         <f>D21+E21-F21</f>
-        <v>82268990</v>
+        <v>83697990</v>
       </c>
       <c r="H21" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="231">
   <si>
     <t>STT</t>
   </si>
@@ -5049,8 +5049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5996,11 +5996,17 @@
       <c r="A15" s="22">
         <v>14</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
+      <c r="B15" s="23">
+        <v>43081</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>166</v>
+      </c>
       <c r="D15" s="24"/>
       <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
+      <c r="F15" s="25">
+        <v>323000</v>
+      </c>
       <c r="G15" s="25"/>
       <c r="H15" s="24"/>
     </row>
@@ -6072,11 +6078,11 @@
       </c>
       <c r="F21" s="27">
         <f>SUM(F2:F20)</f>
-        <v>3767000</v>
+        <v>4090000</v>
       </c>
       <c r="G21" s="28">
         <f>D21+E21-F21</f>
-        <v>83697990</v>
+        <v>83374990</v>
       </c>
       <c r="H21" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="232">
   <si>
     <t>STT</t>
   </si>
@@ -729,6 +729,9 @@
   </si>
   <si>
     <t>Nguyễn Thị Bảo Châu AK6 (40%)</t>
+  </si>
+  <si>
+    <t>Nguyễn Quang Uyển Thư</t>
   </si>
 </sst>
 </file>
@@ -5698,7 +5701,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6014,13 +6017,21 @@
       <c r="A16" s="22">
         <v>15</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="23">
+        <v>43082</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>227</v>
+      </c>
       <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
+      <c r="E16" s="25">
+        <v>1680000</v>
+      </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="13"/>
+      <c r="H16" s="13" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
@@ -6074,7 +6085,7 @@
       </c>
       <c r="E21" s="27">
         <f>SUM(E2:E20)</f>
-        <v>7740000</v>
+        <v>9420000</v>
       </c>
       <c r="F21" s="27">
         <f>SUM(F2:F20)</f>
@@ -6082,7 +6093,7 @@
       </c>
       <c r="G21" s="28">
         <f>D21+E21-F21</f>
-        <v>83374990</v>
+        <v>85054990</v>
       </c>
       <c r="H21" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="235">
   <si>
     <t>STT</t>
   </si>
@@ -732,6 +732,15 @@
   </si>
   <si>
     <t>Nguyễn Quang Uyển Thư</t>
+  </si>
+  <si>
+    <t>Trần Thị Phương Lan</t>
+  </si>
+  <si>
+    <t>Đinh Thúy Hằng</t>
+  </si>
+  <si>
+    <t>Lê Nguyễn Huy</t>
   </si>
 </sst>
 </file>
@@ -5698,10 +5707,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6034,72 +6043,132 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="13"/>
+      <c r="A17" s="22">
+        <v>16</v>
+      </c>
+      <c r="B17" s="23">
+        <v>43087</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>227</v>
+      </c>
       <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
+      <c r="E17" s="25">
+        <v>1680000</v>
+      </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="24"/>
+      <c r="H17" s="24" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
+      <c r="A18" s="22">
+        <v>17</v>
+      </c>
+      <c r="B18" s="23">
+        <v>43087</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>227</v>
+      </c>
       <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
+      <c r="E18" s="25">
+        <v>1680000</v>
+      </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="24"/>
+      <c r="H18" s="24" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
+      <c r="A19" s="22">
+        <v>18</v>
+      </c>
+      <c r="B19" s="23">
+        <v>43088</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>199</v>
+      </c>
       <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
+      <c r="E19" s="14">
+        <v>1470000</v>
+      </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="24"/>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="24" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="24"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="24"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="39" t="s">
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="24"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="24"/>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="27">
+      <c r="B24" s="40"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="27">
         <f>SUM(D2:D12)</f>
         <v>79724990</v>
       </c>
-      <c r="E21" s="27">
-        <f>SUM(E2:E20)</f>
-        <v>9420000</v>
-      </c>
-      <c r="F21" s="27">
-        <f>SUM(F2:F20)</f>
+      <c r="E24" s="27">
+        <f>SUM(E2:E23)</f>
+        <v>14250000</v>
+      </c>
+      <c r="F24" s="27">
+        <f>SUM(F2:F23)</f>
         <v>4090000</v>
       </c>
-      <c r="G21" s="28">
-        <f>D21+E21-F21</f>
-        <v>85054990</v>
-      </c>
-      <c r="H21" s="26"/>
+      <c r="G24" s="28">
+        <f>D24+E24-F24</f>
+        <v>89884990</v>
+      </c>
+      <c r="H24" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A24:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="239">
   <si>
     <t>STT</t>
   </si>
@@ -741,6 +741,18 @@
   </si>
   <si>
     <t>Lê Nguyễn Huy</t>
+  </si>
+  <si>
+    <t>Giấy Double A</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Phương</t>
+  </si>
+  <si>
+    <t>Photo Test 1 part 3</t>
+  </si>
+  <si>
+    <t>B K5</t>
   </si>
 </sst>
 </file>
@@ -5707,10 +5719,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6103,36 +6115,64 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="13"/>
+      <c r="A20" s="22">
+        <v>19</v>
+      </c>
+      <c r="B20" s="23">
+        <v>43089</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>235</v>
+      </c>
       <c r="D20" s="24"/>
       <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+      <c r="F20" s="25">
+        <v>65000</v>
+      </c>
       <c r="G20" s="25"/>
       <c r="H20" s="24"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
+      <c r="A21" s="22">
+        <v>20</v>
+      </c>
+      <c r="B21" s="23">
+        <v>43090</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>237</v>
+      </c>
       <c r="D21" s="24"/>
       <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
+      <c r="F21" s="25">
+        <v>3000</v>
+      </c>
       <c r="G21" s="25"/>
-      <c r="H21" s="24"/>
+      <c r="H21" s="24" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
+      <c r="A22" s="22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="23">
+        <v>43090</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>199</v>
+      </c>
       <c r="D22" s="24"/>
-      <c r="E22" s="25"/>
+      <c r="E22" s="14">
+        <v>1470000</v>
+      </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="24"/>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
       <c r="B23" s="23"/>
       <c r="C23" s="24"/>
@@ -6142,33 +6182,63 @@
       <c r="G23" s="25"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="24"/>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="27">
+      <c r="B27" s="40"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="27">
         <f>SUM(D2:D12)</f>
         <v>79724990</v>
       </c>
-      <c r="E24" s="27">
-        <f>SUM(E2:E23)</f>
-        <v>14250000</v>
-      </c>
-      <c r="F24" s="27">
-        <f>SUM(F2:F23)</f>
-        <v>4090000</v>
-      </c>
-      <c r="G24" s="28">
-        <f>D24+E24-F24</f>
-        <v>89884990</v>
-      </c>
-      <c r="H24" s="26"/>
+      <c r="E27" s="27">
+        <f>SUM(E2:E26)</f>
+        <v>15720000</v>
+      </c>
+      <c r="F27" s="27">
+        <f>SUM(F2:F26)</f>
+        <v>4158000</v>
+      </c>
+      <c r="G27" s="28">
+        <f>D27+E27-F27</f>
+        <v>91286990</v>
+      </c>
+      <c r="H27" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A27:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="241">
   <si>
     <t>STT</t>
   </si>
@@ -752,7 +752,13 @@
     <t>Photo Test 1 part 3</t>
   </si>
   <si>
-    <t>B K5</t>
+    <t xml:space="preserve">Photo ets 2015 Test 2 </t>
+  </si>
+  <si>
+    <t>TOEIC BK5</t>
+  </si>
+  <si>
+    <t>TOEIC AK7</t>
   </si>
 </sst>
 </file>
@@ -1344,7 +1350,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3152,7 +3158,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -4024,7 +4030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="B34" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
@@ -5073,7 +5079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -5721,8 +5727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6149,7 +6155,7 @@
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6173,14 +6179,24 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
+      <c r="A23" s="22">
+        <v>22</v>
+      </c>
+      <c r="B23" s="23">
+        <v>43091</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>238</v>
+      </c>
       <c r="D23" s="24"/>
       <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
+      <c r="F23" s="25">
+        <v>5000</v>
+      </c>
       <c r="G23" s="25"/>
-      <c r="H23" s="24"/>
+      <c r="H23" s="24" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
@@ -6228,11 +6244,11 @@
       </c>
       <c r="F27" s="27">
         <f>SUM(F2:F26)</f>
-        <v>4158000</v>
+        <v>4163000</v>
       </c>
       <c r="G27" s="28">
         <f>D27+E27-F27</f>
-        <v>91286990</v>
+        <v>91281990</v>
       </c>
       <c r="H27" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="242">
   <si>
     <t>STT</t>
   </si>
@@ -759,6 +759,9 @@
   </si>
   <si>
     <t>TOEIC AK7</t>
+  </si>
+  <si>
+    <t>Photo test Part 5,6 Anwsersheet</t>
   </si>
 </sst>
 </file>
@@ -5725,10 +5728,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6199,14 +6202,24 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
+      <c r="A24" s="22">
+        <v>23</v>
+      </c>
+      <c r="B24" s="23">
+        <v>43092</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>241</v>
+      </c>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
+      <c r="F24" s="25">
+        <v>14000</v>
+      </c>
       <c r="G24" s="25"/>
-      <c r="H24" s="24"/>
+      <c r="H24" s="24" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
@@ -6218,7 +6231,7 @@
       <c r="G25" s="25"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
       <c r="B26" s="23"/>
       <c r="C26" s="24"/>
@@ -6229,32 +6242,42 @@
       <c r="H26" s="24"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="24"/>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="27">
+      <c r="B28" s="40"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="27">
         <f>SUM(D2:D12)</f>
         <v>79724990</v>
       </c>
-      <c r="E27" s="27">
-        <f>SUM(E2:E26)</f>
+      <c r="E28" s="27">
+        <f>SUM(E2:E27)</f>
         <v>15720000</v>
       </c>
-      <c r="F27" s="27">
-        <f>SUM(F2:F26)</f>
-        <v>4163000</v>
-      </c>
-      <c r="G27" s="28">
-        <f>D27+E27-F27</f>
-        <v>91281990</v>
-      </c>
-      <c r="H27" s="26"/>
+      <c r="F28" s="27">
+        <f>SUM(F2:F27)</f>
+        <v>4177000</v>
+      </c>
+      <c r="G28" s="28">
+        <f>D28+E28-F28</f>
+        <v>91267990</v>
+      </c>
+      <c r="H28" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="243">
   <si>
     <t>STT</t>
   </si>
@@ -762,6 +762,9 @@
   </si>
   <si>
     <t>Photo test Part 5,6 Anwsersheet</t>
+  </si>
+  <si>
+    <t>Bao nilong</t>
   </si>
 </sst>
 </file>
@@ -5728,10 +5731,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6222,12 +6225,20 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
+      <c r="A25" s="22">
+        <v>24</v>
+      </c>
+      <c r="B25" s="23">
+        <v>43094</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>242</v>
+      </c>
       <c r="D25" s="24"/>
       <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
+      <c r="F25" s="25">
+        <v>9000</v>
+      </c>
       <c r="G25" s="25"/>
       <c r="H25" s="24"/>
     </row>
@@ -6241,7 +6252,7 @@
       <c r="G26" s="25"/>
       <c r="H26" s="24"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="23"/>
       <c r="C27" s="24"/>
@@ -6252,32 +6263,42 @@
       <c r="H27" s="24"/>
     </row>
     <row r="28" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="24"/>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="27">
+      <c r="B29" s="40"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="27">
         <f>SUM(D2:D12)</f>
         <v>79724990</v>
       </c>
-      <c r="E28" s="27">
-        <f>SUM(E2:E27)</f>
+      <c r="E29" s="27">
+        <f>SUM(E2:E28)</f>
         <v>15720000</v>
       </c>
-      <c r="F28" s="27">
-        <f>SUM(F2:F27)</f>
-        <v>4177000</v>
-      </c>
-      <c r="G28" s="28">
-        <f>D28+E28-F28</f>
-        <v>91267990</v>
-      </c>
-      <c r="H28" s="26"/>
+      <c r="F29" s="27">
+        <f>SUM(F2:F28)</f>
+        <v>4186000</v>
+      </c>
+      <c r="G29" s="28">
+        <f>D29+E29-F29</f>
+        <v>91258990</v>
+      </c>
+      <c r="H29" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="243">
   <si>
     <t>STT</t>
   </si>
@@ -3164,8 +3164,8 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4036,8 +4036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="B34" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView topLeftCell="B7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5085,8 +5085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5733,8 +5733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6243,12 +6243,20 @@
       <c r="H25" s="24"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
+      <c r="A26" s="22">
+        <v>25</v>
+      </c>
+      <c r="B26" s="23">
+        <v>43095</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>29</v>
+      </c>
       <c r="D26" s="24"/>
       <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
+      <c r="F26" s="25">
+        <v>91000</v>
+      </c>
       <c r="G26" s="25"/>
       <c r="H26" s="24"/>
     </row>
@@ -6288,11 +6296,11 @@
       </c>
       <c r="F29" s="27">
         <f>SUM(F2:F28)</f>
-        <v>4186000</v>
+        <v>4277000</v>
       </c>
       <c r="G29" s="28">
         <f>D29+E29-F29</f>
-        <v>91258990</v>
+        <v>91167990</v>
       </c>
       <c r="H29" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="245">
   <si>
     <t>STT</t>
   </si>
@@ -765,6 +765,12 @@
   </si>
   <si>
     <t>Bao nilong</t>
+  </si>
+  <si>
+    <t>Tiền Quảng cáo FB</t>
+  </si>
+  <si>
+    <t>Tiền góp Laptop</t>
   </si>
 </sst>
 </file>
@@ -4036,7 +4042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="B34" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -5085,7 +5091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -5731,10 +5737,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6261,52 +6267,98 @@
       <c r="H26" s="24"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
+      <c r="A27" s="22">
+        <v>26</v>
+      </c>
+      <c r="B27" s="23">
+        <v>43096</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>243</v>
+      </c>
       <c r="D27" s="24"/>
       <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="F27" s="25">
+        <v>2000000</v>
+      </c>
       <c r="G27" s="25"/>
       <c r="H27" s="24"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
+        <v>27</v>
+      </c>
+      <c r="B28" s="23">
+        <v>43096</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>244</v>
+      </c>
       <c r="D28" s="24"/>
       <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
+      <c r="F28" s="25">
+        <v>1231000</v>
+      </c>
       <c r="G28" s="25"/>
       <c r="H28" s="24"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="39" t="s">
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="24"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="24"/>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="24"/>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="27">
+      <c r="B32" s="40"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="27">
         <f>SUM(D2:D12)</f>
         <v>79724990</v>
       </c>
-      <c r="E29" s="27">
-        <f>SUM(E2:E28)</f>
+      <c r="E32" s="27">
+        <f>SUM(E2:E31)</f>
         <v>15720000</v>
       </c>
-      <c r="F29" s="27">
-        <f>SUM(F2:F28)</f>
-        <v>4277000</v>
-      </c>
-      <c r="G29" s="28">
-        <f>D29+E29-F29</f>
-        <v>91167990</v>
-      </c>
-      <c r="H29" s="26"/>
+      <c r="F32" s="27">
+        <f>SUM(F2:F31)</f>
+        <v>7508000</v>
+      </c>
+      <c r="G32" s="28">
+        <f>D32+E32-F32</f>
+        <v>87936990</v>
+      </c>
+      <c r="H32" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="247">
   <si>
     <t>STT</t>
   </si>
@@ -771,6 +771,12 @@
   </si>
   <si>
     <t>Tiền góp Laptop</t>
+  </si>
+  <si>
+    <t>Photo test 5,6 part 3</t>
+  </si>
+  <si>
+    <t>Toeic AK7</t>
   </si>
 </sst>
 </file>
@@ -5740,7 +5746,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6303,14 +6309,24 @@
       <c r="H28" s="24"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="24"/>
+      <c r="A29" s="22">
+        <v>28</v>
+      </c>
+      <c r="B29" s="23">
+        <v>43096</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>245</v>
+      </c>
       <c r="D29" s="24"/>
       <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
+      <c r="F29" s="25">
+        <v>25000</v>
+      </c>
       <c r="G29" s="25"/>
-      <c r="H29" s="24"/>
+      <c r="H29" s="24" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
@@ -6348,11 +6364,11 @@
       </c>
       <c r="F32" s="27">
         <f>SUM(F2:F31)</f>
-        <v>7508000</v>
+        <v>7533000</v>
       </c>
       <c r="G32" s="28">
         <f>D32+E32-F32</f>
-        <v>87936990</v>
+        <v>87911990</v>
       </c>
       <c r="H32" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="249">
   <si>
     <t>STT</t>
   </si>
@@ -776,7 +776,13 @@
     <t>Photo test 5,6 part 3</t>
   </si>
   <si>
-    <t>Toeic AK7</t>
+    <t>Photo test , part 3</t>
+  </si>
+  <si>
+    <t>Photo test 6 part 5,6</t>
+  </si>
+  <si>
+    <t>Quỹ còn: 110,000 + 55,000 (Photo sách)</t>
   </si>
 </sst>
 </file>
@@ -5743,10 +5749,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5757,7 +5763,7 @@
     <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" customWidth="1"/>
+    <col min="8" max="8" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6325,56 +6331,98 @@
       </c>
       <c r="G29" s="25"/>
       <c r="H29" s="24" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="22">
+        <v>29</v>
+      </c>
+      <c r="B30" s="23">
+        <v>43097</v>
+      </c>
+      <c r="C30" s="24" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
       <c r="D30" s="24"/>
       <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
+      <c r="F30" s="25">
+        <v>4000</v>
+      </c>
       <c r="G30" s="25"/>
-      <c r="H30" s="24"/>
-    </row>
-    <row r="31" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
+      <c r="H30" s="24" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="22">
+        <v>30</v>
+      </c>
+      <c r="B31" s="23">
+        <v>43098</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>247</v>
+      </c>
       <c r="D31" s="24"/>
       <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
+      <c r="F31" s="25">
+        <v>17000</v>
+      </c>
       <c r="G31" s="25"/>
-      <c r="H31" s="24"/>
-    </row>
-    <row r="32" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="39" t="s">
+      <c r="H31" s="24" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="24"/>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="22"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="24"/>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="27">
+      <c r="B34" s="40"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="27">
         <f>SUM(D2:D12)</f>
         <v>79724990</v>
       </c>
-      <c r="E32" s="27">
-        <f>SUM(E2:E31)</f>
+      <c r="E34" s="27">
+        <f>SUM(E2:E33)</f>
         <v>15720000</v>
       </c>
-      <c r="F32" s="27">
-        <f>SUM(F2:F31)</f>
-        <v>7533000</v>
-      </c>
-      <c r="G32" s="28">
-        <f>D32+E32-F32</f>
-        <v>87911990</v>
-      </c>
-      <c r="H32" s="26"/>
+      <c r="F34" s="27">
+        <f>SUM(F2:F33)</f>
+        <v>7554000</v>
+      </c>
+      <c r="G34" s="28">
+        <f>D34+E34-F34</f>
+        <v>87890990</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>248</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A34:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Chi phi tong" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Thang 10" sheetId="12" r:id="rId5"/>
     <sheet name="Thang 11" sheetId="13" r:id="rId6"/>
     <sheet name="Tháng 12" sheetId="14" r:id="rId7"/>
+    <sheet name="Thang 1 - 2018" sheetId="15" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Thang 11'!$A$1:$H$29</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="252">
   <si>
     <t>STT</t>
   </si>
@@ -783,6 +784,15 @@
   </si>
   <si>
     <t>Quỹ còn: 110,000 + 55,000 (Photo sách)</t>
+  </si>
+  <si>
+    <t>Photo test 3,4 part 3</t>
+  </si>
+  <si>
+    <t>Mua khăn trải bàn</t>
+  </si>
+  <si>
+    <t>Nươcs suối</t>
   </si>
 </sst>
 </file>
@@ -5751,8 +5761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6426,4 +6436,261 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="42.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17">
+        <v>43101</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="19">
+        <f>'Tháng 12'!G34</f>
+        <v>87890990</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19">
+        <f>D2+E2-F2</f>
+        <v>87890990</v>
+      </c>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12">
+        <v>43102</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="14">
+        <v>8000</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12">
+        <v>43103</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14">
+        <v>55000</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12">
+        <v>43104</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="24"/>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="27">
+        <f>SUM(D2:D12)</f>
+        <v>87890990</v>
+      </c>
+      <c r="E15" s="27">
+        <f>SUM(E2:E14)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="27">
+        <f>SUM(F2:F14)</f>
+        <v>63000</v>
+      </c>
+      <c r="G15" s="28">
+        <f>D15+E15-F15</f>
+        <v>87827990</v>
+      </c>
+      <c r="H15" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A15:C15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="253">
   <si>
     <t>STT</t>
   </si>
@@ -793,6 +793,9 @@
   </si>
   <si>
     <t>Nươcs suối</t>
+  </si>
+  <si>
+    <t>Tiền wifi</t>
   </si>
 </sst>
 </file>
@@ -6443,7 +6446,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6555,7 +6558,9 @@
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="F5" s="14">
+        <v>20000</v>
+      </c>
       <c r="G5" s="14"/>
       <c r="H5" s="13"/>
     </row>
@@ -6563,11 +6568,17 @@
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
+      <c r="B6" s="12">
+        <v>43104</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>252</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="F6" s="14">
+        <v>248000</v>
+      </c>
       <c r="G6" s="14"/>
       <c r="H6" s="13"/>
     </row>
@@ -6679,11 +6690,11 @@
       </c>
       <c r="F15" s="27">
         <f>SUM(F2:F14)</f>
-        <v>63000</v>
+        <v>331000</v>
       </c>
       <c r="G15" s="28">
         <f>D15+E15-F15</f>
-        <v>87827990</v>
+        <v>87559990</v>
       </c>
       <c r="H15" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="255">
   <si>
     <t>STT</t>
   </si>
@@ -796,6 +796,12 @@
   </si>
   <si>
     <t>Tiền wifi</t>
+  </si>
+  <si>
+    <t>Photo phiếu khảo sát cuối khóa</t>
+  </si>
+  <si>
+    <t>30 bản</t>
   </si>
 </sst>
 </file>
@@ -5764,7 +5770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -6446,7 +6452,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6586,23 +6592,37 @@
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
+      <c r="B7" s="12">
+        <v>43105</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>253</v>
+      </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="F7" s="14">
+        <v>13000</v>
+      </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="13"/>
+      <c r="H7" s="13" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="12">
+        <v>43105</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>146</v>
+      </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="F8" s="14">
+        <v>2657500</v>
+      </c>
       <c r="G8" s="14"/>
       <c r="H8" s="18"/>
     </row>
@@ -6610,11 +6630,17 @@
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="12">
+        <v>43105</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>147</v>
+      </c>
       <c r="D9" s="13"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="F9" s="14">
+        <v>500000</v>
+      </c>
       <c r="G9" s="14"/>
       <c r="H9" s="18"/>
     </row>
@@ -6627,7 +6653,9 @@
       <c r="D10" s="13"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="G10" s="14">
+        <v>0</v>
+      </c>
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6690,11 +6718,11 @@
       </c>
       <c r="F15" s="27">
         <f>SUM(F2:F14)</f>
-        <v>331000</v>
+        <v>3501500</v>
       </c>
       <c r="G15" s="28">
         <f>D15+E15-F15</f>
-        <v>87559990</v>
+        <v>84389490</v>
       </c>
       <c r="H15" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -6452,7 +6452,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6653,9 +6653,7 @@
       <c r="D10" s="13"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="14">
-        <v>0</v>
-      </c>
+      <c r="G10" s="14"/>
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Chi phi tong" sheetId="1" r:id="rId1"/>
@@ -717,9 +717,6 @@
     <t>50 tờ</t>
   </si>
   <si>
-    <t>Photo phiếu thông tin học viên, Các chuoeng trình ở trung tâm</t>
-  </si>
-  <si>
     <t>Học phí TOEIC BK6</t>
   </si>
   <si>
@@ -802,6 +799,9 @@
   </si>
   <si>
     <t>30 bản</t>
+  </si>
+  <si>
+    <t>Photo phiếu thông tin học viên, Các chương trình ở trung tâm</t>
   </si>
 </sst>
 </file>
@@ -5591,7 +5591,7 @@
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5611,7 +5611,7 @@
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5771,7 +5771,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6035,7 +6035,7 @@
         <v>43080</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="25"/>
@@ -6053,7 +6053,7 @@
         <v>43080</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="25">
@@ -6062,7 +6062,7 @@
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6091,7 +6091,7 @@
         <v>43082</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="25">
@@ -6100,7 +6100,7 @@
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6111,7 +6111,7 @@
         <v>43087</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="25">
@@ -6120,7 +6120,7 @@
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6131,7 +6131,7 @@
         <v>43087</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="25">
@@ -6140,7 +6140,7 @@
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6160,7 +6160,7 @@
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
       <c r="H19" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6171,7 +6171,7 @@
         <v>43089</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="25"/>
@@ -6189,7 +6189,7 @@
         <v>43090</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="25"/>
@@ -6198,7 +6198,7 @@
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6218,7 +6218,7 @@
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="H22" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6229,7 +6229,7 @@
         <v>43091</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="25"/>
@@ -6238,7 +6238,7 @@
       </c>
       <c r="G23" s="25"/>
       <c r="H23" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6249,7 +6249,7 @@
         <v>43092</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
@@ -6258,7 +6258,7 @@
       </c>
       <c r="G24" s="25"/>
       <c r="H24" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6269,7 +6269,7 @@
         <v>43094</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="25"/>
@@ -6305,7 +6305,7 @@
         <v>43096</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D27" s="24"/>
       <c r="E27" s="25"/>
@@ -6323,7 +6323,7 @@
         <v>43096</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="25"/>
@@ -6341,7 +6341,7 @@
         <v>43096</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="25"/>
@@ -6350,7 +6350,7 @@
       </c>
       <c r="G29" s="25"/>
       <c r="H29" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6361,7 +6361,7 @@
         <v>43097</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="25"/>
@@ -6370,7 +6370,7 @@
       </c>
       <c r="G30" s="25"/>
       <c r="H30" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6381,7 +6381,7 @@
         <v>43098</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="25"/>
@@ -6390,7 +6390,7 @@
       </c>
       <c r="G31" s="25"/>
       <c r="H31" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6436,7 +6436,7 @@
         <v>87890990</v>
       </c>
       <c r="H34" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -6452,7 +6452,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6522,7 +6522,7 @@
         <v>43102</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
@@ -6531,7 +6531,7 @@
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6542,7 +6542,7 @@
         <v>43103</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14"/>
@@ -6560,7 +6560,7 @@
         <v>43104</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -6578,7 +6578,7 @@
         <v>43104</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
@@ -6596,7 +6596,7 @@
         <v>43105</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
@@ -6605,7 +6605,7 @@
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="256">
   <si>
     <t>STT</t>
   </si>
@@ -802,6 +802,9 @@
   </si>
   <si>
     <t>Photo phiếu thông tin học viên, Các chương trình ở trung tâm</t>
+  </si>
+  <si>
+    <t>Photo Test 8,10 part 1</t>
   </si>
 </sst>
 </file>
@@ -6452,7 +6455,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6648,11 +6651,17 @@
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
+      <c r="B10" s="12">
+        <v>43108</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>255</v>
+      </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="F10" s="14">
+        <v>9000</v>
+      </c>
       <c r="G10" s="14"/>
       <c r="H10" s="13"/>
     </row>
@@ -6716,11 +6725,11 @@
       </c>
       <c r="F15" s="27">
         <f>SUM(F2:F14)</f>
-        <v>3501500</v>
+        <v>3510500</v>
       </c>
       <c r="G15" s="28">
         <f>D15+E15-F15</f>
-        <v>84389490</v>
+        <v>84380490</v>
       </c>
       <c r="H15" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="257">
   <si>
     <t>STT</t>
   </si>
@@ -805,6 +805,9 @@
   </si>
   <si>
     <t>Photo Test 8,10 part 1</t>
+  </si>
+  <si>
+    <t>TOEIC BK6</t>
   </si>
 </sst>
 </file>
@@ -6455,7 +6458,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6663,7 +6666,9 @@
         <v>9000</v>
       </c>
       <c r="G10" s="14"/>
-      <c r="H10" s="13"/>
+      <c r="H10" s="13" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="11">

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="258">
   <si>
     <t>STT</t>
   </si>
@@ -808,6 +808,9 @@
   </si>
   <si>
     <t>TOEIC BK6</t>
+  </si>
+  <si>
+    <t>Photo Test 1,2 part 4 + Answersheet</t>
   </si>
 </sst>
 </file>
@@ -6458,7 +6461,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6674,13 +6677,21 @@
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="34"/>
+      <c r="B11" s="12">
+        <v>43112</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>257</v>
+      </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="37"/>
+      <c r="F11" s="37">
+        <v>14000</v>
+      </c>
       <c r="G11" s="14"/>
-      <c r="H11" s="13"/>
+      <c r="H11" s="13" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
@@ -6730,11 +6741,11 @@
       </c>
       <c r="F15" s="27">
         <f>SUM(F2:F14)</f>
-        <v>3510500</v>
+        <v>3524500</v>
       </c>
       <c r="G15" s="28">
         <f>D15+E15-F15</f>
-        <v>84380490</v>
+        <v>84366490</v>
       </c>
       <c r="H15" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="260">
   <si>
     <t>STT</t>
   </si>
@@ -811,6 +811,12 @@
   </si>
   <si>
     <t>Photo Test 1,2 part 4 + Answersheet</t>
+  </si>
+  <si>
+    <t>Photo Test 3 part 1</t>
+  </si>
+  <si>
+    <t>TOEIC AK8</t>
   </si>
 </sst>
 </file>
@@ -6458,10 +6464,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6697,26 +6703,44 @@
       <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="12">
+        <v>43113</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="F12" s="14">
+        <v>31000</v>
+      </c>
       <c r="G12" s="14"/>
       <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
+      <c r="A13" s="22">
+        <v>12</v>
+      </c>
+      <c r="B13" s="23">
+        <v>43113</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>258</v>
+      </c>
       <c r="D13" s="24"/>
       <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
+      <c r="F13" s="25">
+        <v>1000</v>
+      </c>
       <c r="G13" s="25"/>
-      <c r="H13" s="24"/>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
+      <c r="H13" s="24" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
+        <v>13</v>
+      </c>
       <c r="B14" s="23"/>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
@@ -6725,33 +6749,65 @@
       <c r="G14" s="25"/>
       <c r="H14" s="24"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>14</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="24"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="24"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="27">
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="27">
         <f>SUM(D2:D12)</f>
         <v>87890990</v>
       </c>
-      <c r="E15" s="27">
-        <f>SUM(E2:E14)</f>
+      <c r="E18" s="27">
+        <f>SUM(E2:E17)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="27">
-        <f>SUM(F2:F14)</f>
-        <v>3524500</v>
-      </c>
-      <c r="G15" s="28">
-        <f>D15+E15-F15</f>
-        <v>84366490</v>
-      </c>
-      <c r="H15" s="26"/>
+      <c r="F18" s="27">
+        <f>SUM(F2:F17)</f>
+        <v>3556500</v>
+      </c>
+      <c r="G18" s="28">
+        <f>D18+E18-F18</f>
+        <v>84334490</v>
+      </c>
+      <c r="H18" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A18:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="262">
   <si>
     <t>STT</t>
   </si>
@@ -817,6 +817,12 @@
   </si>
   <si>
     <t>TOEIC AK8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photo Full Reading </t>
+  </si>
+  <si>
+    <t>Mua keo 502</t>
   </si>
 </sst>
 </file>
@@ -4088,7 +4094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="B34" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="B25" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -5137,8 +5143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6464,10 +6470,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6730,7 +6736,7 @@
       <c r="D13" s="24"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="24" t="s">
@@ -6741,11 +6747,17 @@
       <c r="A14" s="22">
         <v>13</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
+      <c r="B14" s="23">
+        <v>43115</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>166</v>
+      </c>
       <c r="D14" s="24"/>
       <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
+      <c r="F14" s="25">
+        <v>225000</v>
+      </c>
       <c r="G14" s="25"/>
       <c r="H14" s="24"/>
     </row>
@@ -6753,26 +6765,42 @@
       <c r="A15" s="22">
         <v>14</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
+      <c r="B15" s="23">
+        <v>43115</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>260</v>
+      </c>
       <c r="D15" s="24"/>
       <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
+      <c r="F15" s="25">
+        <v>31000</v>
+      </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="13" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
+      <c r="A16" s="22">
+        <v>15</v>
+      </c>
+      <c r="B16" s="23">
+        <v>43116</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>261</v>
+      </c>
       <c r="D16" s="24"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="24"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
+        <v>16</v>
+      </c>
       <c r="B17" s="23"/>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
@@ -6781,33 +6809,63 @@
       <c r="G17" s="25"/>
       <c r="H17" s="24"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="39" t="s">
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="24"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="24"/>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="27">
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="27">
         <f>SUM(D2:D12)</f>
         <v>87890990</v>
       </c>
-      <c r="E18" s="27">
-        <f>SUM(E2:E17)</f>
+      <c r="E21" s="27">
+        <f>SUM(E2:E20)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="27">
-        <f>SUM(F2:F17)</f>
-        <v>3556500</v>
-      </c>
-      <c r="G18" s="28">
-        <f>D18+E18-F18</f>
-        <v>84334490</v>
-      </c>
-      <c r="H18" s="26"/>
+      <c r="F21" s="27">
+        <f>SUM(F2:F20)</f>
+        <v>3821500</v>
+      </c>
+      <c r="G21" s="28">
+        <f>D21+E21-F21</f>
+        <v>84069490</v>
+      </c>
+      <c r="H21" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="263">
   <si>
     <t>STT</t>
   </si>
@@ -822,7 +822,10 @@
     <t xml:space="preserve">Photo Full Reading </t>
   </si>
   <si>
-    <t>Mua keo 502</t>
+    <t xml:space="preserve">Mua keo 502 </t>
+  </si>
+  <si>
+    <t>Tiền sửa phòng vệ sinh (tạm)</t>
   </si>
 </sst>
 </file>
@@ -6473,7 +6476,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6793,7 +6796,9 @@
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="F16" s="25">
+        <v>11000</v>
+      </c>
       <c r="G16" s="25"/>
       <c r="H16" s="24"/>
     </row>
@@ -6801,11 +6806,17 @@
       <c r="A17" s="22">
         <v>16</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
+      <c r="B17" s="23">
+        <v>43116</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>262</v>
+      </c>
       <c r="D17" s="24"/>
       <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
+      <c r="F17" s="25">
+        <v>1000000</v>
+      </c>
       <c r="G17" s="25"/>
       <c r="H17" s="24"/>
     </row>
@@ -6855,11 +6866,11 @@
       </c>
       <c r="F21" s="27">
         <f>SUM(F2:F20)</f>
-        <v>3821500</v>
+        <v>4832500</v>
       </c>
       <c r="G21" s="28">
         <f>D21+E21-F21</f>
-        <v>84069490</v>
+        <v>83058490</v>
       </c>
       <c r="H21" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="264">
   <si>
     <t>STT</t>
   </si>
@@ -825,7 +825,10 @@
     <t xml:space="preserve">Mua keo 502 </t>
   </si>
   <si>
-    <t>Tiền sửa phòng vệ sinh (tạm)</t>
+    <t>Tiền mua bút lông (5 cây)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiền sửa phòng vệ sinh </t>
   </si>
 </sst>
 </file>
@@ -6476,7 +6479,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6810,7 +6813,7 @@
         <v>43116</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="25"/>
@@ -6821,12 +6824,20 @@
       <c r="H17" s="24"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
+      <c r="A18" s="22">
+        <v>17</v>
+      </c>
+      <c r="B18" s="23">
+        <v>43118</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>262</v>
+      </c>
       <c r="D18" s="24"/>
       <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
+      <c r="F18" s="25">
+        <v>30000</v>
+      </c>
       <c r="G18" s="25"/>
       <c r="H18" s="24"/>
     </row>
@@ -6866,11 +6877,11 @@
       </c>
       <c r="F21" s="27">
         <f>SUM(F2:F20)</f>
-        <v>4832500</v>
+        <v>4862500</v>
       </c>
       <c r="G21" s="28">
         <f>D21+E21-F21</f>
-        <v>83058490</v>
+        <v>83028490</v>
       </c>
       <c r="H21" s="26"/>
     </row>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="270">
   <si>
     <t>STT</t>
   </si>
@@ -829,6 +829,24 @@
   </si>
   <si>
     <t xml:space="preserve">Tiền sửa phòng vệ sinh </t>
+  </si>
+  <si>
+    <t>Tiền wifi Tháng 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photo test cuối khóa </t>
+  </si>
+  <si>
+    <t>Học phí Toeic BK7</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Thu Hồng (30%)</t>
+  </si>
+  <si>
+    <t>20 bản</t>
+  </si>
+  <si>
+    <t>Nhận tiền Quỹ</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1066,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1134,6 +1152,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6476,10 +6497,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6792,102 +6813,178 @@
         <v>15</v>
       </c>
       <c r="B16" s="23">
-        <v>43116</v>
+        <v>43115</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="25"/>
-      <c r="F16" s="25">
-        <v>11000</v>
-      </c>
+      <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="24"/>
+      <c r="H16" s="42">
+        <v>2000000</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="23">
         <v>43116</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25">
-        <v>1000000</v>
+        <v>11000</v>
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="24"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="23">
-        <v>43118</v>
+        <v>43116</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25">
-        <v>30000</v>
+        <v>1000000</v>
       </c>
       <c r="G18" s="25"/>
       <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
+      <c r="A19" s="22">
+        <v>17</v>
+      </c>
+      <c r="B19" s="23">
+        <v>43118</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>262</v>
+      </c>
       <c r="D19" s="24"/>
       <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
+      <c r="F19" s="25">
+        <v>30000</v>
+      </c>
       <c r="G19" s="25"/>
       <c r="H19" s="24"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
+        <v>18</v>
+      </c>
+      <c r="B20" s="23">
+        <v>43119</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>265</v>
+      </c>
       <c r="D20" s="24"/>
       <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+      <c r="F20" s="25">
+        <v>86000</v>
+      </c>
       <c r="G20" s="25"/>
-      <c r="H20" s="24"/>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="39" t="s">
+      <c r="H20" s="24" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
+        <v>19</v>
+      </c>
+      <c r="B21" s="23">
+        <v>43119</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25">
+        <v>1680000</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="24" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="23">
+        <v>43120</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25">
+        <v>248000</v>
+      </c>
+      <c r="G22" s="25"/>
+      <c r="H22" s="24"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="24"/>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="27">
+      <c r="B25" s="40"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="27">
         <f>SUM(D2:D12)</f>
         <v>87890990</v>
       </c>
-      <c r="E21" s="27">
-        <f>SUM(E2:E20)</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="27">
-        <f>SUM(F2:F20)</f>
-        <v>4862500</v>
-      </c>
-      <c r="G21" s="28">
-        <f>D21+E21-F21</f>
-        <v>83028490</v>
-      </c>
-      <c r="H21" s="26"/>
+      <c r="E25" s="27">
+        <f>SUM(E2:E24)</f>
+        <v>1680000</v>
+      </c>
+      <c r="F25" s="27">
+        <f>SUM(F2:F24)</f>
+        <v>5196500</v>
+      </c>
+      <c r="G25" s="28">
+        <f>D25+E25-F25</f>
+        <v>84374490</v>
+      </c>
+      <c r="H25" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -20,6 +20,7 @@
     <sheet name="Thang 11" sheetId="13" r:id="rId6"/>
     <sheet name="Tháng 12" sheetId="14" r:id="rId7"/>
     <sheet name="Thang 1 - 2018" sheetId="15" r:id="rId8"/>
+    <sheet name="Thang 2 - 2018" sheetId="16" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Thang 11'!$A$1:$H$29</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="271">
   <si>
     <t>STT</t>
   </si>
@@ -847,6 +848,9 @@
   </si>
   <si>
     <t>Nhận tiền Quỹ</t>
+  </si>
+  <si>
+    <t>Tiền Giấy vệ sinh</t>
   </si>
 </sst>
 </file>
@@ -1144,6 +1148,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1152,9 +1159,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3199,11 +3203,11 @@
       <c r="H46" s="24"/>
     </row>
     <row r="47" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="39" t="s">
+      <c r="A47" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="40"/>
-      <c r="C47" s="41"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="42"/>
       <c r="D47" s="27">
         <f>SUM(D2:D45)</f>
         <v>22096000</v>
@@ -5119,11 +5123,11 @@
       <c r="H51" s="24"/>
     </row>
     <row r="52" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="39" t="s">
+      <c r="A52" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="40"/>
-      <c r="C52" s="41"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="42"/>
       <c r="D52" s="27">
         <f>SUM(D2:D12)</f>
         <v>66898500</v>
@@ -5779,11 +5783,11 @@
       <c r="H31" s="24"/>
     </row>
     <row r="32" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="42"/>
       <c r="D32" s="27">
         <f>SUM(D2:D12)</f>
         <v>71654990</v>
@@ -6462,11 +6466,11 @@
       <c r="H33" s="24"/>
     </row>
     <row r="34" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="42"/>
       <c r="D34" s="27">
         <f>SUM(D2:D12)</f>
         <v>79724990</v>
@@ -6499,8 +6503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6822,9 +6826,7 @@
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="42">
-        <v>2000000</v>
-      </c>
+      <c r="H16" s="39"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
@@ -6939,12 +6941,20 @@
       <c r="H22" s="24"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
+      <c r="A23" s="22">
+        <v>21</v>
+      </c>
+      <c r="B23" s="23">
+        <v>43131</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>270</v>
+      </c>
       <c r="D23" s="24"/>
       <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
+      <c r="F23" s="25">
+        <v>25000</v>
+      </c>
       <c r="G23" s="25"/>
       <c r="H23" s="24"/>
     </row>
@@ -6959,11 +6969,11 @@
       <c r="H24" s="24"/>
     </row>
     <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="27">
         <f>SUM(D2:D12)</f>
         <v>87890990</v>
@@ -6974,11 +6984,11 @@
       </c>
       <c r="F25" s="27">
         <f>SUM(F2:F24)</f>
-        <v>5196500</v>
+        <v>5221500</v>
       </c>
       <c r="G25" s="28">
         <f>D25+E25-F25</f>
-        <v>84374490</v>
+        <v>84349490</v>
       </c>
       <c r="H25" s="26"/>
     </row>
@@ -6988,4 +6998,16 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Chi phi tong" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="274">
   <si>
     <t>STT</t>
   </si>
@@ -851,6 +851,15 @@
   </si>
   <si>
     <t>Tiền Giấy vệ sinh</t>
+  </si>
+  <si>
+    <t>Quỹ còn: 101,000</t>
+  </si>
+  <si>
+    <t>Học phí TOEIC BK7</t>
+  </si>
+  <si>
+    <t>Phạm Thị Tâm (giảm 25%)</t>
   </si>
 </sst>
 </file>
@@ -6503,8 +6512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6826,7 +6835,9 @@
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="39"/>
+      <c r="H16" s="39">
+        <v>2000000</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
@@ -6990,7 +7001,9 @@
         <f>D25+E25-F25</f>
         <v>84349490</v>
       </c>
-      <c r="H25" s="26"/>
+      <c r="H25" s="26" t="s">
+        <v>271</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7002,12 +7015,149 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="43.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17">
+        <v>43132</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="19">
+        <f>'Thang 1 - 2018'!G25</f>
+        <v>84349490</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19">
+        <f>D2+E2-F2</f>
+        <v>84349490</v>
+      </c>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12">
+        <v>43134</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19">
+        <v>1800000</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="18" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="24"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="27">
+        <f>SUM(D2:D5)</f>
+        <v>84349490</v>
+      </c>
+      <c r="E7" s="27">
+        <f>SUM(E2:E6)</f>
+        <v>1800000</v>
+      </c>
+      <c r="F7" s="27">
+        <f>SUM(F2:F6)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="28">
+        <f>D7+E7-F7</f>
+        <v>86149490</v>
+      </c>
+      <c r="H7" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:C7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Thu Chi 2017.xlsx
+++ b/Thu Chi 2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\New folder\trunk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SUCCESS - github\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -7018,7 +7018,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
